--- a/Sample_Bank_Data/MAR 2025.xlsx
+++ b/Sample_Bank_Data/MAR 2025.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28906"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\OneDrive_2025-04-23\Sample Bank Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E34F5EE8-0214-4B11-8BC4-74F6C241520F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40380EC0-9BDC-424A-A882-87BF3B7726F9}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{E34F5EE8-0214-4B11-8BC4-74F6C241520F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9C2CEF6-002E-47FF-B86B-5F3D361D02DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CUSTOMER" sheetId="6" r:id="rId1"/>
     <sheet name="fact risk" sheetId="1" r:id="rId2"/>
-    <sheet name="Fact writeen-off" sheetId="8" r:id="rId3"/>
-    <sheet name="fact restructred" sheetId="10" r:id="rId4"/>
-    <sheet name="rating" sheetId="5" r:id="rId5"/>
-    <sheet name="Collateral Types" sheetId="12" r:id="rId6"/>
-    <sheet name="Rating and PDS&amp;P Moody's Fitch " sheetId="11" r:id="rId7"/>
-    <sheet name="Risk Limit" sheetId="13" r:id="rId8"/>
-    <sheet name="STAGING" sheetId="7" r:id="rId9"/>
+    <sheet name="Provision" sheetId="14" r:id="rId3"/>
+    <sheet name="Fact writeen-off" sheetId="8" r:id="rId4"/>
+    <sheet name="fact restructred" sheetId="10" r:id="rId5"/>
+    <sheet name="rating" sheetId="5" r:id="rId6"/>
+    <sheet name="Collateral Types" sheetId="12" r:id="rId7"/>
+    <sheet name="Rating and PDS&amp;P Moody's Fitch " sheetId="11" r:id="rId8"/>
+    <sheet name="PD" sheetId="15" r:id="rId9"/>
+    <sheet name="Risk Limit" sheetId="13" r:id="rId10"/>
+    <sheet name="STAGING" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'fact risk'!$B$1:$AD$51</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="228">
   <si>
     <t>Cust name</t>
   </si>
@@ -337,6 +339,12 @@
     <t>3C</t>
   </si>
   <si>
+    <t>Provision Stages</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
     <t>Company</t>
   </si>
   <si>
@@ -610,106 +618,106 @@
     <t>Internal Rating</t>
   </si>
   <si>
+    <t>PD 2024</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Aaa</t>
+  </si>
+  <si>
+    <t>AA+</t>
+  </si>
+  <si>
+    <t>Aa1</t>
+  </si>
+  <si>
+    <t>Aa2</t>
+  </si>
+  <si>
+    <t>Baa1</t>
+  </si>
+  <si>
+    <t>Baa2</t>
+  </si>
+  <si>
+    <t>BBB-</t>
+  </si>
+  <si>
+    <t>Baa3</t>
+  </si>
+  <si>
+    <t>Ba1</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Ba2</t>
+  </si>
+  <si>
+    <t>BB-</t>
+  </si>
+  <si>
+    <t>Ba3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>CCC+</t>
+  </si>
+  <si>
+    <t>Caa1</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>Caa2</t>
+  </si>
+  <si>
+    <t>CCC-</t>
+  </si>
+  <si>
+    <t>Caa3</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
     <t>PD 2025</t>
-  </si>
-  <si>
-    <t>PD 2024</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>Aaa</t>
-  </si>
-  <si>
-    <t>AA+</t>
-  </si>
-  <si>
-    <t>Aa1</t>
-  </si>
-  <si>
-    <t>Aa2</t>
-  </si>
-  <si>
-    <t>Baa1</t>
-  </si>
-  <si>
-    <t>Baa2</t>
-  </si>
-  <si>
-    <t>BBB-</t>
-  </si>
-  <si>
-    <t>Baa3</t>
-  </si>
-  <si>
-    <t>Ba1</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>Ba2</t>
-  </si>
-  <si>
-    <t>BB-</t>
-  </si>
-  <si>
-    <t>Ba3</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>CCC+</t>
-  </si>
-  <si>
-    <t>Caa1</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>Caa2</t>
-  </si>
-  <si>
-    <t>CCC-</t>
-  </si>
-  <si>
-    <t>Caa3</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>DD</t>
   </si>
   <si>
     <t>Internal risk rating</t>
@@ -907,7 +915,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -967,6 +975,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -990,13 +1001,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>411058</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -2232,11 +2243,277 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBF9D8-6D68-44E8-8DE1-2774EAB98DC9}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42">
+        <v>126000000</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="44">
+        <v>100000000</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="44">
+        <v>550000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42">
+        <v>113400000</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="44">
+        <v>300000000</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="44">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="42">
+        <v>100800000</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="44">
+        <v>390000000</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="44">
+        <v>800000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42">
+        <v>105840000</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="44">
+        <v>180000000</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="44">
+        <v>1050000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42">
+        <v>90720000</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="44">
+        <v>270000000</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="44">
+        <v>360000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="26">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42">
+        <v>64800000</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="44">
+        <v>560000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="26">
+        <v>7</v>
+      </c>
+      <c r="B8" s="42">
+        <v>51840000</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="44">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="26">
+        <v>8</v>
+      </c>
+      <c r="B9" s="42">
+        <v>45360000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="26">
+        <v>9</v>
+      </c>
+      <c r="B10" s="42">
+        <v>46656000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="42">
+        <v>38880000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="26">
+        <v>11</v>
+      </c>
+      <c r="B12" s="42">
+        <v>25920000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="26">
+        <v>12</v>
+      </c>
+      <c r="B13" s="42">
+        <v>19440000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="26">
+        <v>13</v>
+      </c>
+      <c r="B14" s="42">
+        <v>12960000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="26">
+        <v>14</v>
+      </c>
+      <c r="B15" s="42">
+        <v>10368000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="26">
+        <v>15</v>
+      </c>
+      <c r="B16" s="42">
+        <v>7776000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="26">
+        <v>16</v>
+      </c>
+      <c r="B17" s="42">
+        <v>4147200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="26">
+        <v>17</v>
+      </c>
+      <c r="B18" s="43">
+        <v>1036800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="P35" workbookViewId="0">
+      <selection activeCell="Y54" sqref="Y54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7443,6 +7720,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEE5E4A-70E6-483D-BEC0-EE53E80C9560}">
+  <dimension ref="B1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0525FA23-3CAD-4855-B532-1A977B48E93A}">
   <dimension ref="B2:G42"/>
   <sheetViews>
@@ -7462,27 +7789,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="41.25" customHeight="1">
       <c r="B3" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" s="16">
         <v>26957145.599999998</v>
@@ -7491,20 +7818,20 @@
         <v>2024</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F3" s="17">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5393570.1200000001</v>
+        <v>5397921.1200000001</v>
       </c>
       <c r="G3" s="16">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21563575.479999997</v>
+        <v>21559224.479999997</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" s="16">
         <v>40426848</v>
@@ -7513,20 +7840,20 @@
         <v>2023</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F4" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8096341.6000000006</v>
+        <v>8095848.6000000006</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>32330506.399999999</v>
+        <v>32330999.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" s="16">
         <v>53896550.399999999</v>
@@ -7535,20 +7862,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>10800710.08</v>
+        <v>10782245.08</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>43095840.32</v>
+        <v>43114305.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30">
       <c r="B6" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="16">
         <v>67366252.799999997</v>
@@ -7557,20 +7884,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>13487593.560000001</v>
+        <v>13492419.560000001</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>53878659.239999995</v>
+        <v>53873833.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30">
       <c r="B7" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C7" s="16">
         <v>80835955.199999988</v>
@@ -7579,20 +7906,20 @@
         <v>2024</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16188424.039999999</v>
+        <v>16191150.039999999</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>64647531.159999989</v>
+        <v>64644805.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C8" s="16">
         <v>94305657.600000009</v>
@@ -7601,20 +7928,20 @@
         <v>2023</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>18874257.520000003</v>
+        <v>18876263.520000003</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>75431400.080000013</v>
+        <v>75429394.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30">
       <c r="B9" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C9" s="16">
         <v>107760576</v>
@@ -7623,20 +7950,20 @@
         <v>2022</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>21555593.200000003</v>
+        <v>21553643.200000003</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>86204982.799999997</v>
+        <v>86206932.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" s="16">
         <v>121082438.39999999</v>
@@ -7645,20 +7972,20 @@
         <v>2019</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>24232362.68</v>
+        <v>24237312.68</v>
       </c>
       <c r="G10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>96850075.719999999</v>
+        <v>96845125.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30">
       <c r="B11" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C11" s="16">
         <v>133073740.8</v>
@@ -7667,20 +7994,20 @@
         <v>2024</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26623167.16</v>
+        <v>26620518.16</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>106450573.64</v>
+        <v>106453222.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C12" s="16">
         <v>146543443.19999999</v>
@@ -7689,20 +8016,20 @@
         <v>2023</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29318574.640000001</v>
+        <v>29332921.640000001</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>117224868.55999999</v>
+        <v>117210521.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C13" s="16">
         <v>16608345.6</v>
@@ -7711,20 +8038,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3339282.12</v>
+        <v>3325297.12</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>13269063.48</v>
+        <v>13283048.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C14" s="16">
         <v>33034848</v>
@@ -7733,20 +8060,20 @@
         <v>2019</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6627059.6000000006</v>
+        <v>6619421.6000000006</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>26407788.399999999</v>
+        <v>26415426.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30">
       <c r="B15" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C15" s="16">
         <v>49461350.399999999</v>
@@ -7755,20 +8082,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9901783.0800000001</v>
+        <v>9898226.0800000001</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>39559567.32</v>
+        <v>39563124.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C16" s="16">
         <v>65887852.800000004</v>
@@ -7777,20 +8104,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>13180312.560000002</v>
+        <v>13179912.560000002</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>52707540.240000002</v>
+        <v>52707940.240000002</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C17" s="16">
         <v>82314355.199999988</v>
@@ -7799,20 +8126,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16482589.039999999</v>
+        <v>16469630.039999999</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>65831766.159999989</v>
+        <v>65844725.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C18" s="16">
         <v>98740857.600000009</v>
@@ -7821,20 +8148,20 @@
         <v>2020</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19766121.520000003</v>
+        <v>19771651.520000003</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>78974736.080000013</v>
+        <v>78969206.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30">
       <c r="B19" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C19" s="16">
         <v>115152576</v>
@@ -7843,20 +8170,20 @@
         <v>2020</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>23042873.200000003</v>
+        <v>23047068.200000003</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>92109702.799999997</v>
+        <v>92105507.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C20" s="16">
         <v>131431238.39999999</v>
@@ -7865,20 +8192,20 @@
         <v>2020</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26304705.68</v>
+        <v>26287855.68</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>105126532.72</v>
+        <v>105143382.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30">
       <c r="B21" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C21" s="16">
         <v>146379340.79999998</v>
@@ -7887,20 +8214,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29298319.159999996</v>
+        <v>29298177.159999996</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>117081021.63999999</v>
+        <v>117081163.63999999</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C22" s="16">
         <v>14965843.200000001</v>
@@ -7909,20 +8236,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>2999824.6400000006</v>
+        <v>3010362.6400000006</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>11966018.560000001</v>
+        <v>11955480.560000001</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C23" s="16">
         <v>31392345.599999998</v>
@@ -7931,20 +8258,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6283449.1200000001</v>
+        <v>6287129.1200000001</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>25108896.479999997</v>
+        <v>25105216.479999997</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C24" s="16">
         <v>47818848</v>
@@ -7953,20 +8280,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9567908.5999999996</v>
+        <v>9566626.5999999996</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>38250939.399999999</v>
+        <v>38252221.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30">
       <c r="B25" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C25" s="16">
         <v>64245350.399999999</v>
@@ -7975,20 +8302,20 @@
         <v>2017</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12850994.08</v>
+        <v>12867089.08</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>51394356.32</v>
+        <v>51378261.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C26" s="16">
         <v>80671852.799999997</v>
@@ -7997,20 +8324,20 @@
         <v>2017</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16151484.560000001</v>
+        <v>16140857.560000001</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>64520368.239999995</v>
+        <v>64530995.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30">
       <c r="B27" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C27" s="16">
         <v>97098355.199999988</v>
@@ -8019,20 +8346,20 @@
         <v>2017</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19423655.039999999</v>
+        <v>19428844.039999999</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>77674700.159999996</v>
+        <v>77669511.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C28" s="16">
         <v>113524857.60000001</v>
@@ -8041,20 +8368,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22715155.520000003</v>
+        <v>22721924.520000003</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>90809702.080000013</v>
+        <v>90802933.080000013</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C29" s="16">
         <v>129936576</v>
@@ -8063,20 +8390,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F29" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26012101.200000003</v>
+        <v>26001874.200000003</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>103924474.8</v>
+        <v>103934701.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30">
       <c r="B30" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C30" s="16">
         <v>146215238.40000001</v>
@@ -8085,20 +8412,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F30" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29257578.680000003</v>
+        <v>29262738.680000003</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>116957659.72</v>
+        <v>116952499.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C31" s="16">
         <v>28107340.799999997</v>
@@ -8107,20 +8434,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F31" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5636951.1600000001</v>
+        <v>5631676.1600000001</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>22470389.639999997</v>
+        <v>22475664.639999997</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C32" s="16">
         <v>44533843.199999996</v>
@@ -8129,20 +8456,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F32" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8911864.6399999987</v>
+        <v>8910817.6399999987</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>35621978.559999995</v>
+        <v>35623025.559999995</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30">
       <c r="B33" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C33" s="16">
         <v>60960345.599999994</v>
@@ -8151,20 +8478,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F33" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12196968.119999999</v>
+        <v>12216706.119999999</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>48763377.479999997</v>
+        <v>48743639.479999997</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C34" s="16">
         <v>77386848</v>
@@ -8173,20 +8500,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>15495675.600000001</v>
+        <v>15492969.600000001</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>61891172.399999999</v>
+        <v>61893878.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C35" s="16">
         <v>93813350.399999991</v>
@@ -8195,20 +8522,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>18779184.079999998</v>
+        <v>18780074.079999998</v>
       </c>
       <c r="G35" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>75034166.319999993</v>
+        <v>75033276.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30">
       <c r="B36" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C36" s="16">
         <v>110239852.8</v>
@@ -8217,20 +8544,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F36" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22051478.560000002</v>
+        <v>22072520.560000002</v>
       </c>
       <c r="G36" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>88188374.239999995</v>
+        <v>88167332.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C37" s="16">
         <v>126666355.19999999</v>
@@ -8239,20 +8566,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F37" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>25353686.039999999</v>
+        <v>25356884.039999999</v>
       </c>
       <c r="G37" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>101312669.16</v>
+        <v>101309471.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C38" s="16">
         <v>143092857.59999999</v>
@@ -8261,20 +8588,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F38" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>28640868.52</v>
+        <v>28638807.52</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>114451989.08</v>
+        <v>114454050.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30">
       <c r="B39" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C39" s="16">
         <v>26448576</v>
@@ -8283,20 +8610,20 @@
         <v>2015</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F39" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5304335.2</v>
+        <v>5295307.2</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>21144240.800000001</v>
+        <v>21153268.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C40" s="16">
         <v>42727238.399999999</v>
@@ -8305,20 +8632,20 @@
         <v>2015</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F40" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8548461.6799999997</v>
+        <v>8563425.6799999997</v>
       </c>
       <c r="G40" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>34178776.719999999</v>
+        <v>34163812.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C41" s="16">
         <v>57675340.800000004</v>
@@ -8327,20 +8654,20 @@
         <v>2015</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F41" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>11551046.160000002</v>
+        <v>11552714.160000002</v>
       </c>
       <c r="G41" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>46124294.640000001</v>
+        <v>46122626.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C42" s="16">
         <v>74101843.200000003</v>
@@ -8349,15 +8676,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F42" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>14831576.640000001</v>
+        <v>14838427.640000001</v>
       </c>
       <c r="G42" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>59270266.560000002</v>
+        <v>59263415.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -8365,7 +8692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67618C1-C8A0-47B6-8B25-F487EA031E1F}">
   <dimension ref="B2:F43"/>
   <sheetViews>
@@ -8393,10 +8720,10 @@
         <v>69</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -8410,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F3" s="35">
         <v>46466</v>
@@ -8427,7 +8754,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F4" s="36">
         <v>46467</v>
@@ -8537,7 +8864,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C38" s="19">
         <v>8</v>
@@ -8546,13 +8873,13 @@
         <v>3</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F38" s="20"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C39" s="19">
         <v>9</v>
@@ -8561,13 +8888,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F39" s="20"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C40" s="19">
         <v>10</v>
@@ -8576,13 +8903,13 @@
         <v>5</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F40" s="20"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C41" s="19">
         <v>11</v>
@@ -8591,13 +8918,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C42" s="19">
         <v>12</v>
@@ -8606,13 +8933,13 @@
         <v>2</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F42" s="20"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C43" s="19">
         <v>13</v>
@@ -8621,7 +8948,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F43" s="20"/>
     </row>
@@ -8630,7 +8957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63958FAE-3AAE-44C0-9CCD-F6FFBDEF2641}">
   <dimension ref="A1:H52"/>
   <sheetViews>
@@ -8663,13 +8990,13 @@
         <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8689,10 +9016,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8714,10 +9041,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -8738,10 +9065,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8762,10 +9089,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8786,10 +9113,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -8811,10 +9138,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -8836,10 +9163,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -8861,10 +9188,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -8886,10 +9213,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -8911,10 +9238,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -8936,7 +9263,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -8958,10 +9285,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -8983,7 +9310,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9006,7 +9333,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9028,7 +9355,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9050,10 +9377,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -9075,7 +9402,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9097,7 +9424,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -9119,7 +9446,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9142,7 +9469,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -9164,7 +9491,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9186,7 +9513,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9208,7 +9535,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -9230,7 +9557,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9252,7 +9579,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9274,7 +9601,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -9296,10 +9623,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9321,10 +9648,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -9346,7 +9673,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -9368,7 +9695,7 @@
         <v>13</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9391,7 +9718,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9413,10 +9740,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -9438,10 +9765,10 @@
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -9463,10 +9790,10 @@
         <v>12</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -9488,10 +9815,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -9513,7 +9840,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -9535,7 +9862,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -9557,7 +9884,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -9579,10 +9906,10 @@
         <v>12</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -9604,10 +9931,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H41" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -9629,7 +9956,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -9651,7 +9978,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -9673,7 +10000,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -9695,7 +10022,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -9717,7 +10044,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -9739,7 +10066,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -9761,7 +10088,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -9783,7 +10110,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9805,7 +10132,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9827,7 +10154,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9840,7 +10167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFEAB53-F9D0-4C12-8526-3AA533AE3615}">
   <dimension ref="C3:D7"/>
   <sheetViews>
@@ -9855,15 +10182,15 @@
   <sheetData>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D4" s="28">
         <v>0.5</v>
@@ -9871,7 +10198,7 @@
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D5" s="28">
         <v>0</v>
@@ -9879,7 +10206,7 @@
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D6" s="28">
         <v>0.75</v>
@@ -9887,7 +10214,7 @@
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D7" s="28">
         <v>1</v>
@@ -9898,54 +10225,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C37A82-D7A6-4789-BD43-2FD9C4C9FCC6}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:16" ht="30.75">
       <c r="A1" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="K1" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>189</v>
       </c>
       <c r="D2" s="26">
         <v>21</v>
@@ -9955,25 +10279,19 @@
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2" s="27">
+      <c r="K2" s="27">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="J2" s="27">
-        <v>2.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>192</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>191</v>
       </c>
       <c r="D3" s="26">
         <v>20</v>
@@ -9983,25 +10301,19 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" s="27">
+      <c r="K3" s="27">
         <v>2.32E-4</v>
       </c>
-      <c r="J3" s="27">
-        <v>2.32E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D4" s="26">
         <v>19</v>
@@ -10011,26 +10323,20 @@
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
-      <c r="H4" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="I4" s="27">
+      <c r="K4" s="27">
         <v>5.1800000000000001E-4</v>
       </c>
-      <c r="J4" s="27">
-        <v>5.1800000000000001E-4</v>
-      </c>
-      <c r="O4" s="22"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D5" s="26">
         <v>18</v>
@@ -10040,25 +10346,19 @@
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="I5" s="27">
+      <c r="K5" s="27">
         <v>1.1119999999999999E-3</v>
       </c>
-      <c r="J5" s="27">
-        <v>1.1119999999999999E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D6" s="26">
         <v>17</v>
@@ -10068,25 +10368,19 @@
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="I6" s="27">
+      <c r="K6" s="27">
         <v>2.0799999999999998E-3</v>
       </c>
-      <c r="J6" s="27">
-        <v>2.0799999999999998E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D7" s="26">
         <v>16</v>
@@ -10096,25 +10390,19 @@
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="I7" s="27">
+      <c r="K7" s="27">
         <v>3.7959999999999999E-3</v>
       </c>
-      <c r="J7" s="27">
-        <v>3.7959999999999999E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D8" s="26">
         <v>15</v>
@@ -10124,25 +10412,19 @@
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="I8" s="27">
+      <c r="K8" s="27">
         <v>5.94E-3</v>
       </c>
-      <c r="J8" s="27">
-        <v>5.94E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D9" s="26">
         <v>14</v>
@@ -10152,25 +10434,19 @@
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="I9" s="27">
+      <c r="K9" s="27">
         <v>9.1299999999999992E-3</v>
       </c>
-      <c r="J9" s="27">
-        <v>9.1299999999999992E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26">
         <v>13</v>
@@ -10180,25 +10456,19 @@
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="I10" s="27">
+      <c r="K10" s="27">
         <v>1.32E-2</v>
       </c>
-      <c r="J10" s="27">
-        <v>1.32E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B11" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="D11" s="26">
         <v>12</v>
@@ -10208,25 +10478,19 @@
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="I11" s="27">
+      <c r="K11" s="27">
         <v>2.6179999999999998E-2</v>
       </c>
-      <c r="J11" s="27">
-        <v>2.6179999999999998E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D12" s="26">
         <v>11</v>
@@ -10236,25 +10500,19 @@
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="I12" s="27">
+      <c r="K12" s="27">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="J12" s="27">
-        <v>4.6199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>200</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>199</v>
       </c>
       <c r="D13" s="26">
         <v>10</v>
@@ -10264,25 +10522,19 @@
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="I13" s="27">
+      <c r="K13" s="27">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="J13" s="27">
-        <v>7.4800000000000005E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>202</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="D14" s="26">
         <v>9</v>
@@ -10292,25 +10544,19 @@
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="I14" s="27">
+      <c r="K14" s="27">
         <v>0.10768999999999999</v>
       </c>
-      <c r="J14" s="27">
-        <v>0.10768999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D15" s="26">
         <v>8</v>
@@ -10320,25 +10566,19 @@
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
-      <c r="H15" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="I15" s="27">
+      <c r="K15" s="27">
         <v>0.15235000000000001</v>
       </c>
-      <c r="J15" s="27">
-        <v>0.15235000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B16" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>205</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>204</v>
       </c>
       <c r="D16" s="26">
         <v>7</v>
@@ -10348,25 +10588,19 @@
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" s="27">
+      <c r="K16" s="27">
         <v>0.19941999999999999</v>
       </c>
-      <c r="J16" s="27">
-        <v>0.19941999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B17" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>207</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>206</v>
       </c>
       <c r="D17" s="26">
         <v>6</v>
@@ -10376,25 +10610,19 @@
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="I17" s="27">
+      <c r="K17" s="27">
         <v>0.26444000000000001</v>
       </c>
-      <c r="J17" s="27">
-        <v>0.26444000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B18" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>209</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>208</v>
       </c>
       <c r="D18" s="26">
         <v>5</v>
@@ -10404,25 +10632,19 @@
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="I18" s="27">
+      <c r="K18" s="27">
         <v>0.35726799999999997</v>
       </c>
-      <c r="J18" s="27">
-        <v>0.35726799999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>211</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>210</v>
       </c>
       <c r="D19" s="26">
         <v>4</v>
@@ -10432,25 +10654,19 @@
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="I19" s="27">
+      <c r="K19" s="27">
         <v>0.48268</v>
       </c>
-      <c r="J19" s="27">
-        <v>0.48268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>213</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>212</v>
       </c>
       <c r="D20" s="26">
         <v>3</v>
@@ -10460,25 +10676,19 @@
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I20" s="27">
+      <c r="K20" s="27">
         <v>0.72866200000000003</v>
       </c>
-      <c r="J20" s="27">
-        <v>0.72866200000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>214</v>
       </c>
       <c r="D21" s="26">
         <v>2</v>
@@ -10488,21 +10698,15 @@
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="I21" s="27">
+      <c r="K21" s="27">
         <v>1</v>
       </c>
-      <c r="J21" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D22" s="26">
         <v>2</v>
@@ -10512,25 +10716,19 @@
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="I22" s="27">
+      <c r="K22" s="27">
         <v>1</v>
       </c>
-      <c r="J22" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>216</v>
-      </c>
       <c r="C23" s="26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D23" s="26">
         <v>1</v>
@@ -10541,14 +10739,15 @@
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D24" s="26">
         <v>1</v>
@@ -10559,12 +10758,13 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D25" s="26">
         <v>1</v>
@@ -10575,8 +10775,9 @@
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="26"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -10587,6 +10788,7 @@
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10594,266 +10796,257 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBF9D8-6D68-44E8-8DE1-2774EAB98DC9}">
-  <dimension ref="A1:J18"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087F3A0B-3A87-48CD-8E98-9D736E99ECEC}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="1:3" ht="30.75">
+      <c r="A1" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="39" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="26">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="26">
         <v>3</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="26">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42">
-        <v>126000000</v>
-      </c>
-      <c r="E2" s="41" t="s">
+      <c r="C4">
+        <v>5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="26">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.11119999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="26">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="26">
         <v>6</v>
       </c>
-      <c r="F2" s="44">
-        <v>100000000</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="44">
-        <v>550000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="42">
-        <v>113400000</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="44">
-        <v>300000000</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="44">
-        <v>500000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="42">
-        <v>100800000</v>
-      </c>
-      <c r="E4" s="41" t="s">
+      <c r="C7">
+        <v>0.37959999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="26">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="26">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="26">
         <v>9</v>
       </c>
-      <c r="F4" s="44">
-        <v>390000000</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="44">
-        <v>800000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="26">
-        <v>4</v>
-      </c>
-      <c r="B5" s="42">
-        <v>105840000</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="44">
-        <v>180000000</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="44">
-        <v>1050000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="26">
-        <v>5</v>
-      </c>
-      <c r="B6" s="42">
-        <v>90720000</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="44">
-        <v>270000000</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="44">
-        <v>360000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="26">
-        <v>6</v>
-      </c>
-      <c r="B7" s="42">
-        <v>64800000</v>
-      </c>
-      <c r="E7" s="41" t="s">
+      <c r="C10">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="26">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2.6179999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="26">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="26">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="26">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>10.769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="26">
         <v>14</v>
       </c>
-      <c r="F7" s="44">
-        <v>560000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="26">
-        <v>7</v>
-      </c>
-      <c r="B8" s="42">
-        <v>51840000</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="44">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="26">
-        <v>8</v>
-      </c>
-      <c r="B9" s="42">
-        <v>45360000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="26">
-        <v>9</v>
-      </c>
-      <c r="B10" s="42">
-        <v>46656000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="42">
-        <v>38880000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="42">
-        <v>25920000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="26">
-        <v>12</v>
-      </c>
-      <c r="B13" s="42">
-        <v>19440000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="26">
-        <v>13</v>
-      </c>
-      <c r="B14" s="42">
-        <v>12960000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="26">
-        <v>14</v>
-      </c>
-      <c r="B15" s="42">
-        <v>10368000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="26">
+      <c r="C15">
+        <v>15.234999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="42">
-        <v>7776000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="26">
+      <c r="C16">
+        <v>19.942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="42">
-        <v>4147200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="26">
+      <c r="C17">
+        <v>26.443999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="43">
-        <v>1036800</v>
+      <c r="C18">
+        <v>35.726799999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="26">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>48.268000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="26">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>72.866200000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="26">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Sample_Bank_Data/MAR 2025.xlsx
+++ b/Sample_Bank_Data/MAR 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{25D74041-CCDA-46DC-A0BC-819C38372F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06A70E21-EE5D-44B0-AF9D-4B65EC32F6C8}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{25D74041-CCDA-46DC-A0BC-819C38372F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{850C89A3-E518-4537-9AFE-2BF53F97D497}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CUSTOMER" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="320">
   <si>
     <t>Cust name</t>
   </si>
@@ -514,373 +514,118 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Govt Bond</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Govt Bond</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Provision Stages</t>
@@ -2709,21 +2454,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="46" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>398</v>
+        <v>313</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>399</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="B2" s="16">
         <v>1</v>
@@ -2737,7 +2482,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="B3" s="16">
         <v>2</v>
@@ -2751,7 +2496,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="16" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="B4" s="16">
         <v>3</v>
@@ -2765,7 +2510,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="16" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="B5" s="16">
         <v>4</v>
@@ -2779,7 +2524,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="16" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="B6" s="16">
         <v>5</v>
@@ -2793,7 +2538,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="16" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="B7" s="16">
         <v>6</v>
@@ -2807,7 +2552,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="16" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="B8" s="16">
         <v>7</v>
@@ -2821,7 +2566,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="16" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="B9" s="16">
         <v>8</v>
@@ -2835,7 +2580,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="16" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="B10" s="16">
         <v>9</v>
@@ -2849,7 +2594,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="16" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="B11" s="16">
         <v>10</v>
@@ -2863,7 +2608,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="16" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="B12" s="16">
         <v>11</v>
@@ -2877,7 +2622,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="16" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="B13" s="16">
         <v>12</v>
@@ -2891,7 +2636,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="16" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="B14" s="16">
         <v>13</v>
@@ -2905,7 +2650,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="16" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="B15" s="16">
         <v>14</v>
@@ -2919,7 +2664,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="16" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="B16" s="16">
         <v>15</v>
@@ -2933,7 +2678,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="16" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="B17" s="16">
         <v>16</v>
@@ -2947,7 +2692,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="16" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="B18" s="16">
         <v>17</v>
@@ -2961,7 +2706,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="16" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="B19" s="16">
         <v>17</v>
@@ -2975,7 +2720,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="16" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="B20" s="16">
         <v>17</v>
@@ -2989,7 +2734,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="16" t="s">
-        <v>392</v>
+        <v>307</v>
       </c>
       <c r="B21" s="16">
         <v>17</v>
@@ -3003,7 +2748,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="16" t="s">
-        <v>393</v>
+        <v>308</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22">
@@ -3039,22 +2784,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="26" t="s">
-        <v>400</v>
+        <v>315</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>401</v>
+        <v>316</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>402</v>
+        <v>317</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>404</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8498,8 +8243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9362,7 +9107,7 @@
         <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9394,7 +9139,7 @@
         <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9426,7 +9171,7 @@
         <v>123</v>
       </c>
       <c r="I29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9458,7 +9203,7 @@
         <v>123</v>
       </c>
       <c r="I30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9490,7 +9235,7 @@
         <v>115</v>
       </c>
       <c r="I31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9522,7 +9267,7 @@
         <v>108</v>
       </c>
       <c r="I32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9554,7 +9299,7 @@
         <v>108</v>
       </c>
       <c r="I33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9586,7 +9331,7 @@
         <v>134</v>
       </c>
       <c r="I34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9618,7 +9363,7 @@
         <v>134</v>
       </c>
       <c r="I35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9650,7 +9395,7 @@
         <v>115</v>
       </c>
       <c r="I36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9682,7 +9427,7 @@
         <v>134</v>
       </c>
       <c r="I37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9714,7 +9459,7 @@
         <v>134</v>
       </c>
       <c r="I38" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9746,7 +9491,7 @@
         <v>115</v>
       </c>
       <c r="I39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9778,7 +9523,7 @@
         <v>108</v>
       </c>
       <c r="I40" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9810,7 +9555,7 @@
         <v>108</v>
       </c>
       <c r="I41" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9842,7 +9587,7 @@
         <v>123</v>
       </c>
       <c r="I42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -9868,13 +9613,13 @@
         <v>148</v>
       </c>
       <c r="G43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H43" t="s">
         <v>123</v>
       </c>
       <c r="I43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -9906,7 +9651,7 @@
         <v>115</v>
       </c>
       <c r="I44" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -9938,7 +9683,7 @@
         <v>123</v>
       </c>
       <c r="I45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -9970,7 +9715,7 @@
         <v>123</v>
       </c>
       <c r="I46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10002,7 +9747,7 @@
         <v>115</v>
       </c>
       <c r="I47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10034,7 +9779,7 @@
         <v>108</v>
       </c>
       <c r="I48" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10066,7 +9811,7 @@
         <v>108</v>
       </c>
       <c r="I49" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10098,7 +9843,7 @@
         <v>115</v>
       </c>
       <c r="I50" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10130,7 +9875,7 @@
         <v>134</v>
       </c>
       <c r="I51" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10162,7 +9907,7 @@
         <v>134</v>
       </c>
       <c r="I52" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10194,7 +9939,7 @@
         <v>115</v>
       </c>
       <c r="I53" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10226,7 +9971,7 @@
         <v>108</v>
       </c>
       <c r="I54" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10258,7 +10003,7 @@
         <v>108</v>
       </c>
       <c r="I55" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10290,7 +10035,7 @@
         <v>115</v>
       </c>
       <c r="I56" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10322,7 +10067,7 @@
         <v>134</v>
       </c>
       <c r="I57" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10354,7 +10099,7 @@
         <v>134</v>
       </c>
       <c r="I58" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10386,7 +10131,7 @@
         <v>115</v>
       </c>
       <c r="I59" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10418,7 +10163,7 @@
         <v>108</v>
       </c>
       <c r="I60" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10450,7 +10195,7 @@
         <v>108</v>
       </c>
       <c r="I61" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10482,7 +10227,7 @@
         <v>115</v>
       </c>
       <c r="I62" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10514,7 +10259,7 @@
         <v>123</v>
       </c>
       <c r="I63" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10546,7 +10291,7 @@
         <v>123</v>
       </c>
       <c r="I64" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10578,7 +10323,7 @@
         <v>115</v>
       </c>
       <c r="I65" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10610,7 +10355,7 @@
         <v>134</v>
       </c>
       <c r="I66" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10642,7 +10387,7 @@
         <v>134</v>
       </c>
       <c r="I67" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10674,7 +10419,7 @@
         <v>115</v>
       </c>
       <c r="I68" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10706,7 +10451,7 @@
         <v>108</v>
       </c>
       <c r="I69" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10738,7 +10483,7 @@
         <v>108</v>
       </c>
       <c r="I70" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10770,7 +10515,7 @@
         <v>134</v>
       </c>
       <c r="I71" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10802,7 +10547,7 @@
         <v>134</v>
       </c>
       <c r="I72" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10834,7 +10579,7 @@
         <v>115</v>
       </c>
       <c r="I73" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -10866,7 +10611,7 @@
         <v>115</v>
       </c>
       <c r="I74" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -10898,7 +10643,7 @@
         <v>115</v>
       </c>
       <c r="I75" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -10930,7 +10675,7 @@
         <v>108</v>
       </c>
       <c r="I76" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -10962,7 +10707,7 @@
         <v>108</v>
       </c>
       <c r="I77" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -10994,7 +10739,7 @@
         <v>123</v>
       </c>
       <c r="I78" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11026,7 +10771,7 @@
         <v>123</v>
       </c>
       <c r="I79" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11058,7 +10803,7 @@
         <v>115</v>
       </c>
       <c r="I80" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11090,7 +10835,7 @@
         <v>108</v>
       </c>
       <c r="I81" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11122,7 +10867,7 @@
         <v>108</v>
       </c>
       <c r="I82" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11154,7 +10899,7 @@
         <v>134</v>
       </c>
       <c r="I83" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11186,7 +10931,7 @@
         <v>134</v>
       </c>
       <c r="I84" t="s">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11218,7 +10963,7 @@
         <v>115</v>
       </c>
       <c r="I85" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11250,7 +10995,7 @@
         <v>115</v>
       </c>
       <c r="I86" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11282,7 +11027,7 @@
         <v>123</v>
       </c>
       <c r="I87" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11314,7 +11059,7 @@
         <v>123</v>
       </c>
       <c r="I88" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11346,7 +11091,7 @@
         <v>134</v>
       </c>
       <c r="I89" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11378,7 +11123,7 @@
         <v>134</v>
       </c>
       <c r="I90" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11410,7 +11155,7 @@
         <v>115</v>
       </c>
       <c r="I91" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11442,7 +11187,7 @@
         <v>108</v>
       </c>
       <c r="I92" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11474,7 +11219,7 @@
         <v>108</v>
       </c>
       <c r="I93" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11506,7 +11251,7 @@
         <v>123</v>
       </c>
       <c r="I94" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11532,13 +11277,13 @@
         <v>148</v>
       </c>
       <c r="G95" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H95" t="s">
         <v>123</v>
       </c>
       <c r="I95" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11570,7 +11315,7 @@
         <v>115</v>
       </c>
       <c r="I96" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11602,7 +11347,7 @@
         <v>134</v>
       </c>
       <c r="I97" t="s">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11634,7 +11379,7 @@
         <v>134</v>
       </c>
       <c r="I98" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11666,7 +11411,7 @@
         <v>115</v>
       </c>
       <c r="I99" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11698,7 +11443,7 @@
         <v>123</v>
       </c>
       <c r="I100" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11724,13 +11469,13 @@
         <v>148</v>
       </c>
       <c r="G101" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H101" t="s">
         <v>123</v>
       </c>
       <c r="I101" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11762,7 +11507,7 @@
         <v>115</v>
       </c>
       <c r="I102" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11788,13 +11533,13 @@
         <v>148</v>
       </c>
       <c r="G103" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H103" t="s">
         <v>123</v>
       </c>
       <c r="I103" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11826,7 +11571,7 @@
         <v>123</v>
       </c>
       <c r="I104" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11858,7 +11603,7 @@
         <v>134</v>
       </c>
       <c r="I105" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -11890,7 +11635,7 @@
         <v>134</v>
       </c>
       <c r="I106" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -11922,7 +11667,7 @@
         <v>115</v>
       </c>
       <c r="I107" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -11954,7 +11699,7 @@
         <v>108</v>
       </c>
       <c r="I108" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -11986,7 +11731,7 @@
         <v>108</v>
       </c>
       <c r="I109" t="s">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12018,7 +11763,7 @@
         <v>108</v>
       </c>
       <c r="I110" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12050,7 +11795,7 @@
         <v>108</v>
       </c>
       <c r="I111" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12082,7 +11827,7 @@
         <v>134</v>
       </c>
       <c r="I112" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12114,7 +11859,7 @@
         <v>134</v>
       </c>
       <c r="I113" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12146,7 +11891,7 @@
         <v>115</v>
       </c>
       <c r="I114" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12178,7 +11923,7 @@
         <v>108</v>
       </c>
       <c r="I115" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12210,7 +11955,7 @@
         <v>108</v>
       </c>
       <c r="I116" t="s">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12242,7 +11987,7 @@
         <v>123</v>
       </c>
       <c r="I117" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12268,13 +12013,13 @@
         <v>148</v>
       </c>
       <c r="G118" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H118" t="s">
         <v>123</v>
       </c>
       <c r="I118" t="s">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12306,7 +12051,7 @@
         <v>108</v>
       </c>
       <c r="I119" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12338,7 +12083,7 @@
         <v>108</v>
       </c>
       <c r="I120" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12370,7 +12115,7 @@
         <v>123</v>
       </c>
       <c r="I121" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12402,7 +12147,7 @@
         <v>123</v>
       </c>
       <c r="I122" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12434,7 +12179,7 @@
         <v>134</v>
       </c>
       <c r="I123" t="s">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12466,7 +12211,7 @@
         <v>134</v>
       </c>
       <c r="I124" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12498,7 +12243,7 @@
         <v>108</v>
       </c>
       <c r="I125" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12530,7 +12275,7 @@
         <v>108</v>
       </c>
       <c r="I126" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12562,7 +12307,7 @@
         <v>115</v>
       </c>
       <c r="I127" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12594,7 +12339,7 @@
         <v>108</v>
       </c>
       <c r="I128" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12626,7 +12371,7 @@
         <v>108</v>
       </c>
       <c r="I129" t="s">
-        <v>257</v>
+        <v>147</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12658,7 +12403,7 @@
         <v>123</v>
       </c>
       <c r="I130" t="s">
-        <v>258</v>
+        <v>124</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12690,7 +12435,7 @@
         <v>123</v>
       </c>
       <c r="I131" t="s">
-        <v>259</v>
+        <v>151</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12722,7 +12467,7 @@
         <v>134</v>
       </c>
       <c r="I132" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12754,7 +12499,7 @@
         <v>134</v>
       </c>
       <c r="I133" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12786,7 +12531,7 @@
         <v>115</v>
       </c>
       <c r="I134" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12818,7 +12563,7 @@
         <v>123</v>
       </c>
       <c r="I135" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12844,13 +12589,13 @@
         <v>148</v>
       </c>
       <c r="G136" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H136" t="s">
         <v>123</v>
       </c>
       <c r="I136" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12882,7 +12627,7 @@
         <v>115</v>
       </c>
       <c r="I137" t="s">
-        <v>265</v>
+        <v>140</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12914,7 +12659,7 @@
         <v>108</v>
       </c>
       <c r="I138" t="s">
-        <v>266</v>
+        <v>128</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -12946,7 +12691,7 @@
         <v>108</v>
       </c>
       <c r="I139" t="s">
-        <v>267</v>
+        <v>118</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -12978,7 +12723,7 @@
         <v>134</v>
       </c>
       <c r="I140" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13010,7 +12755,7 @@
         <v>134</v>
       </c>
       <c r="I141" t="s">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13042,7 +12787,7 @@
         <v>134</v>
       </c>
       <c r="I142" t="s">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13074,7 +12819,7 @@
         <v>134</v>
       </c>
       <c r="I143" t="s">
-        <v>271</v>
+        <v>190</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13106,7 +12851,7 @@
         <v>115</v>
       </c>
       <c r="I144" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13138,7 +12883,7 @@
         <v>108</v>
       </c>
       <c r="I145" t="s">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13170,7 +12915,7 @@
         <v>108</v>
       </c>
       <c r="I146" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13202,7 +12947,7 @@
         <v>123</v>
       </c>
       <c r="I147" t="s">
-        <v>275</v>
+        <v>126</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13228,13 +12973,13 @@
         <v>148</v>
       </c>
       <c r="G148" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H148" t="s">
         <v>123</v>
       </c>
       <c r="I148" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13257,7 +13002,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13287,7 +13032,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -13315,27 +13060,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="34" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="41.25" customHeight="1">
       <c r="B3" s="37" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="C3" s="38">
         <v>26957145.600000001</v>
@@ -13344,20 +13089,20 @@
         <v>2024</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F3" s="39">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5396156.120000001</v>
+        <v>5409505.120000001</v>
       </c>
       <c r="G3" s="38">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21560989.48</v>
+        <v>21547640.48</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="37" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="C4" s="38">
         <v>40426848</v>
@@ -13366,20 +13111,20 @@
         <v>2023</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F4" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8098293.6000000006</v>
+        <v>8089752.6000000006</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>32328554.399999999</v>
+        <v>32337095.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="37" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="C5" s="38">
         <v>53896550.399999999</v>
@@ -13388,20 +13133,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F5" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>10803442.08</v>
+        <v>10799993.08</v>
       </c>
       <c r="G5" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>43093108.32</v>
+        <v>43096557.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1">
       <c r="B6" s="37" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="C6" s="38">
         <v>67366252.799999997</v>
@@ -13410,20 +13155,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F6" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>13481945.560000001</v>
+        <v>13476736.560000001</v>
       </c>
       <c r="G6" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>53884307.239999995</v>
+        <v>53889516.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="37" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="C7" s="38">
         <v>80835955.199999988</v>
@@ -13432,20 +13177,20 @@
         <v>2024</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F7" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16172565.039999999</v>
+        <v>16176433.039999999</v>
       </c>
       <c r="G7" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>64663390.159999989</v>
+        <v>64659522.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="37" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="C8" s="38">
         <v>94305657.600000009</v>
@@ -13454,20 +13199,20 @@
         <v>2023</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F8" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>18861260.520000003</v>
+        <v>18870300.520000003</v>
       </c>
       <c r="G8" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>75444397.080000013</v>
+        <v>75435357.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1">
       <c r="B9" s="37" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="C9" s="38">
         <v>107760576</v>
@@ -13476,20 +13221,20 @@
         <v>2022</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F9" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>21562292.200000003</v>
+        <v>21563058.200000003</v>
       </c>
       <c r="G9" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>86198283.799999997</v>
+        <v>86197517.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="37" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="C10" s="38">
         <v>121082438.40000001</v>
@@ -13498,20 +13243,20 @@
         <v>2019</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F10" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>24236950.680000003</v>
+        <v>24224198.680000003</v>
       </c>
       <c r="G10" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>96845487.719999999</v>
+        <v>96858239.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1">
       <c r="B11" s="37" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="C11" s="38">
         <v>133073740.8</v>
@@ -13520,20 +13265,20 @@
         <v>2024</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F11" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>26635776.16</v>
+        <v>26626837.16</v>
       </c>
       <c r="G11" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>106437964.64</v>
+        <v>106446903.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="37" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="C12" s="38">
         <v>146543443.19999999</v>
@@ -13542,20 +13287,20 @@
         <v>2023</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F12" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29319533.640000001</v>
+        <v>29320100.640000001</v>
       </c>
       <c r="G12" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>117223909.55999999</v>
+        <v>117223342.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="37" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="C13" s="38">
         <v>16608345.6</v>
@@ -13564,20 +13309,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F13" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>3325070.12</v>
+        <v>3343224.12</v>
       </c>
       <c r="G13" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>13283275.48</v>
+        <v>13265121.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="37" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="C14" s="38">
         <v>33034848</v>
@@ -13586,20 +13331,20 @@
         <v>2019</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F14" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>6607189.6000000006</v>
+        <v>6627913.6000000006</v>
       </c>
       <c r="G14" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>26427658.399999999</v>
+        <v>26406934.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1">
       <c r="B15" s="37" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="C15" s="38">
         <v>49461350.399999999</v>
@@ -13608,20 +13353,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F15" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>9912876.0800000001</v>
+        <v>9901814.0800000001</v>
       </c>
       <c r="G15" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>39548474.32</v>
+        <v>39559536.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="37" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="C16" s="38">
         <v>65887852.799999997</v>
@@ -13630,20 +13375,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F16" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>13194194.560000001</v>
+        <v>13182777.560000001</v>
       </c>
       <c r="G16" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>52693658.239999995</v>
+        <v>52705075.239999995</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="37" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C17" s="38">
         <v>82314355.199999988</v>
@@ -13652,20 +13397,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F17" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16470499.039999999</v>
+        <v>16473565.039999999</v>
       </c>
       <c r="G17" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>65843856.159999989</v>
+        <v>65840790.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="37" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="C18" s="38">
         <v>98740857.600000009</v>
@@ -13674,20 +13419,20 @@
         <v>2020</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F18" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>19748795.520000003</v>
+        <v>19772961.520000003</v>
       </c>
       <c r="G18" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>78992062.080000013</v>
+        <v>78967896.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="37" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="C19" s="38">
         <v>115152576</v>
@@ -13696,20 +13441,20 @@
         <v>2020</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F19" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>23037615.200000003</v>
+        <v>23044139.200000003</v>
       </c>
       <c r="G19" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>92114960.799999997</v>
+        <v>92108436.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="37" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="C20" s="38">
         <v>131431238.40000001</v>
@@ -13718,20 +13463,20 @@
         <v>2020</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>26300457.680000003</v>
+        <v>26295126.680000003</v>
       </c>
       <c r="G20" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>105130780.72</v>
+        <v>105136111.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="37" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="C21" s="38">
         <v>146379340.80000001</v>
@@ -13740,20 +13485,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F21" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29293644.160000004</v>
+        <v>29292055.160000004</v>
       </c>
       <c r="G21" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>117085696.64000002</v>
+        <v>117087285.64000002</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="37" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="C22" s="38">
         <v>14965843.199999999</v>
@@ -13762,20 +13507,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>3002315.64</v>
+        <v>2993889.64</v>
       </c>
       <c r="G22" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>11963527.559999999</v>
+        <v>11971953.559999999</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="37" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="C23" s="38">
         <v>31392345.600000001</v>
@@ -13784,20 +13529,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F23" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>6299056.120000001</v>
+        <v>6282655.120000001</v>
       </c>
       <c r="G23" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>25093289.48</v>
+        <v>25109690.48</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="37" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="C24" s="38">
         <v>47818848</v>
@@ -13806,20 +13551,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F24" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>9565012.5999999996</v>
+        <v>9571352.5999999996</v>
       </c>
       <c r="G24" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>38253835.399999999</v>
+        <v>38247495.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1">
       <c r="B25" s="37" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="C25" s="38">
         <v>64245350.399999999</v>
@@ -13828,20 +13573,20 @@
         <v>2017</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F25" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>12868854.08</v>
+        <v>12865039.08</v>
       </c>
       <c r="G25" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>51376496.32</v>
+        <v>51380311.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="37" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="C26" s="38">
         <v>80671852.799999997</v>
@@ -13850,20 +13595,20 @@
         <v>2017</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F26" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16148934.560000001</v>
+        <v>16137648.560000001</v>
       </c>
       <c r="G26" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>64522918.239999995</v>
+        <v>64534204.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="37" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C27" s="38">
         <v>97098355.199999988</v>
@@ -13872,20 +13617,20 @@
         <v>2017</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>19426046.039999999</v>
+        <v>19444434.039999999</v>
       </c>
       <c r="G27" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>77672309.159999996</v>
+        <v>77653921.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="37" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="C28" s="38">
         <v>113524857.59999999</v>
@@ -13894,20 +13639,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F28" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>22706042.52</v>
+        <v>22724289.52</v>
       </c>
       <c r="G28" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>90818815.079999998</v>
+        <v>90800568.079999998</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="37" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="C29" s="38">
         <v>129936576</v>
@@ -13916,20 +13661,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F29" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>25996125.200000003</v>
+        <v>26006098.200000003</v>
       </c>
       <c r="G29" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>103940450.8</v>
+        <v>103930477.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="37" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="C30" s="38">
         <v>146215238.40000001</v>
@@ -13938,20 +13683,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F30" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29264528.680000003</v>
+        <v>29245206.680000003</v>
       </c>
       <c r="G30" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>116950709.72</v>
+        <v>116970031.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="37" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="C31" s="38">
         <v>28107340.800000001</v>
@@ -13960,20 +13705,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F31" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>5626447.1600000001</v>
+        <v>5645364.1600000001</v>
       </c>
       <c r="G31" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>22480893.640000001</v>
+        <v>22461976.640000001</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="37" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="C32" s="38">
         <v>44533843.200000003</v>
@@ -13982,20 +13727,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F32" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8921804.6400000006</v>
+        <v>8911784.6400000006</v>
       </c>
       <c r="G32" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>35612038.560000002</v>
+        <v>35622058.560000002</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="37" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="C33" s="38">
         <v>60960345.599999987</v>
@@ -14004,20 +13749,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F33" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>12202200.119999997</v>
+        <v>12212019.119999997</v>
       </c>
       <c r="G33" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>48758145.479999989</v>
+        <v>48748326.479999989</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="37" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="C34" s="38">
         <v>77386848</v>
@@ -14026,20 +13771,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F34" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>15485722.600000001</v>
+        <v>15498391.600000001</v>
       </c>
       <c r="G34" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>61901125.399999999</v>
+        <v>61888456.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="37" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="C35" s="38">
         <v>93813350.399999991</v>
@@ -14048,20 +13793,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F35" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>18774110.079999998</v>
+        <v>18768482.079999998</v>
       </c>
       <c r="G35" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>75039240.319999993</v>
+        <v>75044868.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="37" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="C36" s="38">
         <v>110239852.8</v>
@@ -14070,20 +13815,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F36" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>22052830.560000002</v>
+        <v>22069712.560000002</v>
       </c>
       <c r="G36" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>88187022.239999995</v>
+        <v>88170140.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="37" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="C37" s="38">
         <v>126666355.2</v>
@@ -14092,20 +13837,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F37" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>25347641.040000003</v>
+        <v>25355271.040000003</v>
       </c>
       <c r="G37" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>101318714.16</v>
+        <v>101311084.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="37" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="C38" s="38">
         <v>143092857.59999999</v>
@@ -14114,20 +13859,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F38" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>28627795.52</v>
+        <v>28621733.52</v>
       </c>
       <c r="G38" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>114465062.08</v>
+        <v>114471124.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30" customHeight="1">
       <c r="B39" s="37" t="s">
-        <v>323</v>
+        <v>238</v>
       </c>
       <c r="C39" s="38">
         <v>26448576</v>
@@ -14136,20 +13881,20 @@
         <v>2015</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F39" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>5311056.2</v>
+        <v>5300846.2</v>
       </c>
       <c r="G39" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>21137519.800000001</v>
+        <v>21147729.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="37" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="C40" s="38">
         <v>42727238.399999999</v>
@@ -14158,20 +13903,20 @@
         <v>2015</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F40" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8558805.6799999997</v>
+        <v>8553647.6799999997</v>
       </c>
       <c r="G40" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>34168432.719999999</v>
+        <v>34173590.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="37" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="C41" s="38">
         <v>57675340.799999997</v>
@@ -14180,20 +13925,20 @@
         <v>2015</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F41" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>11545252.16</v>
+        <v>11552602.16</v>
       </c>
       <c r="G41" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>46130088.640000001</v>
+        <v>46122738.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="37" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="C42" s="38">
         <v>74101843.200000003</v>
@@ -14202,15 +13947,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F42" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>14837519.640000001</v>
+        <v>14833934.640000001</v>
       </c>
       <c r="G42" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>59264323.560000002</v>
+        <v>59267908.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14246,10 +13991,10 @@
         <v>69</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14263,7 +14008,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="F3" s="42">
         <v>46466</v>
@@ -14280,7 +14025,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F4" s="24">
         <v>46467</v>
@@ -14390,7 +14135,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="40" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="C38" s="40">
         <v>8</v>
@@ -14399,13 +14144,13 @@
         <v>3</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="F38" s="41"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="40" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="C39" s="40">
         <v>9</v>
@@ -14414,13 +14159,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="F39" s="41"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="40" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="C40" s="40">
         <v>10</v>
@@ -14429,13 +14174,13 @@
         <v>5</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="F40" s="41"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="40" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="C41" s="40">
         <v>11</v>
@@ -14444,13 +14189,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="F41" s="44"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="40" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="C42" s="40">
         <v>12</v>
@@ -14459,13 +14204,13 @@
         <v>2</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="F42" s="41"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="40" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="C43" s="40">
         <v>13</v>
@@ -14474,7 +14219,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="F43" s="41"/>
     </row>
@@ -14516,13 +14261,13 @@
         <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14542,10 +14287,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H2" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14567,10 +14312,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H3" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14591,10 +14336,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="H4" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14615,10 +14360,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H5" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14639,10 +14384,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="H6" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14664,10 +14409,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="H7" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14689,10 +14434,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H8" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14714,10 +14459,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H9" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14739,10 +14484,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H10" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14764,10 +14509,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="H11" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14789,7 +14534,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14811,10 +14556,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H13" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14836,7 +14581,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14859,7 +14604,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14881,7 +14626,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14903,10 +14648,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H17" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14928,7 +14673,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14950,7 +14695,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14972,7 +14717,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14995,7 +14740,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15017,7 +14762,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15039,7 +14784,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15061,7 +14806,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15083,7 +14828,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15105,7 +14850,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15127,7 +14872,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15149,10 +14894,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H28" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15174,10 +14919,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H29" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15199,7 +14944,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15221,7 +14966,7 @@
         <v>13</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15244,7 +14989,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15266,10 +15011,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H33" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15291,10 +15036,10 @@
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H34" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15316,10 +15061,10 @@
         <v>12</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H35" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15341,10 +15086,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H36" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15366,7 +15111,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15388,7 +15133,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15410,7 +15155,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15432,10 +15177,10 @@
         <v>12</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H40" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15457,10 +15202,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="H41" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15482,7 +15227,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15504,7 +15249,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15526,7 +15271,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15548,7 +15293,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15570,7 +15315,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15592,7 +15337,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15614,7 +15359,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15636,7 +15381,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15658,7 +15403,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15680,7 +15425,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -15710,7 +15455,7 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
         <v>100</v>
@@ -15842,7 +15587,7 @@
         <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E12" s="18">
         <v>0</v>
@@ -15925,35 +15670,35 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="K1" s="45" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="16" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="D2" s="16">
         <v>21</v>
@@ -15969,13 +15714,13 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="16" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="D3" s="16">
         <v>20</v>
@@ -15991,13 +15736,13 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="16" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="D4" s="16">
         <v>19</v>
@@ -16014,13 +15759,13 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="16" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="D5" s="16">
         <v>18</v>
@@ -16036,13 +15781,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="16" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="D6" s="16">
         <v>17</v>
@@ -16058,13 +15803,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="16" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="D7" s="16">
         <v>16</v>
@@ -16080,13 +15825,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="16" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="D8" s="16">
         <v>15</v>
@@ -16102,13 +15847,13 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="16" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="D9" s="16">
         <v>14</v>
@@ -16124,13 +15869,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="16" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="D10" s="16">
         <v>13</v>
@@ -16146,13 +15891,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="16" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="D11" s="16">
         <v>12</v>
@@ -16168,13 +15913,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="16" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="D12" s="16">
         <v>11</v>
@@ -16190,13 +15935,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="16" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="D13" s="16">
         <v>10</v>
@@ -16212,13 +15957,13 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="16" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="D14" s="16">
         <v>9</v>
@@ -16234,13 +15979,13 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="16" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="D15" s="16">
         <v>8</v>
@@ -16256,13 +16001,13 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="16" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="D16" s="16">
         <v>7</v>
@@ -16278,13 +16023,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="16" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="D17" s="16">
         <v>6</v>
@@ -16300,13 +16045,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="16" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="D18" s="16">
         <v>5</v>
@@ -16322,13 +16067,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="16" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="D19" s="16">
         <v>4</v>
@@ -16344,13 +16089,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="16" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="D20" s="16">
         <v>3</v>
@@ -16366,13 +16111,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="16" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>392</v>
+        <v>307</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="D21" s="16">
         <v>2</v>
@@ -16390,7 +16135,7 @@
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16" t="s">
-        <v>393</v>
+        <v>308</v>
       </c>
       <c r="D22" s="16">
         <v>2</v>
@@ -16406,13 +16151,13 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="16" t="s">
-        <v>394</v>
+        <v>309</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>393</v>
+        <v>308</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>395</v>
+        <v>310</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
@@ -16427,11 +16172,11 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="16" t="s">
-        <v>396</v>
+        <v>311</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16" t="s">
-        <v>397</v>
+        <v>312</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
@@ -16448,7 +16193,7 @@
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16" t="s">
-        <v>396</v>
+        <v>311</v>
       </c>
       <c r="D25" s="16">
         <v>1</v>

--- a/Sample_Bank_Data/MAR 2025.xlsx
+++ b/Sample_Bank_Data/MAR 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{25D74041-CCDA-46DC-A0BC-819C38372F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{850C89A3-E518-4537-9AFE-2BF53F97D497}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{25D74041-CCDA-46DC-A0BC-819C38372F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C75EADA6-BF4B-4999-8C69-3A8DB52B8B5E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="317">
   <si>
     <t>Cust name</t>
   </si>
@@ -367,9 +367,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>Building</t>
   </si>
   <si>
@@ -415,9 +412,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -443,9 +437,6 @@
   </si>
   <si>
     <t>Building4</t>
-  </si>
-  <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>Shares</t>
@@ -2454,21 +2445,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>279</v>
-      </c>
       <c r="C1" s="47" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B2" s="16">
         <v>1</v>
@@ -2482,7 +2473,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B3" s="16">
         <v>2</v>
@@ -2496,7 +2487,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B4" s="16">
         <v>3</v>
@@ -2510,7 +2501,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B5" s="16">
         <v>4</v>
@@ -2524,7 +2515,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B6" s="16">
         <v>5</v>
@@ -2538,7 +2529,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B7" s="16">
         <v>6</v>
@@ -2552,7 +2543,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B8" s="16">
         <v>7</v>
@@ -2566,7 +2557,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B9" s="16">
         <v>8</v>
@@ -2580,7 +2571,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B10" s="16">
         <v>9</v>
@@ -2594,7 +2585,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B11" s="16">
         <v>10</v>
@@ -2608,7 +2599,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B12" s="16">
         <v>11</v>
@@ -2622,7 +2613,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B13" s="16">
         <v>12</v>
@@ -2636,7 +2627,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B14" s="16">
         <v>13</v>
@@ -2650,7 +2641,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B15" s="16">
         <v>14</v>
@@ -2664,7 +2655,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B16" s="16">
         <v>15</v>
@@ -2678,7 +2669,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B17" s="16">
         <v>16</v>
@@ -2692,7 +2683,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B18" s="16">
         <v>17</v>
@@ -2706,7 +2697,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B19" s="16">
         <v>17</v>
@@ -2720,7 +2711,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B20" s="16">
         <v>17</v>
@@ -2734,7 +2725,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B21" s="16">
         <v>17</v>
@@ -2748,7 +2739,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22">
@@ -2784,22 +2775,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="26" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8243,8 +8234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="I162" sqref="I162"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8295,19 +8286,19 @@
         <v>6173906.5</v>
       </c>
       <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
         <v>105</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>106</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>107</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>108</v>
-      </c>
-      <c r="I2" t="s">
-        <v>109</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8327,19 +8318,19 @@
         <v>6173906.5</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s">
         <v>110</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" t="s">
         <v>111</v>
-      </c>
-      <c r="H3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" t="s">
-        <v>112</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8359,19 +8350,19 @@
         <v>89136569</v>
       </c>
       <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
         <v>113</v>
       </c>
-      <c r="F4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>114</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>115</v>
-      </c>
-      <c r="I4" t="s">
-        <v>116</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8391,19 +8382,19 @@
         <v>10552053.5</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" t="s">
         <v>117</v>
-      </c>
-      <c r="H5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" t="s">
-        <v>118</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8423,19 +8414,19 @@
         <v>10552053.5</v>
       </c>
       <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
         <v>105</v>
       </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
       <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" t="s">
         <v>119</v>
-      </c>
-      <c r="H6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" t="s">
-        <v>120</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8455,19 +8446,19 @@
         <v>49382716</v>
       </c>
       <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
         <v>121</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>122</v>
-      </c>
-      <c r="G7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" t="s">
-        <v>124</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8487,19 +8478,19 @@
         <v>49382716</v>
       </c>
       <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
         <v>121</v>
       </c>
-      <c r="F8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" t="s">
-        <v>123</v>
-      </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8519,19 +8510,19 @@
         <v>90174929</v>
       </c>
       <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
         <v>113</v>
       </c>
-      <c r="F9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>114</v>
       </c>
-      <c r="H9" t="s">
-        <v>115</v>
-      </c>
       <c r="I9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -8551,19 +8542,19 @@
         <v>49386362</v>
       </c>
       <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
         <v>105</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>106</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>107</v>
       </c>
-      <c r="H10" t="s">
-        <v>108</v>
-      </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -8583,19 +8574,19 @@
         <v>49386362</v>
       </c>
       <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
         <v>105</v>
       </c>
-      <c r="F11" t="s">
-        <v>106</v>
-      </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -8615,19 +8606,19 @@
         <v>11732657.5</v>
       </c>
       <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" t="s">
         <v>131</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>132</v>
-      </c>
-      <c r="G12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" t="s">
-        <v>135</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -8647,19 +8638,19 @@
         <v>11732657.5</v>
       </c>
       <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
         <v>131</v>
       </c>
-      <c r="F13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>134</v>
-      </c>
-      <c r="I13" t="s">
-        <v>137</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -8679,19 +8670,19 @@
         <v>38276058</v>
       </c>
       <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
         <v>131</v>
       </c>
-      <c r="F14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" t="s">
-        <v>134</v>
-      </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -8711,19 +8702,19 @@
         <v>38276058</v>
       </c>
       <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" t="s">
         <v>131</v>
       </c>
-      <c r="F15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" t="s">
-        <v>134</v>
-      </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -8743,19 +8734,19 @@
         <v>12337439</v>
       </c>
       <c r="E16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
         <v>113</v>
       </c>
-      <c r="F16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>114</v>
       </c>
-      <c r="H16" t="s">
-        <v>115</v>
-      </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -8775,19 +8766,19 @@
         <v>28399162.5</v>
       </c>
       <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
         <v>105</v>
       </c>
-      <c r="F17" t="s">
-        <v>106</v>
-      </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -8807,19 +8798,19 @@
         <v>28399162.5</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -8839,19 +8830,19 @@
         <v>43827160.5</v>
       </c>
       <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s">
         <v>121</v>
       </c>
-      <c r="F19" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" t="s">
-        <v>123</v>
-      </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -8871,19 +8862,19 @@
         <v>43827160.5</v>
       </c>
       <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" t="s">
-        <v>123</v>
-      </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -8903,19 +8894,19 @@
         <v>27162459.5</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" t="s">
         <v>110</v>
       </c>
-      <c r="G21" t="s">
-        <v>111</v>
-      </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -8935,19 +8926,19 @@
         <v>27162459.5</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -8967,19 +8958,19 @@
         <v>11728394.5</v>
       </c>
       <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" t="s">
         <v>121</v>
       </c>
-      <c r="F23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" t="s">
-        <v>123</v>
-      </c>
       <c r="I23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -8999,19 +8990,19 @@
         <v>11728394.5</v>
       </c>
       <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" t="s">
         <v>121</v>
       </c>
-      <c r="F24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" t="s">
-        <v>123</v>
-      </c>
       <c r="I24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9031,19 +9022,19 @@
         <v>33946788</v>
       </c>
       <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" t="s">
         <v>131</v>
       </c>
-      <c r="F25" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" t="s">
-        <v>134</v>
-      </c>
       <c r="I25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9063,19 +9054,19 @@
         <v>33946788</v>
       </c>
       <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" t="s">
         <v>131</v>
       </c>
-      <c r="F26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" t="s">
-        <v>134</v>
-      </c>
       <c r="I26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9095,19 +9086,19 @@
         <v>16055757</v>
       </c>
       <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
         <v>105</v>
       </c>
-      <c r="F27" t="s">
-        <v>106</v>
-      </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" t="s">
         <v>108</v>
-      </c>
-      <c r="I27" t="s">
-        <v>109</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9127,19 +9118,19 @@
         <v>16055757</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" t="s">
         <v>110</v>
       </c>
-      <c r="G28" t="s">
-        <v>111</v>
-      </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9159,19 +9150,19 @@
         <v>38271605</v>
       </c>
       <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" t="s">
         <v>121</v>
       </c>
-      <c r="F29" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" t="s">
-        <v>123</v>
-      </c>
       <c r="I29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9191,19 +9182,19 @@
         <v>38271605</v>
       </c>
       <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" t="s">
         <v>121</v>
       </c>
-      <c r="F30" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" t="s">
-        <v>123</v>
-      </c>
       <c r="I30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9223,19 +9214,19 @@
         <v>34654376</v>
       </c>
       <c r="E31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" t="s">
         <v>113</v>
       </c>
-      <c r="F31" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>114</v>
       </c>
-      <c r="H31" t="s">
-        <v>115</v>
-      </c>
       <c r="I31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9255,19 +9246,19 @@
         <v>10550002.5</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9287,19 +9278,19 @@
         <v>10550002.5</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9319,19 +9310,19 @@
         <v>45066187</v>
       </c>
       <c r="E34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
         <v>131</v>
       </c>
-      <c r="F34" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" t="s">
-        <v>136</v>
-      </c>
-      <c r="H34" t="s">
-        <v>134</v>
-      </c>
       <c r="I34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9351,19 +9342,19 @@
         <v>45066187</v>
       </c>
       <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" t="s">
         <v>131</v>
       </c>
-      <c r="F35" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H35" t="s">
-        <v>134</v>
-      </c>
       <c r="I35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9383,19 +9374,19 @@
         <v>76720570</v>
       </c>
       <c r="E36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" t="s">
         <v>113</v>
       </c>
-      <c r="F36" t="s">
-        <v>113</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>114</v>
       </c>
-      <c r="H36" t="s">
-        <v>115</v>
-      </c>
       <c r="I36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9415,19 +9406,19 @@
         <v>49385832.5</v>
       </c>
       <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" t="s">
         <v>131</v>
       </c>
-      <c r="F37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" t="s">
-        <v>134</v>
-      </c>
       <c r="I37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9447,19 +9438,19 @@
         <v>49385832.5</v>
       </c>
       <c r="E38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" t="s">
         <v>131</v>
       </c>
-      <c r="F38" t="s">
+      <c r="I38" t="s">
         <v>132</v>
-      </c>
-      <c r="G38" t="s">
-        <v>133</v>
-      </c>
-      <c r="H38" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" t="s">
-        <v>135</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9479,19 +9470,19 @@
         <v>45723629</v>
       </c>
       <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" t="s">
         <v>113</v>
       </c>
-      <c r="F39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>114</v>
       </c>
-      <c r="H39" t="s">
-        <v>115</v>
-      </c>
       <c r="I39" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9511,19 +9502,19 @@
         <v>11729098.5</v>
       </c>
       <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
         <v>105</v>
       </c>
-      <c r="F40" t="s">
-        <v>106</v>
-      </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I40" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9543,19 +9534,19 @@
         <v>11729098.5</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" t="s">
         <v>110</v>
       </c>
-      <c r="G41" t="s">
-        <v>111</v>
-      </c>
       <c r="H41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9575,19 +9566,19 @@
         <v>32716054.5</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" t="s">
         <v>121</v>
       </c>
-      <c r="F42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" t="s">
-        <v>123</v>
-      </c>
       <c r="I42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -9607,19 +9598,19 @@
         <v>32716054.5</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" t="s">
+        <v>164</v>
+      </c>
+      <c r="H43" t="s">
         <v>121</v>
       </c>
-      <c r="F43" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" t="s">
-        <v>167</v>
-      </c>
-      <c r="H43" t="s">
-        <v>123</v>
-      </c>
       <c r="I43" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -9639,19 +9630,19 @@
         <v>65568154</v>
       </c>
       <c r="E44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" t="s">
         <v>113</v>
       </c>
-      <c r="F44" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>114</v>
       </c>
-      <c r="H44" t="s">
-        <v>115</v>
-      </c>
       <c r="I44" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -9671,19 +9662,19 @@
         <v>39450617</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" t="s">
         <v>121</v>
       </c>
-      <c r="F45" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45" t="s">
-        <v>122</v>
-      </c>
-      <c r="H45" t="s">
-        <v>123</v>
-      </c>
       <c r="I45" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -9703,19 +9694,19 @@
         <v>39450617</v>
       </c>
       <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" t="s">
         <v>121</v>
       </c>
-      <c r="F46" t="s">
-        <v>148</v>
-      </c>
-      <c r="G46" t="s">
-        <v>149</v>
-      </c>
-      <c r="H46" t="s">
-        <v>123</v>
-      </c>
       <c r="I46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -9735,19 +9726,19 @@
         <v>56898772</v>
       </c>
       <c r="E47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" t="s">
         <v>113</v>
       </c>
-      <c r="F47" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>114</v>
       </c>
-      <c r="H47" t="s">
-        <v>115</v>
-      </c>
       <c r="I47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -9767,19 +9758,19 @@
         <v>22843978.5</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I48" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -9799,19 +9790,19 @@
         <v>22843978.5</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" t="s">
         <v>110</v>
       </c>
-      <c r="G49" t="s">
-        <v>111</v>
-      </c>
       <c r="H49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -9831,19 +9822,19 @@
         <v>54284133</v>
       </c>
       <c r="E50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" t="s">
         <v>113</v>
       </c>
-      <c r="F50" t="s">
-        <v>113</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>114</v>
       </c>
-      <c r="H50" t="s">
-        <v>115</v>
-      </c>
       <c r="I50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -9863,19 +9854,19 @@
         <v>6174376</v>
       </c>
       <c r="E51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" t="s">
         <v>131</v>
       </c>
-      <c r="F51" t="s">
-        <v>132</v>
-      </c>
-      <c r="G51" t="s">
-        <v>133</v>
-      </c>
-      <c r="H51" t="s">
-        <v>134</v>
-      </c>
       <c r="I51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -9895,19 +9886,19 @@
         <v>6174376</v>
       </c>
       <c r="E52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" t="s">
         <v>131</v>
       </c>
-      <c r="F52" t="s">
-        <v>132</v>
-      </c>
-      <c r="G52" t="s">
-        <v>136</v>
-      </c>
-      <c r="H52" t="s">
-        <v>134</v>
-      </c>
       <c r="I52" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -9927,19 +9918,19 @@
         <v>67920706</v>
       </c>
       <c r="E53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G53" t="s">
         <v>113</v>
       </c>
-      <c r="F53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>114</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>115</v>
-      </c>
-      <c r="I53" t="s">
-        <v>116</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -9959,19 +9950,19 @@
         <v>6176724</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G54" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -9991,19 +9982,19 @@
         <v>6176724</v>
       </c>
       <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
       </c>
-      <c r="F55" t="s">
-        <v>106</v>
-      </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10023,19 +10014,19 @@
         <v>43283870</v>
       </c>
       <c r="E56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" t="s">
         <v>113</v>
       </c>
-      <c r="F56" t="s">
-        <v>113</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>114</v>
       </c>
-      <c r="H56" t="s">
-        <v>115</v>
-      </c>
       <c r="I56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10055,19 +10046,19 @@
         <v>17284571</v>
       </c>
       <c r="E57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" t="s">
         <v>131</v>
       </c>
-      <c r="F57" t="s">
-        <v>132</v>
-      </c>
-      <c r="G57" t="s">
-        <v>133</v>
-      </c>
-      <c r="H57" t="s">
-        <v>134</v>
-      </c>
       <c r="I57" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10087,19 +10078,19 @@
         <v>17284571</v>
       </c>
       <c r="E58" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58" t="s">
         <v>131</v>
       </c>
-      <c r="F58" t="s">
-        <v>132</v>
-      </c>
-      <c r="G58" t="s">
-        <v>136</v>
-      </c>
-      <c r="H58" t="s">
-        <v>134</v>
-      </c>
       <c r="I58" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10119,19 +10110,19 @@
         <v>78841267</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" t="s">
         <v>113</v>
       </c>
-      <c r="F59" t="s">
-        <v>113</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>114</v>
       </c>
-      <c r="H59" t="s">
-        <v>115</v>
-      </c>
       <c r="I59" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10151,19 +10142,19 @@
         <v>38276139.5</v>
       </c>
       <c r="E60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" t="s">
         <v>105</v>
       </c>
-      <c r="F60" t="s">
-        <v>106</v>
-      </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I60" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10183,19 +10174,19 @@
         <v>38276139.5</v>
       </c>
       <c r="E61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" t="s">
         <v>105</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>106</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>107</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>108</v>
-      </c>
-      <c r="I61" t="s">
-        <v>109</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10215,19 +10206,19 @@
         <v>32122925</v>
       </c>
       <c r="E62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" t="s">
+        <v>112</v>
+      </c>
+      <c r="G62" t="s">
         <v>113</v>
       </c>
-      <c r="F62" t="s">
-        <v>113</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>114</v>
       </c>
-      <c r="H62" t="s">
-        <v>115</v>
-      </c>
       <c r="I62" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10247,19 +10238,19 @@
         <v>6172839</v>
       </c>
       <c r="E63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H63" t="s">
         <v>121</v>
       </c>
-      <c r="F63" t="s">
-        <v>122</v>
-      </c>
-      <c r="G63" t="s">
-        <v>122</v>
-      </c>
-      <c r="H63" t="s">
-        <v>123</v>
-      </c>
       <c r="I63" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10279,19 +10270,19 @@
         <v>6172839</v>
       </c>
       <c r="E64" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" t="s">
+        <v>123</v>
+      </c>
+      <c r="G64" t="s">
+        <v>123</v>
+      </c>
+      <c r="H64" t="s">
         <v>121</v>
       </c>
-      <c r="F64" t="s">
-        <v>125</v>
-      </c>
-      <c r="G64" t="s">
-        <v>125</v>
-      </c>
-      <c r="H64" t="s">
-        <v>123</v>
-      </c>
       <c r="I64" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10311,19 +10302,19 @@
         <v>88910016</v>
       </c>
       <c r="E65" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" t="s">
         <v>113</v>
       </c>
-      <c r="F65" t="s">
-        <v>113</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>114</v>
       </c>
-      <c r="H65" t="s">
-        <v>115</v>
-      </c>
       <c r="I65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10343,19 +10334,19 @@
         <v>32718987.5</v>
       </c>
       <c r="E66" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" t="s">
+        <v>129</v>
+      </c>
+      <c r="G66" t="s">
+        <v>130</v>
+      </c>
+      <c r="H66" t="s">
         <v>131</v>
       </c>
-      <c r="F66" t="s">
-        <v>132</v>
-      </c>
-      <c r="G66" t="s">
-        <v>133</v>
-      </c>
-      <c r="H66" t="s">
-        <v>134</v>
-      </c>
       <c r="I66" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10375,19 +10366,19 @@
         <v>32718987.5</v>
       </c>
       <c r="E67" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" t="s">
+        <v>133</v>
+      </c>
+      <c r="H67" t="s">
         <v>131</v>
       </c>
-      <c r="F67" t="s">
+      <c r="I67" t="s">
         <v>132</v>
-      </c>
-      <c r="G67" t="s">
-        <v>136</v>
-      </c>
-      <c r="H67" t="s">
-        <v>134</v>
-      </c>
-      <c r="I67" t="s">
-        <v>135</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10407,19 +10398,19 @@
         <v>21061843</v>
       </c>
       <c r="E68" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" t="s">
         <v>113</v>
       </c>
-      <c r="F68" t="s">
-        <v>113</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>114</v>
       </c>
-      <c r="H68" t="s">
-        <v>115</v>
-      </c>
       <c r="I68" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10439,19 +10430,19 @@
         <v>28398310.5</v>
       </c>
       <c r="E69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" t="s">
         <v>105</v>
       </c>
-      <c r="F69" t="s">
-        <v>106</v>
-      </c>
       <c r="G69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I69" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10471,19 +10462,19 @@
         <v>28398310.5</v>
       </c>
       <c r="E70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" t="s">
         <v>105</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>106</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>107</v>
       </c>
-      <c r="H70" t="s">
-        <v>108</v>
-      </c>
       <c r="I70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10503,19 +10494,19 @@
         <v>39454178.5</v>
       </c>
       <c r="E71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" t="s">
+        <v>129</v>
+      </c>
+      <c r="G71" t="s">
+        <v>130</v>
+      </c>
+      <c r="H71" t="s">
         <v>131</v>
       </c>
-      <c r="F71" t="s">
-        <v>132</v>
-      </c>
-      <c r="G71" t="s">
-        <v>133</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>134</v>
-      </c>
-      <c r="I71" t="s">
-        <v>137</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10535,19 +10526,19 @@
         <v>39454178.5</v>
       </c>
       <c r="E72" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" t="s">
+        <v>133</v>
+      </c>
+      <c r="H72" t="s">
         <v>131</v>
       </c>
-      <c r="F72" t="s">
-        <v>132</v>
-      </c>
-      <c r="G72" t="s">
-        <v>136</v>
-      </c>
-      <c r="H72" t="s">
-        <v>134</v>
-      </c>
       <c r="I72" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10567,19 +10558,19 @@
         <v>90001421</v>
       </c>
       <c r="E73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73" t="s">
         <v>113</v>
       </c>
-      <c r="F73" t="s">
-        <v>113</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>114</v>
       </c>
-      <c r="H73" t="s">
-        <v>115</v>
-      </c>
       <c r="I73" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -10599,19 +10590,19 @@
         <v>87552013</v>
       </c>
       <c r="E74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F74" t="s">
+        <v>112</v>
+      </c>
+      <c r="G74" t="s">
         <v>113</v>
       </c>
-      <c r="F74" t="s">
-        <v>113</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>114</v>
       </c>
-      <c r="H74" t="s">
-        <v>115</v>
-      </c>
       <c r="I74" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -10631,19 +10622,19 @@
         <v>12325523</v>
       </c>
       <c r="E75" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75" t="s">
+        <v>112</v>
+      </c>
+      <c r="G75" t="s">
         <v>113</v>
       </c>
-      <c r="F75" t="s">
-        <v>113</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>114</v>
       </c>
-      <c r="H75" t="s">
-        <v>115</v>
-      </c>
       <c r="I75" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -10663,19 +10654,19 @@
         <v>38271605</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F76" t="s">
+        <v>109</v>
+      </c>
+      <c r="G76" t="s">
         <v>110</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
+        <v>107</v>
+      </c>
+      <c r="I76" t="s">
         <v>111</v>
-      </c>
-      <c r="H76" t="s">
-        <v>108</v>
-      </c>
-      <c r="I76" t="s">
-        <v>112</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -10695,19 +10686,19 @@
         <v>38271605</v>
       </c>
       <c r="E77" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77" t="s">
         <v>105</v>
       </c>
-      <c r="F77" t="s">
-        <v>106</v>
-      </c>
       <c r="G77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I77" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -10727,19 +10718,19 @@
         <v>43827160.5</v>
       </c>
       <c r="E78" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" t="s">
+        <v>123</v>
+      </c>
+      <c r="G78" t="s">
+        <v>123</v>
+      </c>
+      <c r="H78" t="s">
         <v>121</v>
       </c>
-      <c r="F78" t="s">
-        <v>125</v>
-      </c>
-      <c r="G78" t="s">
-        <v>125</v>
-      </c>
-      <c r="H78" t="s">
-        <v>123</v>
-      </c>
       <c r="I78" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -10759,19 +10750,19 @@
         <v>43827160.5</v>
       </c>
       <c r="E79" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" t="s">
+        <v>145</v>
+      </c>
+      <c r="G79" t="s">
+        <v>146</v>
+      </c>
+      <c r="H79" t="s">
         <v>121</v>
       </c>
-      <c r="F79" t="s">
-        <v>148</v>
-      </c>
-      <c r="G79" t="s">
-        <v>149</v>
-      </c>
-      <c r="H79" t="s">
-        <v>123</v>
-      </c>
       <c r="I79" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -10791,19 +10782,19 @@
         <v>98788205</v>
       </c>
       <c r="E80" t="s">
+        <v>112</v>
+      </c>
+      <c r="F80" t="s">
+        <v>112</v>
+      </c>
+      <c r="G80" t="s">
         <v>113</v>
       </c>
-      <c r="F80" t="s">
-        <v>113</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>114</v>
       </c>
-      <c r="H80" t="s">
-        <v>115</v>
-      </c>
       <c r="I80" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -10823,19 +10814,19 @@
         <v>22839450.5</v>
       </c>
       <c r="E81" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" t="s">
         <v>105</v>
       </c>
-      <c r="F81" t="s">
-        <v>106</v>
-      </c>
       <c r="G81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -10855,19 +10846,19 @@
         <v>22839450.5</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F82" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" t="s">
         <v>110</v>
       </c>
-      <c r="G82" t="s">
-        <v>111</v>
-      </c>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I82" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -10887,19 +10878,19 @@
         <v>11734504</v>
       </c>
       <c r="E83" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" t="s">
+        <v>129</v>
+      </c>
+      <c r="G83" t="s">
+        <v>133</v>
+      </c>
+      <c r="H83" t="s">
         <v>131</v>
       </c>
-      <c r="F83" t="s">
-        <v>132</v>
-      </c>
-      <c r="G83" t="s">
-        <v>136</v>
-      </c>
-      <c r="H83" t="s">
-        <v>134</v>
-      </c>
       <c r="I83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -10919,19 +10910,19 @@
         <v>11734504</v>
       </c>
       <c r="E84" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84" t="s">
+        <v>129</v>
+      </c>
+      <c r="G84" t="s">
+        <v>130</v>
+      </c>
+      <c r="H84" t="s">
         <v>131</v>
       </c>
-      <c r="F84" t="s">
-        <v>132</v>
-      </c>
-      <c r="G84" t="s">
-        <v>133</v>
-      </c>
-      <c r="H84" t="s">
-        <v>134</v>
-      </c>
       <c r="I84" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -10951,19 +10942,19 @@
         <v>23614782</v>
       </c>
       <c r="E85" t="s">
+        <v>112</v>
+      </c>
+      <c r="F85" t="s">
+        <v>112</v>
+      </c>
+      <c r="G85" t="s">
         <v>113</v>
       </c>
-      <c r="F85" t="s">
-        <v>113</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>114</v>
       </c>
-      <c r="H85" t="s">
-        <v>115</v>
-      </c>
       <c r="I85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -10983,19 +10974,19 @@
         <v>87631847</v>
       </c>
       <c r="E86" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" t="s">
         <v>113</v>
       </c>
-      <c r="F86" t="s">
-        <v>113</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>114</v>
       </c>
-      <c r="H86" t="s">
-        <v>115</v>
-      </c>
       <c r="I86" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11015,19 +11006,19 @@
         <v>28394506</v>
       </c>
       <c r="E87" t="s">
+        <v>82</v>
+      </c>
+      <c r="F87" t="s">
+        <v>120</v>
+      </c>
+      <c r="G87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H87" t="s">
         <v>121</v>
       </c>
-      <c r="F87" t="s">
-        <v>122</v>
-      </c>
-      <c r="G87" t="s">
-        <v>122</v>
-      </c>
-      <c r="H87" t="s">
-        <v>123</v>
-      </c>
       <c r="I87" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11047,19 +11038,19 @@
         <v>28394506</v>
       </c>
       <c r="E88" t="s">
+        <v>82</v>
+      </c>
+      <c r="F88" t="s">
+        <v>123</v>
+      </c>
+      <c r="G88" t="s">
+        <v>123</v>
+      </c>
+      <c r="H88" t="s">
         <v>121</v>
       </c>
-      <c r="F88" t="s">
-        <v>125</v>
-      </c>
-      <c r="G88" t="s">
-        <v>125</v>
-      </c>
-      <c r="H88" t="s">
-        <v>123</v>
-      </c>
       <c r="I88" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11079,19 +11070,19 @@
         <v>33948629.5</v>
       </c>
       <c r="E89" t="s">
+        <v>83</v>
+      </c>
+      <c r="F89" t="s">
+        <v>129</v>
+      </c>
+      <c r="G89" t="s">
+        <v>133</v>
+      </c>
+      <c r="H89" t="s">
         <v>131</v>
       </c>
-      <c r="F89" t="s">
-        <v>132</v>
-      </c>
-      <c r="G89" t="s">
-        <v>136</v>
-      </c>
-      <c r="H89" t="s">
-        <v>134</v>
-      </c>
       <c r="I89" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11111,19 +11102,19 @@
         <v>33948629.5</v>
       </c>
       <c r="E90" t="s">
+        <v>83</v>
+      </c>
+      <c r="F90" t="s">
+        <v>129</v>
+      </c>
+      <c r="G90" t="s">
+        <v>130</v>
+      </c>
+      <c r="H90" t="s">
         <v>131</v>
       </c>
-      <c r="F90" t="s">
-        <v>132</v>
-      </c>
-      <c r="G90" t="s">
-        <v>133</v>
-      </c>
-      <c r="H90" t="s">
-        <v>134</v>
-      </c>
       <c r="I90" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11143,19 +11134,19 @@
         <v>34412745</v>
       </c>
       <c r="E91" t="s">
+        <v>112</v>
+      </c>
+      <c r="F91" t="s">
+        <v>112</v>
+      </c>
+      <c r="G91" t="s">
         <v>113</v>
       </c>
-      <c r="F91" t="s">
-        <v>113</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>114</v>
       </c>
-      <c r="H91" t="s">
-        <v>115</v>
-      </c>
       <c r="I91" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11175,19 +11166,19 @@
         <v>5493827</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G92" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11207,19 +11198,19 @@
         <v>5493827</v>
       </c>
       <c r="E93" t="s">
+        <v>81</v>
+      </c>
+      <c r="F93" t="s">
         <v>105</v>
       </c>
-      <c r="F93" t="s">
-        <v>106</v>
-      </c>
       <c r="G93" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I93" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11239,19 +11230,19 @@
         <v>5493827</v>
       </c>
       <c r="E94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F94" t="s">
+        <v>145</v>
+      </c>
+      <c r="G94" t="s">
+        <v>146</v>
+      </c>
+      <c r="H94" t="s">
         <v>121</v>
       </c>
-      <c r="F94" t="s">
-        <v>148</v>
-      </c>
-      <c r="G94" t="s">
-        <v>149</v>
-      </c>
-      <c r="H94" t="s">
-        <v>123</v>
-      </c>
       <c r="I94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11271,19 +11262,19 @@
         <v>5493827</v>
       </c>
       <c r="E95" t="s">
+        <v>82</v>
+      </c>
+      <c r="F95" t="s">
+        <v>145</v>
+      </c>
+      <c r="G95" t="s">
+        <v>164</v>
+      </c>
+      <c r="H95" t="s">
         <v>121</v>
       </c>
-      <c r="F95" t="s">
-        <v>148</v>
-      </c>
-      <c r="G95" t="s">
-        <v>167</v>
-      </c>
-      <c r="H95" t="s">
-        <v>123</v>
-      </c>
       <c r="I95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11303,19 +11294,19 @@
         <v>32048459</v>
       </c>
       <c r="E96" t="s">
+        <v>112</v>
+      </c>
+      <c r="F96" t="s">
+        <v>112</v>
+      </c>
+      <c r="G96" t="s">
         <v>113</v>
       </c>
-      <c r="F96" t="s">
-        <v>113</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>114</v>
       </c>
-      <c r="H96" t="s">
-        <v>115</v>
-      </c>
       <c r="I96" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11335,19 +11326,19 @@
         <v>43828916</v>
       </c>
       <c r="E97" t="s">
+        <v>83</v>
+      </c>
+      <c r="F97" t="s">
+        <v>129</v>
+      </c>
+      <c r="G97" t="s">
+        <v>130</v>
+      </c>
+      <c r="H97" t="s">
         <v>131</v>
       </c>
-      <c r="F97" t="s">
-        <v>132</v>
-      </c>
-      <c r="G97" t="s">
-        <v>133</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>134</v>
-      </c>
-      <c r="I97" t="s">
-        <v>137</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11367,19 +11358,19 @@
         <v>43828916</v>
       </c>
       <c r="E98" t="s">
+        <v>83</v>
+      </c>
+      <c r="F98" t="s">
+        <v>129</v>
+      </c>
+      <c r="G98" t="s">
+        <v>133</v>
+      </c>
+      <c r="H98" t="s">
         <v>131</v>
       </c>
-      <c r="F98" t="s">
-        <v>132</v>
-      </c>
-      <c r="G98" t="s">
-        <v>136</v>
-      </c>
-      <c r="H98" t="s">
-        <v>134</v>
-      </c>
       <c r="I98" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11399,19 +11390,19 @@
         <v>88969607</v>
       </c>
       <c r="E99" t="s">
+        <v>112</v>
+      </c>
+      <c r="F99" t="s">
+        <v>112</v>
+      </c>
+      <c r="G99" t="s">
         <v>113</v>
       </c>
-      <c r="F99" t="s">
-        <v>113</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>114</v>
       </c>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
       <c r="I99" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11431,19 +11422,19 @@
         <v>11728394.5</v>
       </c>
       <c r="E100" t="s">
+        <v>82</v>
+      </c>
+      <c r="F100" t="s">
+        <v>123</v>
+      </c>
+      <c r="G100" t="s">
+        <v>123</v>
+      </c>
+      <c r="H100" t="s">
         <v>121</v>
       </c>
-      <c r="F100" t="s">
-        <v>125</v>
-      </c>
-      <c r="G100" t="s">
-        <v>125</v>
-      </c>
-      <c r="H100" t="s">
-        <v>123</v>
-      </c>
       <c r="I100" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11463,19 +11454,19 @@
         <v>11728394.5</v>
       </c>
       <c r="E101" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" t="s">
+        <v>145</v>
+      </c>
+      <c r="G101" t="s">
+        <v>164</v>
+      </c>
+      <c r="H101" t="s">
         <v>121</v>
       </c>
-      <c r="F101" t="s">
-        <v>148</v>
-      </c>
-      <c r="G101" t="s">
-        <v>167</v>
-      </c>
-      <c r="H101" t="s">
-        <v>123</v>
-      </c>
       <c r="I101" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11495,19 +11486,19 @@
         <v>21119870</v>
       </c>
       <c r="E102" t="s">
+        <v>112</v>
+      </c>
+      <c r="F102" t="s">
+        <v>112</v>
+      </c>
+      <c r="G102" t="s">
         <v>113</v>
       </c>
-      <c r="F102" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>114</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>115</v>
-      </c>
-      <c r="I102" t="s">
-        <v>116</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11527,19 +11518,19 @@
         <v>49382716</v>
       </c>
       <c r="E103" t="s">
+        <v>82</v>
+      </c>
+      <c r="F103" t="s">
+        <v>145</v>
+      </c>
+      <c r="G103" t="s">
+        <v>164</v>
+      </c>
+      <c r="H103" t="s">
         <v>121</v>
       </c>
-      <c r="F103" t="s">
-        <v>148</v>
-      </c>
-      <c r="G103" t="s">
-        <v>167</v>
-      </c>
-      <c r="H103" t="s">
-        <v>123</v>
-      </c>
       <c r="I103" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11559,19 +11550,19 @@
         <v>49382716</v>
       </c>
       <c r="E104" t="s">
+        <v>82</v>
+      </c>
+      <c r="F104" t="s">
+        <v>145</v>
+      </c>
+      <c r="G104" t="s">
+        <v>146</v>
+      </c>
+      <c r="H104" t="s">
         <v>121</v>
       </c>
-      <c r="F104" t="s">
-        <v>148</v>
-      </c>
-      <c r="G104" t="s">
-        <v>149</v>
-      </c>
-      <c r="H104" t="s">
-        <v>123</v>
-      </c>
       <c r="I104" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11591,19 +11582,19 @@
         <v>11733104.5</v>
       </c>
       <c r="E105" t="s">
+        <v>83</v>
+      </c>
+      <c r="F105" t="s">
+        <v>129</v>
+      </c>
+      <c r="G105" t="s">
+        <v>133</v>
+      </c>
+      <c r="H105" t="s">
         <v>131</v>
       </c>
-      <c r="F105" t="s">
-        <v>132</v>
-      </c>
-      <c r="G105" t="s">
-        <v>136</v>
-      </c>
-      <c r="H105" t="s">
-        <v>134</v>
-      </c>
       <c r="I105" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -11623,19 +11614,19 @@
         <v>11733104.5</v>
       </c>
       <c r="E106" t="s">
+        <v>83</v>
+      </c>
+      <c r="F106" t="s">
+        <v>129</v>
+      </c>
+      <c r="G106" t="s">
+        <v>130</v>
+      </c>
+      <c r="H106" t="s">
         <v>131</v>
       </c>
-      <c r="F106" t="s">
-        <v>132</v>
-      </c>
-      <c r="G106" t="s">
-        <v>133</v>
-      </c>
-      <c r="H106" t="s">
-        <v>134</v>
-      </c>
       <c r="I106" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -11655,19 +11646,19 @@
         <v>90170963</v>
       </c>
       <c r="E107" t="s">
+        <v>112</v>
+      </c>
+      <c r="F107" t="s">
+        <v>112</v>
+      </c>
+      <c r="G107" t="s">
         <v>113</v>
       </c>
-      <c r="F107" t="s">
-        <v>113</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>114</v>
       </c>
-      <c r="H107" t="s">
-        <v>115</v>
-      </c>
       <c r="I107" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -11687,19 +11678,19 @@
         <v>6172839</v>
       </c>
       <c r="E108" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G108" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I108" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -11719,19 +11710,19 @@
         <v>6172839</v>
       </c>
       <c r="E109" t="s">
+        <v>81</v>
+      </c>
+      <c r="F109" t="s">
         <v>105</v>
       </c>
-      <c r="F109" t="s">
-        <v>106</v>
-      </c>
       <c r="G109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I109" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -11751,19 +11742,19 @@
         <v>17283945</v>
       </c>
       <c r="E110" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G110" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I110" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -11783,19 +11774,19 @@
         <v>17283945</v>
       </c>
       <c r="E111" t="s">
+        <v>81</v>
+      </c>
+      <c r="F111" t="s">
         <v>105</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>106</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>107</v>
       </c>
-      <c r="H111" t="s">
-        <v>108</v>
-      </c>
       <c r="I111" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -11815,19 +11806,19 @@
         <v>32719540</v>
       </c>
       <c r="E112" t="s">
+        <v>83</v>
+      </c>
+      <c r="F112" t="s">
+        <v>129</v>
+      </c>
+      <c r="G112" t="s">
+        <v>130</v>
+      </c>
+      <c r="H112" t="s">
         <v>131</v>
       </c>
-      <c r="F112" t="s">
-        <v>132</v>
-      </c>
-      <c r="G112" t="s">
-        <v>133</v>
-      </c>
-      <c r="H112" t="s">
-        <v>134</v>
-      </c>
       <c r="I112" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -11847,19 +11838,19 @@
         <v>32719540</v>
       </c>
       <c r="E113" t="s">
+        <v>83</v>
+      </c>
+      <c r="F113" t="s">
+        <v>129</v>
+      </c>
+      <c r="G113" t="s">
+        <v>133</v>
+      </c>
+      <c r="H113" t="s">
         <v>131</v>
       </c>
-      <c r="F113" t="s">
-        <v>132</v>
-      </c>
-      <c r="G113" t="s">
-        <v>136</v>
-      </c>
-      <c r="H113" t="s">
-        <v>134</v>
-      </c>
       <c r="I113" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -11879,19 +11870,19 @@
         <v>12402765</v>
       </c>
       <c r="E114" t="s">
+        <v>112</v>
+      </c>
+      <c r="F114" t="s">
+        <v>112</v>
+      </c>
+      <c r="G114" t="s">
         <v>113</v>
       </c>
-      <c r="F114" t="s">
-        <v>113</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>114</v>
       </c>
-      <c r="H114" t="s">
-        <v>115</v>
-      </c>
       <c r="I114" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -11911,19 +11902,19 @@
         <v>38271605</v>
       </c>
       <c r="E115" t="s">
+        <v>81</v>
+      </c>
+      <c r="F115" t="s">
         <v>105</v>
       </c>
-      <c r="F115" t="s">
-        <v>106</v>
-      </c>
       <c r="G115" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -11943,19 +11934,19 @@
         <v>38271605</v>
       </c>
       <c r="E116" t="s">
+        <v>81</v>
+      </c>
+      <c r="F116" t="s">
         <v>105</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>106</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>107</v>
       </c>
-      <c r="H116" t="s">
-        <v>108</v>
-      </c>
       <c r="I116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -11975,19 +11966,19 @@
         <v>49382716</v>
       </c>
       <c r="E117" t="s">
+        <v>82</v>
+      </c>
+      <c r="F117" t="s">
+        <v>120</v>
+      </c>
+      <c r="G117" t="s">
+        <v>120</v>
+      </c>
+      <c r="H117" t="s">
         <v>121</v>
       </c>
-      <c r="F117" t="s">
-        <v>122</v>
-      </c>
-      <c r="G117" t="s">
-        <v>122</v>
-      </c>
-      <c r="H117" t="s">
-        <v>123</v>
-      </c>
       <c r="I117" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12007,19 +11998,19 @@
         <v>49382716</v>
       </c>
       <c r="E118" t="s">
+        <v>82</v>
+      </c>
+      <c r="F118" t="s">
+        <v>145</v>
+      </c>
+      <c r="G118" t="s">
+        <v>164</v>
+      </c>
+      <c r="H118" t="s">
         <v>121</v>
       </c>
-      <c r="F118" t="s">
-        <v>148</v>
-      </c>
-      <c r="G118" t="s">
-        <v>167</v>
-      </c>
-      <c r="H118" t="s">
-        <v>123</v>
-      </c>
       <c r="I118" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12039,19 +12030,19 @@
         <v>22839450.5</v>
       </c>
       <c r="E119" t="s">
+        <v>81</v>
+      </c>
+      <c r="F119" t="s">
         <v>105</v>
       </c>
-      <c r="F119" t="s">
-        <v>106</v>
-      </c>
       <c r="G119" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I119" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12071,19 +12062,19 @@
         <v>22839450.5</v>
       </c>
       <c r="E120" t="s">
+        <v>81</v>
+      </c>
+      <c r="F120" t="s">
         <v>105</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>106</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>107</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>108</v>
-      </c>
-      <c r="I120" t="s">
-        <v>109</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12103,19 +12094,19 @@
         <v>22839450.5</v>
       </c>
       <c r="E121" t="s">
+        <v>82</v>
+      </c>
+      <c r="F121" t="s">
+        <v>120</v>
+      </c>
+      <c r="G121" t="s">
+        <v>120</v>
+      </c>
+      <c r="H121" t="s">
         <v>121</v>
       </c>
-      <c r="F121" t="s">
-        <v>122</v>
-      </c>
-      <c r="G121" t="s">
-        <v>122</v>
-      </c>
-      <c r="H121" t="s">
-        <v>123</v>
-      </c>
       <c r="I121" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12135,19 +12126,19 @@
         <v>22839450.5</v>
       </c>
       <c r="E122" t="s">
+        <v>82</v>
+      </c>
+      <c r="F122" t="s">
+        <v>145</v>
+      </c>
+      <c r="G122" t="s">
+        <v>146</v>
+      </c>
+      <c r="H122" t="s">
         <v>121</v>
       </c>
-      <c r="F122" t="s">
-        <v>148</v>
-      </c>
-      <c r="G122" t="s">
-        <v>149</v>
-      </c>
-      <c r="H122" t="s">
-        <v>123</v>
-      </c>
       <c r="I122" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12167,19 +12158,19 @@
         <v>11728394.5</v>
       </c>
       <c r="E123" t="s">
+        <v>83</v>
+      </c>
+      <c r="F123" t="s">
+        <v>129</v>
+      </c>
+      <c r="G123" t="s">
+        <v>130</v>
+      </c>
+      <c r="H123" t="s">
         <v>131</v>
       </c>
-      <c r="F123" t="s">
-        <v>132</v>
-      </c>
-      <c r="G123" t="s">
-        <v>133</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>134</v>
-      </c>
-      <c r="I123" t="s">
-        <v>137</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12199,19 +12190,19 @@
         <v>11728394.5</v>
       </c>
       <c r="E124" t="s">
+        <v>83</v>
+      </c>
+      <c r="F124" t="s">
+        <v>129</v>
+      </c>
+      <c r="G124" t="s">
+        <v>133</v>
+      </c>
+      <c r="H124" t="s">
         <v>131</v>
       </c>
-      <c r="F124" t="s">
-        <v>132</v>
-      </c>
-      <c r="G124" t="s">
-        <v>136</v>
-      </c>
-      <c r="H124" t="s">
-        <v>134</v>
-      </c>
       <c r="I124" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12231,19 +12222,19 @@
         <v>32716054.5</v>
       </c>
       <c r="E125" t="s">
+        <v>81</v>
+      </c>
+      <c r="F125" t="s">
         <v>105</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>106</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>107</v>
       </c>
-      <c r="H125" t="s">
-        <v>108</v>
-      </c>
       <c r="I125" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12263,19 +12254,19 @@
         <v>32716054.5</v>
       </c>
       <c r="E126" t="s">
+        <v>81</v>
+      </c>
+      <c r="F126" t="s">
         <v>105</v>
       </c>
-      <c r="F126" t="s">
-        <v>106</v>
-      </c>
       <c r="G126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H126" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I126" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12295,19 +12286,19 @@
         <v>87722888</v>
       </c>
       <c r="E127" t="s">
+        <v>112</v>
+      </c>
+      <c r="F127" t="s">
+        <v>112</v>
+      </c>
+      <c r="G127" t="s">
         <v>113</v>
       </c>
-      <c r="F127" t="s">
-        <v>113</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>114</v>
       </c>
-      <c r="H127" t="s">
-        <v>115</v>
-      </c>
       <c r="I127" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12327,19 +12318,19 @@
         <v>28394506</v>
       </c>
       <c r="E128" t="s">
+        <v>81</v>
+      </c>
+      <c r="F128" t="s">
         <v>105</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>106</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>107</v>
       </c>
-      <c r="H128" t="s">
-        <v>108</v>
-      </c>
       <c r="I128" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12359,19 +12350,19 @@
         <v>28394506</v>
       </c>
       <c r="E129" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F129" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G129" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H129" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I129" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12391,19 +12382,19 @@
         <v>17283945</v>
       </c>
       <c r="E130" t="s">
+        <v>82</v>
+      </c>
+      <c r="F130" t="s">
+        <v>120</v>
+      </c>
+      <c r="G130" t="s">
+        <v>120</v>
+      </c>
+      <c r="H130" t="s">
         <v>121</v>
       </c>
-      <c r="F130" t="s">
+      <c r="I130" t="s">
         <v>122</v>
-      </c>
-      <c r="G130" t="s">
-        <v>122</v>
-      </c>
-      <c r="H130" t="s">
-        <v>123</v>
-      </c>
-      <c r="I130" t="s">
-        <v>124</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12423,19 +12414,19 @@
         <v>17283945</v>
       </c>
       <c r="E131" t="s">
+        <v>82</v>
+      </c>
+      <c r="F131" t="s">
+        <v>123</v>
+      </c>
+      <c r="G131" t="s">
+        <v>123</v>
+      </c>
+      <c r="H131" t="s">
         <v>121</v>
       </c>
-      <c r="F131" t="s">
-        <v>125</v>
-      </c>
-      <c r="G131" t="s">
-        <v>125</v>
-      </c>
-      <c r="H131" t="s">
-        <v>123</v>
-      </c>
       <c r="I131" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12455,19 +12446,19 @@
         <v>27160549</v>
       </c>
       <c r="E132" t="s">
+        <v>83</v>
+      </c>
+      <c r="F132" t="s">
+        <v>129</v>
+      </c>
+      <c r="G132" t="s">
+        <v>130</v>
+      </c>
+      <c r="H132" t="s">
         <v>131</v>
       </c>
-      <c r="F132" t="s">
+      <c r="I132" t="s">
         <v>132</v>
-      </c>
-      <c r="G132" t="s">
-        <v>133</v>
-      </c>
-      <c r="H132" t="s">
-        <v>134</v>
-      </c>
-      <c r="I132" t="s">
-        <v>135</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12487,19 +12478,19 @@
         <v>27160549</v>
       </c>
       <c r="E133" t="s">
+        <v>83</v>
+      </c>
+      <c r="F133" t="s">
+        <v>129</v>
+      </c>
+      <c r="G133" t="s">
+        <v>133</v>
+      </c>
+      <c r="H133" t="s">
         <v>131</v>
       </c>
-      <c r="F133" t="s">
-        <v>132</v>
-      </c>
-      <c r="G133" t="s">
-        <v>136</v>
-      </c>
-      <c r="H133" t="s">
-        <v>134</v>
-      </c>
       <c r="I133" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12519,19 +12510,19 @@
         <v>76497261</v>
       </c>
       <c r="E134" t="s">
+        <v>112</v>
+      </c>
+      <c r="F134" t="s">
+        <v>112</v>
+      </c>
+      <c r="G134" t="s">
         <v>113</v>
       </c>
-      <c r="F134" t="s">
-        <v>113</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>114</v>
       </c>
-      <c r="H134" t="s">
-        <v>115</v>
-      </c>
       <c r="I134" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12551,19 +12542,19 @@
         <v>33945061.5</v>
       </c>
       <c r="E135" t="s">
+        <v>82</v>
+      </c>
+      <c r="F135" t="s">
+        <v>120</v>
+      </c>
+      <c r="G135" t="s">
+        <v>120</v>
+      </c>
+      <c r="H135" t="s">
         <v>121</v>
       </c>
-      <c r="F135" t="s">
-        <v>122</v>
-      </c>
-      <c r="G135" t="s">
-        <v>122</v>
-      </c>
-      <c r="H135" t="s">
-        <v>123</v>
-      </c>
       <c r="I135" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12583,19 +12574,19 @@
         <v>33945061.5</v>
       </c>
       <c r="E136" t="s">
+        <v>82</v>
+      </c>
+      <c r="F136" t="s">
+        <v>145</v>
+      </c>
+      <c r="G136" t="s">
+        <v>164</v>
+      </c>
+      <c r="H136" t="s">
         <v>121</v>
       </c>
-      <c r="F136" t="s">
-        <v>148</v>
-      </c>
-      <c r="G136" t="s">
-        <v>167</v>
-      </c>
-      <c r="H136" t="s">
-        <v>123</v>
-      </c>
       <c r="I136" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12615,19 +12606,19 @@
         <v>45595666</v>
       </c>
       <c r="E137" t="s">
+        <v>112</v>
+      </c>
+      <c r="F137" t="s">
+        <v>112</v>
+      </c>
+      <c r="G137" t="s">
         <v>113</v>
       </c>
-      <c r="F137" t="s">
-        <v>113</v>
-      </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>114</v>
       </c>
-      <c r="H137" t="s">
-        <v>115</v>
-      </c>
       <c r="I137" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12647,19 +12638,19 @@
         <v>21605493.5</v>
       </c>
       <c r="E138" t="s">
+        <v>81</v>
+      </c>
+      <c r="F138" t="s">
         <v>105</v>
       </c>
-      <c r="F138" t="s">
-        <v>106</v>
-      </c>
       <c r="G138" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H138" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I138" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -12679,19 +12670,19 @@
         <v>21605493.5</v>
       </c>
       <c r="E139" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G139" t="s">
+        <v>116</v>
+      </c>
+      <c r="H139" t="s">
+        <v>107</v>
+      </c>
+      <c r="I139" t="s">
         <v>117</v>
-      </c>
-      <c r="H139" t="s">
-        <v>108</v>
-      </c>
-      <c r="I139" t="s">
-        <v>118</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -12711,19 +12702,19 @@
         <v>32716054.5</v>
       </c>
       <c r="E140" t="s">
+        <v>83</v>
+      </c>
+      <c r="F140" t="s">
+        <v>129</v>
+      </c>
+      <c r="G140" t="s">
+        <v>133</v>
+      </c>
+      <c r="H140" t="s">
         <v>131</v>
       </c>
-      <c r="F140" t="s">
-        <v>132</v>
-      </c>
-      <c r="G140" t="s">
-        <v>136</v>
-      </c>
-      <c r="H140" t="s">
-        <v>134</v>
-      </c>
       <c r="I140" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -12743,19 +12734,19 @@
         <v>32716054.5</v>
       </c>
       <c r="E141" t="s">
+        <v>83</v>
+      </c>
+      <c r="F141" t="s">
+        <v>129</v>
+      </c>
+      <c r="G141" t="s">
+        <v>130</v>
+      </c>
+      <c r="H141" t="s">
         <v>131</v>
       </c>
-      <c r="F141" t="s">
+      <c r="I141" t="s">
         <v>132</v>
-      </c>
-      <c r="G141" t="s">
-        <v>133</v>
-      </c>
-      <c r="H141" t="s">
-        <v>134</v>
-      </c>
-      <c r="I141" t="s">
-        <v>135</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -12775,19 +12766,19 @@
         <v>39450617</v>
       </c>
       <c r="E142" t="s">
+        <v>83</v>
+      </c>
+      <c r="F142" t="s">
+        <v>129</v>
+      </c>
+      <c r="G142" t="s">
+        <v>133</v>
+      </c>
+      <c r="H142" t="s">
         <v>131</v>
       </c>
-      <c r="F142" t="s">
-        <v>132</v>
-      </c>
-      <c r="G142" t="s">
-        <v>136</v>
-      </c>
-      <c r="H142" t="s">
-        <v>134</v>
-      </c>
       <c r="I142" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -12807,19 +12798,19 @@
         <v>39450617</v>
       </c>
       <c r="E143" t="s">
+        <v>83</v>
+      </c>
+      <c r="F143" t="s">
+        <v>129</v>
+      </c>
+      <c r="G143" t="s">
+        <v>130</v>
+      </c>
+      <c r="H143" t="s">
         <v>131</v>
       </c>
-      <c r="F143" t="s">
-        <v>132</v>
-      </c>
-      <c r="G143" t="s">
-        <v>133</v>
-      </c>
-      <c r="H143" t="s">
-        <v>134</v>
-      </c>
       <c r="I143" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -12839,19 +12830,19 @@
         <v>56666730</v>
       </c>
       <c r="E144" t="s">
+        <v>112</v>
+      </c>
+      <c r="F144" t="s">
+        <v>112</v>
+      </c>
+      <c r="G144" t="s">
         <v>113</v>
       </c>
-      <c r="F144" t="s">
-        <v>113</v>
-      </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>114</v>
       </c>
-      <c r="H144" t="s">
-        <v>115</v>
-      </c>
       <c r="I144" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -12871,19 +12862,19 @@
         <v>16054938</v>
       </c>
       <c r="E145" t="s">
+        <v>81</v>
+      </c>
+      <c r="F145" t="s">
         <v>105</v>
       </c>
-      <c r="F145" t="s">
-        <v>106</v>
-      </c>
       <c r="G145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H145" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I145" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -12903,19 +12894,19 @@
         <v>16054938</v>
       </c>
       <c r="E146" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F146" t="s">
+        <v>109</v>
+      </c>
+      <c r="G146" t="s">
         <v>110</v>
       </c>
-      <c r="G146" t="s">
-        <v>111</v>
-      </c>
       <c r="H146" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I146" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -12935,19 +12926,19 @@
         <v>27160549</v>
       </c>
       <c r="E147" t="s">
+        <v>82</v>
+      </c>
+      <c r="F147" t="s">
+        <v>123</v>
+      </c>
+      <c r="G147" t="s">
+        <v>123</v>
+      </c>
+      <c r="H147" t="s">
         <v>121</v>
       </c>
-      <c r="F147" t="s">
-        <v>125</v>
-      </c>
-      <c r="G147" t="s">
-        <v>125</v>
-      </c>
-      <c r="H147" t="s">
-        <v>123</v>
-      </c>
       <c r="I147" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -12967,19 +12958,19 @@
         <v>27160549</v>
       </c>
       <c r="E148" t="s">
+        <v>82</v>
+      </c>
+      <c r="F148" t="s">
+        <v>145</v>
+      </c>
+      <c r="G148" t="s">
+        <v>164</v>
+      </c>
+      <c r="H148" t="s">
         <v>121</v>
       </c>
-      <c r="F148" t="s">
-        <v>148</v>
-      </c>
-      <c r="G148" t="s">
-        <v>167</v>
-      </c>
-      <c r="H148" t="s">
-        <v>123</v>
-      </c>
       <c r="I148" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13002,7 +12993,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13032,7 +13023,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -13060,27 +13051,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="F2" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="G2" s="35" t="s">
         <v>196</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="41.25" customHeight="1">
       <c r="B3" s="37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C3" s="38">
         <v>26957145.600000001</v>
@@ -13089,20 +13080,20 @@
         <v>2024</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F3" s="39">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5409505.120000001</v>
+        <v>5411680.120000001</v>
       </c>
       <c r="G3" s="38">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21547640.48</v>
+        <v>21545465.48</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="37" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C4" s="38">
         <v>40426848</v>
@@ -13111,20 +13102,20 @@
         <v>2023</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F4" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8089752.6000000006</v>
+        <v>8107450.6000000006</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>32337095.399999999</v>
+        <v>32319397.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C5" s="38">
         <v>53896550.399999999</v>
@@ -13133,20 +13124,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F5" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>10799993.08</v>
+        <v>10791419.08</v>
       </c>
       <c r="G5" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>43096557.32</v>
+        <v>43105131.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1">
       <c r="B6" s="37" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C6" s="38">
         <v>67366252.799999997</v>
@@ -13155,20 +13146,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F6" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>13476736.560000001</v>
+        <v>13497017.560000001</v>
       </c>
       <c r="G6" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>53889516.239999995</v>
+        <v>53869235.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C7" s="38">
         <v>80835955.199999988</v>
@@ -13177,20 +13168,20 @@
         <v>2024</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F7" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16176433.039999999</v>
+        <v>16179211.039999999</v>
       </c>
       <c r="G7" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>64659522.159999989</v>
+        <v>64656744.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="37" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C8" s="38">
         <v>94305657.600000009</v>
@@ -13199,20 +13190,20 @@
         <v>2023</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F8" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>18870300.520000003</v>
+        <v>18868581.520000003</v>
       </c>
       <c r="G8" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>75435357.080000013</v>
+        <v>75437076.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1">
       <c r="B9" s="37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C9" s="38">
         <v>107760576</v>
@@ -13221,20 +13212,20 @@
         <v>2022</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F9" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>21563058.200000003</v>
+        <v>21562304.200000003</v>
       </c>
       <c r="G9" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>86197517.799999997</v>
+        <v>86198271.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="37" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C10" s="38">
         <v>121082438.40000001</v>
@@ -13243,20 +13234,20 @@
         <v>2019</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F10" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>24224198.680000003</v>
+        <v>24224669.680000003</v>
       </c>
       <c r="G10" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>96858239.719999999</v>
+        <v>96857768.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1">
       <c r="B11" s="37" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C11" s="38">
         <v>133073740.8</v>
@@ -13265,20 +13256,20 @@
         <v>2024</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F11" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>26626837.16</v>
+        <v>26615977.16</v>
       </c>
       <c r="G11" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>106446903.64</v>
+        <v>106457763.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C12" s="38">
         <v>146543443.19999999</v>
@@ -13287,20 +13278,20 @@
         <v>2023</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F12" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29320100.640000001</v>
+        <v>29324837.640000001</v>
       </c>
       <c r="G12" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>117223342.55999999</v>
+        <v>117218605.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C13" s="38">
         <v>16608345.6</v>
@@ -13309,20 +13300,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F13" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>3343224.12</v>
+        <v>3339608.12</v>
       </c>
       <c r="G13" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>13265121.48</v>
+        <v>13268737.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C14" s="38">
         <v>33034848</v>
@@ -13331,20 +13322,20 @@
         <v>2019</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F14" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>6627913.6000000006</v>
+        <v>6608345.6000000006</v>
       </c>
       <c r="G14" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>26406934.399999999</v>
+        <v>26426502.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1">
       <c r="B15" s="37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C15" s="38">
         <v>49461350.399999999</v>
@@ -13353,20 +13344,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F15" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>9901814.0800000001</v>
+        <v>9899905.0800000001</v>
       </c>
       <c r="G15" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>39559536.32</v>
+        <v>39561445.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="37" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C16" s="38">
         <v>65887852.799999997</v>
@@ -13375,20 +13366,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F16" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>13182777.560000001</v>
+        <v>13192871.560000001</v>
       </c>
       <c r="G16" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>52705075.239999995</v>
+        <v>52694981.239999995</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C17" s="38">
         <v>82314355.199999988</v>
@@ -13397,20 +13388,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F17" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16473565.039999999</v>
+        <v>16477646.039999999</v>
       </c>
       <c r="G17" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>65840790.159999989</v>
+        <v>65836709.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C18" s="38">
         <v>98740857.600000009</v>
@@ -13419,20 +13410,20 @@
         <v>2020</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F18" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>19772961.520000003</v>
+        <v>19758278.520000003</v>
       </c>
       <c r="G18" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>78967896.080000013</v>
+        <v>78982579.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="37" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C19" s="38">
         <v>115152576</v>
@@ -13441,20 +13432,20 @@
         <v>2020</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F19" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>23044139.200000003</v>
+        <v>23039174.200000003</v>
       </c>
       <c r="G19" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>92108436.799999997</v>
+        <v>92113401.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="37" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C20" s="38">
         <v>131431238.40000001</v>
@@ -13463,20 +13454,20 @@
         <v>2020</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>26295126.680000003</v>
+        <v>26292481.680000003</v>
       </c>
       <c r="G20" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>105136111.72</v>
+        <v>105138756.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="37" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C21" s="38">
         <v>146379340.80000001</v>
@@ -13485,20 +13476,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F21" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29292055.160000004</v>
+        <v>29286335.160000004</v>
       </c>
       <c r="G21" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>117087285.64000002</v>
+        <v>117093005.64000002</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C22" s="38">
         <v>14965843.199999999</v>
@@ -13507,20 +13498,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>2993889.64</v>
+        <v>3013225.64</v>
       </c>
       <c r="G22" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>11971953.559999999</v>
+        <v>11952617.559999999</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="37" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C23" s="38">
         <v>31392345.600000001</v>
@@ -13529,20 +13520,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F23" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>6282655.120000001</v>
+        <v>6294392.120000001</v>
       </c>
       <c r="G23" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>25109690.48</v>
+        <v>25097953.48</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="37" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C24" s="38">
         <v>47818848</v>
@@ -13551,20 +13542,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F24" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>9571352.5999999996</v>
+        <v>9572397.5999999996</v>
       </c>
       <c r="G24" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>38247495.399999999</v>
+        <v>38246450.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1">
       <c r="B25" s="37" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C25" s="38">
         <v>64245350.399999999</v>
@@ -13573,20 +13564,20 @@
         <v>2017</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F25" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>12865039.08</v>
+        <v>12854141.08</v>
       </c>
       <c r="G25" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>51380311.32</v>
+        <v>51391209.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="37" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C26" s="38">
         <v>80671852.799999997</v>
@@ -13595,20 +13586,20 @@
         <v>2017</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F26" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16137648.560000001</v>
+        <v>16149223.560000001</v>
       </c>
       <c r="G26" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>64534204.239999995</v>
+        <v>64522629.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="37" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C27" s="38">
         <v>97098355.199999988</v>
@@ -13617,20 +13608,20 @@
         <v>2017</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>19444434.039999999</v>
+        <v>19437468.039999999</v>
       </c>
       <c r="G27" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>77653921.159999996</v>
+        <v>77660887.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="37" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C28" s="38">
         <v>113524857.59999999</v>
@@ -13639,20 +13630,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F28" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>22724289.52</v>
+        <v>22728171.52</v>
       </c>
       <c r="G28" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>90800568.079999998</v>
+        <v>90796686.079999998</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C29" s="38">
         <v>129936576</v>
@@ -13661,20 +13652,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F29" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>26006098.200000003</v>
+        <v>25997795.200000003</v>
       </c>
       <c r="G29" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>103930477.8</v>
+        <v>103938780.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C30" s="38">
         <v>146215238.40000001</v>
@@ -13683,20 +13674,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F30" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29245206.680000003</v>
+        <v>29244799.680000003</v>
       </c>
       <c r="G30" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>116970031.72</v>
+        <v>116970438.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C31" s="38">
         <v>28107340.800000001</v>
@@ -13705,20 +13696,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F31" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>5645364.1600000001</v>
+        <v>5640302.1600000001</v>
       </c>
       <c r="G31" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>22461976.640000001</v>
+        <v>22467038.640000001</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="37" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C32" s="38">
         <v>44533843.200000003</v>
@@ -13727,20 +13718,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F32" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8911784.6400000006</v>
+        <v>8914533.6400000006</v>
       </c>
       <c r="G32" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>35622058.560000002</v>
+        <v>35619309.560000002</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="37" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C33" s="38">
         <v>60960345.599999987</v>
@@ -13749,20 +13740,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F33" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>12212019.119999997</v>
+        <v>12193488.119999997</v>
       </c>
       <c r="G33" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>48748326.479999989</v>
+        <v>48766857.479999989</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C34" s="38">
         <v>77386848</v>
@@ -13771,20 +13762,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F34" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>15498391.600000001</v>
+        <v>15490843.600000001</v>
       </c>
       <c r="G34" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>61888456.399999999</v>
+        <v>61896004.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="37" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C35" s="38">
         <v>93813350.399999991</v>
@@ -13793,20 +13784,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F35" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>18768482.079999998</v>
+        <v>18765699.079999998</v>
       </c>
       <c r="G35" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>75044868.319999993</v>
+        <v>75047651.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="37" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C36" s="38">
         <v>110239852.8</v>
@@ -13815,20 +13806,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F36" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>22069712.560000002</v>
+        <v>22049883.560000002</v>
       </c>
       <c r="G36" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>88170140.239999995</v>
+        <v>88189969.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C37" s="38">
         <v>126666355.2</v>
@@ -13837,20 +13828,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F37" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>25355271.040000003</v>
+        <v>25351126.040000003</v>
       </c>
       <c r="G37" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>101311084.16</v>
+        <v>101315229.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="37" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C38" s="38">
         <v>143092857.59999999</v>
@@ -13859,20 +13850,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F38" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>28621733.52</v>
+        <v>28640693.52</v>
       </c>
       <c r="G38" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>114471124.08</v>
+        <v>114452164.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30" customHeight="1">
       <c r="B39" s="37" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C39" s="38">
         <v>26448576</v>
@@ -13881,20 +13872,20 @@
         <v>2015</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F39" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>5300846.2</v>
+        <v>5291178.2</v>
       </c>
       <c r="G39" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>21147729.800000001</v>
+        <v>21157397.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C40" s="38">
         <v>42727238.399999999</v>
@@ -13903,20 +13894,20 @@
         <v>2015</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F40" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8553647.6799999997</v>
+        <v>8561462.6799999997</v>
       </c>
       <c r="G40" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>34173590.719999999</v>
+        <v>34165775.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C41" s="38">
         <v>57675340.799999997</v>
@@ -13925,20 +13916,20 @@
         <v>2015</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F41" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>11552602.16</v>
+        <v>11536269.16</v>
       </c>
       <c r="G41" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>46122738.640000001</v>
+        <v>46139071.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C42" s="38">
         <v>74101843.200000003</v>
@@ -13947,15 +13938,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F42" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>14833934.640000001</v>
+        <v>14830475.640000001</v>
       </c>
       <c r="G42" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>59267908.560000002</v>
+        <v>59271367.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -13991,10 +13982,10 @@
         <v>69</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14008,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F3" s="42">
         <v>46466</v>
@@ -14025,7 +14016,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F4" s="24">
         <v>46467</v>
@@ -14135,7 +14126,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="40" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C38" s="40">
         <v>8</v>
@@ -14144,13 +14135,13 @@
         <v>3</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F38" s="41"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C39" s="40">
         <v>9</v>
@@ -14159,13 +14150,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F39" s="41"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="40" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C40" s="40">
         <v>10</v>
@@ -14174,13 +14165,13 @@
         <v>5</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F40" s="41"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C41" s="40">
         <v>11</v>
@@ -14189,13 +14180,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F41" s="44"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="40" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C42" s="40">
         <v>12</v>
@@ -14204,13 +14195,13 @@
         <v>2</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F42" s="41"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="40" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C43" s="40">
         <v>13</v>
@@ -14219,7 +14210,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F43" s="41"/>
     </row>
@@ -14261,13 +14252,13 @@
         <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14287,10 +14278,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14312,10 +14303,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14336,10 +14327,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14360,10 +14351,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14384,10 +14375,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14409,10 +14400,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14434,10 +14425,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14459,10 +14450,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14484,10 +14475,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14509,10 +14500,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14534,7 +14525,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14556,10 +14547,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14581,7 +14572,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14604,7 +14595,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14626,7 +14617,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14648,10 +14639,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14673,7 +14664,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14695,7 +14686,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14717,7 +14708,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14740,7 +14731,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14762,7 +14753,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14784,7 +14775,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14806,7 +14797,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14828,7 +14819,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14850,7 +14841,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14872,7 +14863,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14894,10 +14885,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14919,10 +14910,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H29" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14944,7 +14935,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -14966,7 +14957,7 @@
         <v>13</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -14989,7 +14980,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15011,10 +15002,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15036,10 +15027,10 @@
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H34" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15061,10 +15052,10 @@
         <v>12</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H35" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15086,10 +15077,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H36" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15111,7 +15102,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15133,7 +15124,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15155,7 +15146,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15177,10 +15168,10 @@
         <v>12</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15202,10 +15193,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H41" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15227,7 +15218,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15249,7 +15240,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15271,7 +15262,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15293,7 +15284,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15315,7 +15306,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15337,7 +15328,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15359,7 +15350,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15381,7 +15372,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15403,7 +15394,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15425,7 +15416,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -15455,7 +15446,7 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
         <v>100</v>
@@ -15472,10 +15463,10 @@
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="18">
         <v>0.5</v>
@@ -15486,10 +15477,10 @@
         <v>81</v>
       </c>
       <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
         <v>106</v>
-      </c>
-      <c r="D5" t="s">
-        <v>107</v>
       </c>
       <c r="E5" s="18">
         <v>0.5</v>
@@ -15500,10 +15491,10 @@
         <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="18">
         <v>0.5</v>
@@ -15514,10 +15505,10 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
         <v>110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>111</v>
       </c>
       <c r="E7" s="18">
         <v>0.5</v>
@@ -15528,10 +15519,10 @@
         <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="18">
         <v>0.5</v>
@@ -15542,10 +15533,10 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E9" s="18">
         <v>0.5</v>
@@ -15556,10 +15547,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10" s="18">
         <v>0</v>
@@ -15570,10 +15561,10 @@
         <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="18">
         <v>0</v>
@@ -15584,10 +15575,10 @@
         <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E12" s="18">
         <v>0</v>
@@ -15598,10 +15589,10 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E13" s="18">
         <v>0</v>
@@ -15612,10 +15603,10 @@
         <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E14" s="18">
         <v>0.75</v>
@@ -15626,10 +15617,10 @@
         <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E15" s="18">
         <v>0.75</v>
@@ -15637,13 +15628,13 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
         <v>113</v>
-      </c>
-      <c r="C16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" t="s">
-        <v>114</v>
       </c>
       <c r="E16" s="18">
         <v>1</v>
@@ -15670,35 +15661,35 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
       <c r="A1" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="K1" s="45" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D2" s="16">
         <v>21</v>
@@ -15714,13 +15705,13 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D3" s="16">
         <v>20</v>
@@ -15736,13 +15727,13 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D4" s="16">
         <v>19</v>
@@ -15759,13 +15750,13 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D5" s="16">
         <v>18</v>
@@ -15781,13 +15772,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D6" s="16">
         <v>17</v>
@@ -15803,13 +15794,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D7" s="16">
         <v>16</v>
@@ -15825,13 +15816,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>266</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>269</v>
       </c>
       <c r="D8" s="16">
         <v>15</v>
@@ -15847,13 +15838,13 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D9" s="16">
         <v>14</v>
@@ -15869,13 +15860,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D10" s="16">
         <v>13</v>
@@ -15891,13 +15882,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D11" s="16">
         <v>12</v>
@@ -15913,13 +15904,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D12" s="16">
         <v>11</v>
@@ -15935,13 +15926,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D13" s="16">
         <v>10</v>
@@ -15957,13 +15948,13 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D14" s="16">
         <v>9</v>
@@ -15979,13 +15970,13 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D15" s="16">
         <v>8</v>
@@ -16001,13 +15992,13 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D16" s="16">
         <v>7</v>
@@ -16023,13 +16014,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D17" s="16">
         <v>6</v>
@@ -16045,13 +16036,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D18" s="16">
         <v>5</v>
@@ -16067,13 +16058,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D19" s="16">
         <v>4</v>
@@ -16089,13 +16080,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D20" s="16">
         <v>3</v>
@@ -16111,13 +16102,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D21" s="16">
         <v>2</v>
@@ -16135,7 +16126,7 @@
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D22" s="16">
         <v>2</v>
@@ -16151,13 +16142,13 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
@@ -16172,11 +16163,11 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
@@ -16193,7 +16184,7 @@
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D25" s="16">
         <v>1</v>

--- a/Sample_Bank_Data/MAR 2025.xlsx
+++ b/Sample_Bank_Data/MAR 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{25D74041-CCDA-46DC-A0BC-819C38372F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C75EADA6-BF4B-4999-8C69-3A8DB52B8B5E}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{25D74041-CCDA-46DC-A0BC-819C38372F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34008B23-DE4D-4C8A-891F-5A41A519BF78}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CUSTOMER" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="317">
   <si>
     <t>Cust name</t>
   </si>
@@ -3022,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection sqref="A1:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8234,7 +8234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
@@ -13033,10 +13033,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13049,7 +13049,10 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
       <c r="B2" s="34" t="s">
         <v>191</v>
       </c>
@@ -13069,7 +13072,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="41.25" customHeight="1">
+    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
       <c r="B3" s="37" t="s">
         <v>197</v>
       </c>
@@ -13084,14 +13090,17 @@
       </c>
       <c r="F3" s="39">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5411680.120000001</v>
+        <v>5404349.120000001</v>
       </c>
       <c r="G3" s="38">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21545465.48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>21552796.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
       <c r="B4" s="37" t="s">
         <v>199</v>
       </c>
@@ -13106,14 +13115,17 @@
       </c>
       <c r="F4" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8107450.6000000006</v>
+        <v>8108913.6000000006</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>32319397.399999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>32317934.399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
       <c r="B5" s="37" t="s">
         <v>200</v>
       </c>
@@ -13128,14 +13140,17 @@
       </c>
       <c r="F5" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>10791419.08</v>
+        <v>10797665.08</v>
       </c>
       <c r="G5" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>43105131.32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1">
+        <v>43098885.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
       <c r="B6" s="37" t="s">
         <v>201</v>
       </c>
@@ -13150,14 +13165,17 @@
       </c>
       <c r="F6" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>13497017.560000001</v>
+        <v>13487172.560000001</v>
       </c>
       <c r="G6" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>53869235.239999995</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>53879080.239999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
       <c r="B7" s="37" t="s">
         <v>202</v>
       </c>
@@ -13172,14 +13190,17 @@
       </c>
       <c r="F7" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16179211.039999999</v>
+        <v>16183619.039999999</v>
       </c>
       <c r="G7" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>64656744.159999989</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>64652336.159999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
       <c r="B8" s="37" t="s">
         <v>203</v>
       </c>
@@ -13194,14 +13215,17 @@
       </c>
       <c r="F8" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>18868581.520000003</v>
+        <v>18879705.520000003</v>
       </c>
       <c r="G8" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>75437076.080000013</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
+        <v>75425952.080000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
       <c r="B9" s="37" t="s">
         <v>204</v>
       </c>
@@ -13216,14 +13240,17 @@
       </c>
       <c r="F9" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>21562304.200000003</v>
+        <v>21565565.200000003</v>
       </c>
       <c r="G9" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>86198271.799999997</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>86195010.799999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
       <c r="B10" s="37" t="s">
         <v>205</v>
       </c>
@@ -13238,14 +13265,17 @@
       </c>
       <c r="F10" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>24224669.680000003</v>
+        <v>24229526.680000003</v>
       </c>
       <c r="G10" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>96857768.719999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1">
+        <v>96852911.719999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
       <c r="B11" s="37" t="s">
         <v>206</v>
       </c>
@@ -13260,14 +13290,17 @@
       </c>
       <c r="F11" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>26615977.16</v>
+        <v>26637204.16</v>
       </c>
       <c r="G11" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>106457763.64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>106436536.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
       <c r="B12" s="37" t="s">
         <v>207</v>
       </c>
@@ -13282,14 +13315,17 @@
       </c>
       <c r="F12" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29324837.640000001</v>
+        <v>29332047.640000001</v>
       </c>
       <c r="G12" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>117218605.55999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>117211395.55999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
       <c r="B13" s="37" t="s">
         <v>208</v>
       </c>
@@ -13304,14 +13340,17 @@
       </c>
       <c r="F13" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>3339608.12</v>
+        <v>3325837.12</v>
       </c>
       <c r="G13" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>13268737.48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>13282508.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
       <c r="B14" s="37" t="s">
         <v>209</v>
       </c>
@@ -13326,14 +13365,17 @@
       </c>
       <c r="F14" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>6608345.6000000006</v>
+        <v>6607681.6000000006</v>
       </c>
       <c r="G14" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>26426502.399999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+        <v>26427166.399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
       <c r="B15" s="37" t="s">
         <v>210</v>
       </c>
@@ -13348,14 +13390,17 @@
       </c>
       <c r="F15" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>9899905.0800000001</v>
+        <v>9894997.0800000001</v>
       </c>
       <c r="G15" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>39561445.32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>39566353.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
       <c r="B16" s="37" t="s">
         <v>211</v>
       </c>
@@ -13370,14 +13415,17 @@
       </c>
       <c r="F16" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>13192871.560000001</v>
+        <v>13201972.560000001</v>
       </c>
       <c r="G16" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>52694981.239999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>52685880.239999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
       <c r="B17" s="37" t="s">
         <v>212</v>
       </c>
@@ -13392,14 +13440,17 @@
       </c>
       <c r="F17" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16477646.039999999</v>
+        <v>16475237.039999999</v>
       </c>
       <c r="G17" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>65836709.159999989</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>65839118.159999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
       <c r="B18" s="37" t="s">
         <v>213</v>
       </c>
@@ -13414,14 +13465,17 @@
       </c>
       <c r="F18" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>19758278.520000003</v>
+        <v>19762184.520000003</v>
       </c>
       <c r="G18" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>78982579.080000013</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+        <v>78978673.080000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
       <c r="B19" s="37" t="s">
         <v>215</v>
       </c>
@@ -13436,14 +13490,17 @@
       </c>
       <c r="F19" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>23039174.200000003</v>
+        <v>23040454.200000003</v>
       </c>
       <c r="G19" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>92113401.799999997</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>92112121.799999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
       <c r="B20" s="37" t="s">
         <v>216</v>
       </c>
@@ -13458,14 +13515,17 @@
       </c>
       <c r="F20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>26292481.680000003</v>
+        <v>26287583.680000003</v>
       </c>
       <c r="G20" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>105138756.72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+        <v>105143654.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
       <c r="B21" s="37" t="s">
         <v>217</v>
       </c>
@@ -13480,14 +13540,17 @@
       </c>
       <c r="F21" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29286335.160000004</v>
+        <v>29298295.160000004</v>
       </c>
       <c r="G21" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>117093005.64000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>117081045.64000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
       <c r="B22" s="37" t="s">
         <v>218</v>
       </c>
@@ -13502,14 +13565,17 @@
       </c>
       <c r="F22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>3013225.64</v>
+        <v>3003621.64</v>
       </c>
       <c r="G22" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>11952617.559999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>11962221.559999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
       <c r="B23" s="37" t="s">
         <v>219</v>
       </c>
@@ -13524,14 +13590,17 @@
       </c>
       <c r="F23" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>6294392.120000001</v>
+        <v>6288927.120000001</v>
       </c>
       <c r="G23" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>25097953.48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <v>25103418.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
       <c r="B24" s="37" t="s">
         <v>220</v>
       </c>
@@ -13546,14 +13615,17 @@
       </c>
       <c r="F24" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>9572397.5999999996</v>
+        <v>9583573.5999999996</v>
       </c>
       <c r="G24" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>38246450.399999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+        <v>38235274.399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
       <c r="B25" s="37" t="s">
         <v>221</v>
       </c>
@@ -13568,14 +13640,17 @@
       </c>
       <c r="F25" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>12854141.08</v>
+        <v>12873333.08</v>
       </c>
       <c r="G25" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>51391209.32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>51372017.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
       <c r="B26" s="37" t="s">
         <v>222</v>
       </c>
@@ -13590,14 +13665,17 @@
       </c>
       <c r="F26" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16149223.560000001</v>
+        <v>16134777.560000001</v>
       </c>
       <c r="G26" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>64522629.239999995</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>64537075.239999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
       <c r="B27" s="37" t="s">
         <v>223</v>
       </c>
@@ -13612,14 +13690,17 @@
       </c>
       <c r="F27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>19437468.039999999</v>
+        <v>19431647.039999999</v>
       </c>
       <c r="G27" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>77660887.159999996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>77666708.159999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
       <c r="B28" s="37" t="s">
         <v>224</v>
       </c>
@@ -13634,14 +13715,17 @@
       </c>
       <c r="F28" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>22728171.52</v>
+        <v>22729605.52</v>
       </c>
       <c r="G28" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>90796686.079999998</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>90795252.079999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
       <c r="B29" s="37" t="s">
         <v>225</v>
       </c>
@@ -13656,14 +13740,17 @@
       </c>
       <c r="F29" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>25997795.200000003</v>
+        <v>26010589.200000003</v>
       </c>
       <c r="G29" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>103938780.8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>103925986.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
       <c r="B30" s="37" t="s">
         <v>226</v>
       </c>
@@ -13678,14 +13765,17 @@
       </c>
       <c r="F30" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29244799.680000003</v>
+        <v>29255057.680000003</v>
       </c>
       <c r="G30" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>116970438.72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>116960180.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
       <c r="B31" s="37" t="s">
         <v>227</v>
       </c>
@@ -13700,14 +13790,17 @@
       </c>
       <c r="F31" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>5640302.1600000001</v>
+        <v>5642083.1600000001</v>
       </c>
       <c r="G31" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>22467038.640000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>22465257.640000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
       <c r="B32" s="37" t="s">
         <v>228</v>
       </c>
@@ -13722,14 +13815,17 @@
       </c>
       <c r="F32" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8914533.6400000006</v>
+        <v>8919024.6400000006</v>
       </c>
       <c r="G32" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>35619309.560000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>35614818.560000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
       <c r="B33" s="37" t="s">
         <v>229</v>
       </c>
@@ -13744,14 +13840,17 @@
       </c>
       <c r="F33" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>12193488.119999997</v>
+        <v>12215658.119999997</v>
       </c>
       <c r="G33" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>48766857.479999989</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>48744687.479999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
       <c r="B34" s="37" t="s">
         <v>230</v>
       </c>
@@ -13766,14 +13865,17 @@
       </c>
       <c r="F34" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>15490843.600000001</v>
+        <v>15480745.600000001</v>
       </c>
       <c r="G34" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>61896004.399999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>61906102.399999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
       <c r="B35" s="37" t="s">
         <v>231</v>
       </c>
@@ -13788,14 +13890,17 @@
       </c>
       <c r="F35" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>18765699.079999998</v>
+        <v>18772856.079999998</v>
       </c>
       <c r="G35" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>75047651.319999993</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>75040494.319999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
       <c r="B36" s="37" t="s">
         <v>232</v>
       </c>
@@ -13810,14 +13915,17 @@
       </c>
       <c r="F36" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>22049883.560000002</v>
+        <v>22055341.560000002</v>
       </c>
       <c r="G36" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>88189969.239999995</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>88184511.239999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
       <c r="B37" s="37" t="s">
         <v>233</v>
       </c>
@@ -13832,14 +13940,17 @@
       </c>
       <c r="F37" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>25351126.040000003</v>
+        <v>25336244.040000003</v>
       </c>
       <c r="G37" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>101315229.16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>101330111.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
       <c r="B38" s="37" t="s">
         <v>234</v>
       </c>
@@ -13854,14 +13965,17 @@
       </c>
       <c r="F38" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>28640693.52</v>
+        <v>28621414.52</v>
       </c>
       <c r="G38" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>114452164.08</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1">
+        <v>114471443.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
       <c r="B39" s="37" t="s">
         <v>235</v>
       </c>
@@ -13876,14 +13990,17 @@
       </c>
       <c r="F39" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>5291178.2</v>
+        <v>5313632.2</v>
       </c>
       <c r="G39" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>21157397.800000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+        <v>21134943.800000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
       <c r="B40" s="37" t="s">
         <v>236</v>
       </c>
@@ -13898,14 +14015,17 @@
       </c>
       <c r="F40" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8561462.6799999997</v>
+        <v>8564058.6799999997</v>
       </c>
       <c r="G40" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>34165775.719999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+        <v>34163179.719999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
       <c r="B41" s="37" t="s">
         <v>237</v>
       </c>
@@ -13920,14 +14040,17 @@
       </c>
       <c r="F41" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>11536269.16</v>
+        <v>11538871.16</v>
       </c>
       <c r="G41" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>46139071.640000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+        <v>46136469.640000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
       <c r="B42" s="37" t="s">
         <v>238</v>
       </c>
@@ -13942,11 +14065,11 @@
       </c>
       <c r="F42" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>14830475.640000001</v>
+        <v>14830927.640000001</v>
       </c>
       <c r="G42" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>59271367.560000002</v>
+        <v>59270915.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -13956,10 +14079,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:F43"/>
+  <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13971,7 +14094,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
       <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
@@ -13988,7 +14114,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
       <c r="B3" s="40" t="s">
         <v>16</v>
       </c>
@@ -14005,7 +14134,10 @@
         <v>46466</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
       <c r="B4" s="40" t="s">
         <v>17</v>
       </c>
@@ -14022,7 +14154,10 @@
         <v>46467</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
       <c r="B5" s="43" t="s">
         <v>18</v>
       </c>
@@ -14039,7 +14174,10 @@
         <v>46281</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
       <c r="B6" s="21" t="s">
         <v>21</v>
       </c>
@@ -14056,7 +14194,10 @@
         <v>46282</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
       <c r="B7" s="21" t="s">
         <v>22</v>
       </c>
@@ -14073,7 +14214,10 @@
         <v>46283</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
       <c r="B8" s="21" t="s">
         <v>23</v>
       </c>
@@ -14090,7 +14234,10 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
       <c r="B9" s="21" t="s">
         <v>26</v>
       </c>
@@ -14107,7 +14254,10 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
       <c r="B10" s="21" t="s">
         <v>27</v>
       </c>

--- a/Sample_Bank_Data/MAR 2025.xlsx
+++ b/Sample_Bank_Data/MAR 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{25D74041-CCDA-46DC-A0BC-819C38372F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34008B23-DE4D-4C8A-891F-5A41A519BF78}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{25D74041-CCDA-46DC-A0BC-819C38372F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F8FF88-E0D2-46EA-AA89-8503763CE78E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CUSTOMER" sheetId="1" r:id="rId1"/>
@@ -310,13 +310,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -3022,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection sqref="A1:A38"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13090,11 +13090,11 @@
       </c>
       <c r="F3" s="39">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5404349.120000001</v>
+        <v>5412391.120000001</v>
       </c>
       <c r="G3" s="38">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21552796.48</v>
+        <v>21544754.48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13115,11 +13115,11 @@
       </c>
       <c r="F4" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8108913.6000000006</v>
+        <v>8105146.6000000006</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>32317934.399999999</v>
+        <v>32321701.399999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -13140,11 +13140,11 @@
       </c>
       <c r="F5" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>10797665.08</v>
+        <v>10801513.08</v>
       </c>
       <c r="G5" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>43098885.32</v>
+        <v>43095037.32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
@@ -13165,11 +13165,11 @@
       </c>
       <c r="F6" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>13487172.560000001</v>
+        <v>13473477.560000001</v>
       </c>
       <c r="G6" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>53879080.239999995</v>
+        <v>53892775.239999995</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
@@ -13190,11 +13190,11 @@
       </c>
       <c r="F7" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16183619.039999999</v>
+        <v>16187290.039999999</v>
       </c>
       <c r="G7" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>64652336.159999989</v>
+        <v>64648665.159999989</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13215,11 +13215,11 @@
       </c>
       <c r="F8" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>18879705.520000003</v>
+        <v>18867884.520000003</v>
       </c>
       <c r="G8" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>75425952.080000013</v>
+        <v>75437773.080000013</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
@@ -13240,11 +13240,11 @@
       </c>
       <c r="F9" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>21565565.200000003</v>
+        <v>21559382.200000003</v>
       </c>
       <c r="G9" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>86195010.799999997</v>
+        <v>86201193.799999997</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13265,11 +13265,11 @@
       </c>
       <c r="F10" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>24229526.680000003</v>
+        <v>24237368.680000003</v>
       </c>
       <c r="G10" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>96852911.719999999</v>
+        <v>96845069.719999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
@@ -13290,11 +13290,11 @@
       </c>
       <c r="F11" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>26637204.16</v>
+        <v>26625588.16</v>
       </c>
       <c r="G11" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>106436536.64</v>
+        <v>106448152.64</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13315,11 +13315,11 @@
       </c>
       <c r="F12" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29332047.640000001</v>
+        <v>29319962.640000001</v>
       </c>
       <c r="G12" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>117211395.55999999</v>
+        <v>117223480.55999999</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -13340,11 +13340,11 @@
       </c>
       <c r="F13" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>3325837.12</v>
+        <v>3342732.12</v>
       </c>
       <c r="G13" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>13282508.48</v>
+        <v>13265613.48</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13365,11 +13365,11 @@
       </c>
       <c r="F14" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>6607681.6000000006</v>
+        <v>6618138.6000000006</v>
       </c>
       <c r="G14" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>26427166.399999999</v>
+        <v>26416709.399999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
@@ -13390,11 +13390,11 @@
       </c>
       <c r="F15" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>9894997.0800000001</v>
+        <v>9917238.0800000001</v>
       </c>
       <c r="G15" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>39566353.32</v>
+        <v>39544112.32</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -13415,11 +13415,11 @@
       </c>
       <c r="F16" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>13201972.560000001</v>
+        <v>13187967.560000001</v>
       </c>
       <c r="G16" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>52685880.239999995</v>
+        <v>52699885.239999995</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -13440,11 +13440,11 @@
       </c>
       <c r="F17" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16475237.039999999</v>
+        <v>16485594.039999999</v>
       </c>
       <c r="G17" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>65839118.159999989</v>
+        <v>65828761.159999989</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -13465,11 +13465,11 @@
       </c>
       <c r="F18" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>19762184.520000003</v>
+        <v>19758197.520000003</v>
       </c>
       <c r="G18" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>78978673.080000013</v>
+        <v>78982660.080000013</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
@@ -13490,11 +13490,11 @@
       </c>
       <c r="F19" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>23040454.200000003</v>
+        <v>23048765.200000003</v>
       </c>
       <c r="G19" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>92112121.799999997</v>
+        <v>92103810.799999997</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13515,11 +13515,11 @@
       </c>
       <c r="F20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>26287583.680000003</v>
+        <v>26289100.680000003</v>
       </c>
       <c r="G20" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>105143654.72</v>
+        <v>105142137.72</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
@@ -13540,11 +13540,11 @@
       </c>
       <c r="F21" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29298295.160000004</v>
+        <v>29290821.160000004</v>
       </c>
       <c r="G21" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>117081045.64000002</v>
+        <v>117088519.64000002</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -13565,11 +13565,11 @@
       </c>
       <c r="F22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>3003621.64</v>
+        <v>3006795.64</v>
       </c>
       <c r="G22" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>11962221.559999999</v>
+        <v>11959047.559999999</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -13590,11 +13590,11 @@
       </c>
       <c r="F23" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>6288927.120000001</v>
+        <v>6278598.120000001</v>
       </c>
       <c r="G23" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>25103418.48</v>
+        <v>25113747.48</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -13615,11 +13615,11 @@
       </c>
       <c r="F24" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>9583573.5999999996</v>
+        <v>9565780.5999999996</v>
       </c>
       <c r="G24" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>38235274.399999999</v>
+        <v>38253067.399999999</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1">
@@ -13640,11 +13640,11 @@
       </c>
       <c r="F25" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>12873333.08</v>
+        <v>12867506.08</v>
       </c>
       <c r="G25" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>51372017.32</v>
+        <v>51377844.32</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -13665,11 +13665,11 @@
       </c>
       <c r="F26" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16134777.560000001</v>
+        <v>16158069.560000001</v>
       </c>
       <c r="G26" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>64537075.239999995</v>
+        <v>64513783.239999995</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
@@ -13690,11 +13690,11 @@
       </c>
       <c r="F27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>19431647.039999999</v>
+        <v>19425889.039999999</v>
       </c>
       <c r="G27" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>77666708.159999996</v>
+        <v>77672466.159999996</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -13715,11 +13715,11 @@
       </c>
       <c r="F28" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>22729605.52</v>
+        <v>22720692.52</v>
       </c>
       <c r="G28" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>90795252.079999998</v>
+        <v>90804165.079999998</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -13740,11 +13740,11 @@
       </c>
       <c r="F29" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>26010589.200000003</v>
+        <v>26005436.200000003</v>
       </c>
       <c r="G29" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>103925986.8</v>
+        <v>103931139.8</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
@@ -13765,11 +13765,11 @@
       </c>
       <c r="F30" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29255057.680000003</v>
+        <v>29256565.680000003</v>
       </c>
       <c r="G30" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>116960180.72</v>
+        <v>116958672.72</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -13790,11 +13790,11 @@
       </c>
       <c r="F31" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>5642083.1600000001</v>
+        <v>5641975.1600000001</v>
       </c>
       <c r="G31" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>22465257.640000001</v>
+        <v>22465365.640000001</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -13815,11 +13815,11 @@
       </c>
       <c r="F32" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8919024.6400000006</v>
+        <v>8912041.6400000006</v>
       </c>
       <c r="G32" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>35614818.560000002</v>
+        <v>35621801.560000002</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
@@ -13840,11 +13840,11 @@
       </c>
       <c r="F33" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>12215658.119999997</v>
+        <v>12201181.119999997</v>
       </c>
       <c r="G33" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>48744687.479999989</v>
+        <v>48759164.479999989</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -13865,11 +13865,11 @@
       </c>
       <c r="F34" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>15480745.600000001</v>
+        <v>15491091.600000001</v>
       </c>
       <c r="G34" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>61906102.399999999</v>
+        <v>61895756.399999999</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -13890,11 +13890,11 @@
       </c>
       <c r="F35" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>18772856.079999998</v>
+        <v>18787225.079999998</v>
       </c>
       <c r="G35" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>75040494.319999993</v>
+        <v>75026125.319999993</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
@@ -13915,11 +13915,11 @@
       </c>
       <c r="F36" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>22055341.560000002</v>
+        <v>22061990.560000002</v>
       </c>
       <c r="G36" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>88184511.239999995</v>
+        <v>88177862.239999995</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -13940,11 +13940,11 @@
       </c>
       <c r="F37" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>25336244.040000003</v>
+        <v>25341827.040000003</v>
       </c>
       <c r="G37" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>101330111.16</v>
+        <v>101324528.16</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -13965,11 +13965,11 @@
       </c>
       <c r="F38" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>28621414.52</v>
+        <v>28628406.52</v>
       </c>
       <c r="G38" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>114471443.08</v>
+        <v>114464451.08</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
@@ -13990,11 +13990,11 @@
       </c>
       <c r="F39" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>5313632.2</v>
+        <v>5294651.2</v>
       </c>
       <c r="G39" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>21134943.800000001</v>
+        <v>21153924.800000001</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -14015,11 +14015,11 @@
       </c>
       <c r="F40" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8564058.6799999997</v>
+        <v>8547317.6799999997</v>
       </c>
       <c r="G40" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>34163179.719999999</v>
+        <v>34179920.719999999</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -14040,11 +14040,11 @@
       </c>
       <c r="F41" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>11538871.16</v>
+        <v>11538256.16</v>
       </c>
       <c r="G41" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>46136469.640000001</v>
+        <v>46137084.640000001</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -14065,11 +14065,11 @@
       </c>
       <c r="F42" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>14830927.640000001</v>
+        <v>14822556.640000001</v>
       </c>
       <c r="G42" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>59270915.560000002</v>
+        <v>59279286.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14081,7 +14081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/Sample_Bank_Data/MAR 2025.xlsx
+++ b/Sample_Bank_Data/MAR 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{25D74041-CCDA-46DC-A0BC-819C38372F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06A70E21-EE5D-44B0-AF9D-4B65EC32F6C8}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{25D74041-CCDA-46DC-A0BC-819C38372F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F8FF88-E0D2-46EA-AA89-8503763CE78E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CUSTOMER" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="317">
   <si>
     <t>Cust name</t>
   </si>
@@ -310,13 +310,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -367,9 +367,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>Building</t>
   </si>
   <si>
@@ -415,9 +412,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -445,9 +439,6 @@
     <t>Building4</t>
   </si>
   <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
-  </si>
-  <si>
     <t>Shares</t>
   </si>
   <si>
@@ -514,373 +505,118 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Govt Bond</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Govt Bond</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Provision Stages</t>
@@ -2709,21 +2445,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="46" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>399</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="B2" s="16">
         <v>1</v>
@@ -2737,7 +2473,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="B3" s="16">
         <v>2</v>
@@ -2751,7 +2487,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="16" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="B4" s="16">
         <v>3</v>
@@ -2765,7 +2501,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="16" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="B5" s="16">
         <v>4</v>
@@ -2779,7 +2515,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="16" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="B6" s="16">
         <v>5</v>
@@ -2793,7 +2529,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="16" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="B7" s="16">
         <v>6</v>
@@ -2807,7 +2543,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="16" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="B8" s="16">
         <v>7</v>
@@ -2821,7 +2557,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="16" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="B9" s="16">
         <v>8</v>
@@ -2835,7 +2571,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="16" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="B10" s="16">
         <v>9</v>
@@ -2849,7 +2585,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="16" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="B11" s="16">
         <v>10</v>
@@ -2863,7 +2599,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="16" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="B12" s="16">
         <v>11</v>
@@ -2877,7 +2613,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="16" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="B13" s="16">
         <v>12</v>
@@ -2891,7 +2627,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="16" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="B14" s="16">
         <v>13</v>
@@ -2905,7 +2641,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="16" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="B15" s="16">
         <v>14</v>
@@ -2919,7 +2655,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="16" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="B16" s="16">
         <v>15</v>
@@ -2933,7 +2669,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="16" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="B17" s="16">
         <v>16</v>
@@ -2947,7 +2683,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="16" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="B18" s="16">
         <v>17</v>
@@ -2961,7 +2697,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="16" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="B19" s="16">
         <v>17</v>
@@ -2975,7 +2711,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="16" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="B20" s="16">
         <v>17</v>
@@ -2989,7 +2725,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="16" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="B21" s="16">
         <v>17</v>
@@ -3003,7 +2739,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="16" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22">
@@ -3039,22 +2775,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="26" t="s">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>401</v>
+        <v>313</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>402</v>
+        <v>314</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>404</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3286,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8498,8 +8234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8550,19 +8286,19 @@
         <v>6173906.5</v>
       </c>
       <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
         <v>105</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>106</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>107</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>108</v>
-      </c>
-      <c r="I2" t="s">
-        <v>109</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8582,19 +8318,19 @@
         <v>6173906.5</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s">
         <v>110</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" t="s">
         <v>111</v>
-      </c>
-      <c r="H3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" t="s">
-        <v>112</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8614,19 +8350,19 @@
         <v>89136569</v>
       </c>
       <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
         <v>113</v>
       </c>
-      <c r="F4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>114</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>115</v>
-      </c>
-      <c r="I4" t="s">
-        <v>116</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8646,19 +8382,19 @@
         <v>10552053.5</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" t="s">
         <v>117</v>
-      </c>
-      <c r="H5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" t="s">
-        <v>118</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8678,19 +8414,19 @@
         <v>10552053.5</v>
       </c>
       <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
         <v>105</v>
       </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
       <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" t="s">
         <v>119</v>
-      </c>
-      <c r="H6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" t="s">
-        <v>120</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8710,19 +8446,19 @@
         <v>49382716</v>
       </c>
       <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
         <v>121</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>122</v>
-      </c>
-      <c r="G7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" t="s">
-        <v>124</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8742,19 +8478,19 @@
         <v>49382716</v>
       </c>
       <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
         <v>121</v>
       </c>
-      <c r="F8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" t="s">
-        <v>123</v>
-      </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8774,19 +8510,19 @@
         <v>90174929</v>
       </c>
       <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
         <v>113</v>
       </c>
-      <c r="F9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>114</v>
       </c>
-      <c r="H9" t="s">
-        <v>115</v>
-      </c>
       <c r="I9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -8806,19 +8542,19 @@
         <v>49386362</v>
       </c>
       <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
         <v>105</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>106</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>107</v>
       </c>
-      <c r="H10" t="s">
-        <v>108</v>
-      </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -8838,19 +8574,19 @@
         <v>49386362</v>
       </c>
       <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
         <v>105</v>
       </c>
-      <c r="F11" t="s">
-        <v>106</v>
-      </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -8870,19 +8606,19 @@
         <v>11732657.5</v>
       </c>
       <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" t="s">
         <v>131</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>132</v>
-      </c>
-      <c r="G12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" t="s">
-        <v>135</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -8902,19 +8638,19 @@
         <v>11732657.5</v>
       </c>
       <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
         <v>131</v>
       </c>
-      <c r="F13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>134</v>
-      </c>
-      <c r="I13" t="s">
-        <v>137</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -8934,19 +8670,19 @@
         <v>38276058</v>
       </c>
       <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
         <v>131</v>
       </c>
-      <c r="F14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" t="s">
-        <v>134</v>
-      </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -8966,19 +8702,19 @@
         <v>38276058</v>
       </c>
       <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" t="s">
         <v>131</v>
       </c>
-      <c r="F15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" t="s">
-        <v>134</v>
-      </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -8998,19 +8734,19 @@
         <v>12337439</v>
       </c>
       <c r="E16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
         <v>113</v>
       </c>
-      <c r="F16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>114</v>
       </c>
-      <c r="H16" t="s">
-        <v>115</v>
-      </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -9030,19 +8766,19 @@
         <v>28399162.5</v>
       </c>
       <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
         <v>105</v>
       </c>
-      <c r="F17" t="s">
-        <v>106</v>
-      </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -9062,19 +8798,19 @@
         <v>28399162.5</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -9094,19 +8830,19 @@
         <v>43827160.5</v>
       </c>
       <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s">
         <v>121</v>
       </c>
-      <c r="F19" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" t="s">
-        <v>123</v>
-      </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -9126,19 +8862,19 @@
         <v>43827160.5</v>
       </c>
       <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" t="s">
-        <v>123</v>
-      </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9158,19 +8894,19 @@
         <v>27162459.5</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" t="s">
         <v>110</v>
       </c>
-      <c r="G21" t="s">
-        <v>111</v>
-      </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -9190,19 +8926,19 @@
         <v>27162459.5</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9222,19 +8958,19 @@
         <v>11728394.5</v>
       </c>
       <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" t="s">
         <v>121</v>
       </c>
-      <c r="F23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" t="s">
-        <v>123</v>
-      </c>
       <c r="I23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9254,19 +8990,19 @@
         <v>11728394.5</v>
       </c>
       <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" t="s">
         <v>121</v>
       </c>
-      <c r="F24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" t="s">
-        <v>123</v>
-      </c>
       <c r="I24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9286,19 +9022,19 @@
         <v>33946788</v>
       </c>
       <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" t="s">
         <v>131</v>
       </c>
-      <c r="F25" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" t="s">
-        <v>134</v>
-      </c>
       <c r="I25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9318,19 +9054,19 @@
         <v>33946788</v>
       </c>
       <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" t="s">
         <v>131</v>
       </c>
-      <c r="F26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" t="s">
-        <v>134</v>
-      </c>
       <c r="I26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9350,19 +9086,19 @@
         <v>16055757</v>
       </c>
       <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
         <v>105</v>
       </c>
-      <c r="F27" t="s">
-        <v>106</v>
-      </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" t="s">
         <v>108</v>
-      </c>
-      <c r="I27" t="s">
-        <v>154</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9382,19 +9118,19 @@
         <v>16055757</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" t="s">
         <v>110</v>
       </c>
-      <c r="G28" t="s">
-        <v>111</v>
-      </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9414,19 +9150,19 @@
         <v>38271605</v>
       </c>
       <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" t="s">
         <v>121</v>
       </c>
-      <c r="F29" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" t="s">
-        <v>123</v>
-      </c>
       <c r="I29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9446,19 +9182,19 @@
         <v>38271605</v>
       </c>
       <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" t="s">
         <v>121</v>
       </c>
-      <c r="F30" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" t="s">
-        <v>123</v>
-      </c>
       <c r="I30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9478,19 +9214,19 @@
         <v>34654376</v>
       </c>
       <c r="E31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" t="s">
         <v>113</v>
       </c>
-      <c r="F31" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>114</v>
       </c>
-      <c r="H31" t="s">
-        <v>115</v>
-      </c>
       <c r="I31" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9510,19 +9246,19 @@
         <v>10550002.5</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9542,19 +9278,19 @@
         <v>10550002.5</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9574,19 +9310,19 @@
         <v>45066187</v>
       </c>
       <c r="E34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
         <v>131</v>
       </c>
-      <c r="F34" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" t="s">
-        <v>136</v>
-      </c>
-      <c r="H34" t="s">
-        <v>134</v>
-      </c>
       <c r="I34" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9606,19 +9342,19 @@
         <v>45066187</v>
       </c>
       <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" t="s">
         <v>131</v>
       </c>
-      <c r="F35" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H35" t="s">
-        <v>134</v>
-      </c>
       <c r="I35" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9638,19 +9374,19 @@
         <v>76720570</v>
       </c>
       <c r="E36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" t="s">
         <v>113</v>
       </c>
-      <c r="F36" t="s">
-        <v>113</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>114</v>
       </c>
-      <c r="H36" t="s">
-        <v>115</v>
-      </c>
       <c r="I36" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9670,19 +9406,19 @@
         <v>49385832.5</v>
       </c>
       <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" t="s">
         <v>131</v>
       </c>
-      <c r="F37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" t="s">
-        <v>134</v>
-      </c>
       <c r="I37" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9702,19 +9438,19 @@
         <v>49385832.5</v>
       </c>
       <c r="E38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" t="s">
         <v>131</v>
       </c>
-      <c r="F38" t="s">
+      <c r="I38" t="s">
         <v>132</v>
-      </c>
-      <c r="G38" t="s">
-        <v>133</v>
-      </c>
-      <c r="H38" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" t="s">
-        <v>165</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9734,19 +9470,19 @@
         <v>45723629</v>
       </c>
       <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" t="s">
         <v>113</v>
       </c>
-      <c r="F39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>114</v>
       </c>
-      <c r="H39" t="s">
-        <v>115</v>
-      </c>
       <c r="I39" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9766,19 +9502,19 @@
         <v>11729098.5</v>
       </c>
       <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
         <v>105</v>
       </c>
-      <c r="F40" t="s">
-        <v>106</v>
-      </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I40" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9798,19 +9534,19 @@
         <v>11729098.5</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" t="s">
         <v>110</v>
       </c>
-      <c r="G41" t="s">
-        <v>111</v>
-      </c>
       <c r="H41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I41" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9830,19 +9566,19 @@
         <v>32716054.5</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" t="s">
         <v>121</v>
       </c>
-      <c r="F42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" t="s">
-        <v>123</v>
-      </c>
       <c r="I42" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -9862,19 +9598,19 @@
         <v>32716054.5</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" t="s">
+        <v>164</v>
+      </c>
+      <c r="H43" t="s">
         <v>121</v>
       </c>
-      <c r="F43" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" t="s">
-        <v>170</v>
-      </c>
-      <c r="H43" t="s">
-        <v>123</v>
-      </c>
       <c r="I43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -9894,19 +9630,19 @@
         <v>65568154</v>
       </c>
       <c r="E44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" t="s">
         <v>113</v>
       </c>
-      <c r="F44" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>114</v>
       </c>
-      <c r="H44" t="s">
-        <v>115</v>
-      </c>
       <c r="I44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -9926,19 +9662,19 @@
         <v>39450617</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" t="s">
         <v>121</v>
       </c>
-      <c r="F45" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45" t="s">
-        <v>122</v>
-      </c>
-      <c r="H45" t="s">
-        <v>123</v>
-      </c>
       <c r="I45" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -9958,19 +9694,19 @@
         <v>39450617</v>
       </c>
       <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" t="s">
         <v>121</v>
       </c>
-      <c r="F46" t="s">
-        <v>148</v>
-      </c>
-      <c r="G46" t="s">
-        <v>149</v>
-      </c>
-      <c r="H46" t="s">
-        <v>123</v>
-      </c>
       <c r="I46" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -9990,19 +9726,19 @@
         <v>56898772</v>
       </c>
       <c r="E47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" t="s">
         <v>113</v>
       </c>
-      <c r="F47" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>114</v>
       </c>
-      <c r="H47" t="s">
-        <v>115</v>
-      </c>
       <c r="I47" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10022,19 +9758,19 @@
         <v>22843978.5</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I48" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10054,19 +9790,19 @@
         <v>22843978.5</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" t="s">
         <v>110</v>
       </c>
-      <c r="G49" t="s">
-        <v>111</v>
-      </c>
       <c r="H49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I49" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10086,19 +9822,19 @@
         <v>54284133</v>
       </c>
       <c r="E50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" t="s">
         <v>113</v>
       </c>
-      <c r="F50" t="s">
-        <v>113</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>114</v>
       </c>
-      <c r="H50" t="s">
-        <v>115</v>
-      </c>
       <c r="I50" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10118,19 +9854,19 @@
         <v>6174376</v>
       </c>
       <c r="E51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" t="s">
         <v>131</v>
       </c>
-      <c r="F51" t="s">
-        <v>132</v>
-      </c>
-      <c r="G51" t="s">
-        <v>133</v>
-      </c>
-      <c r="H51" t="s">
-        <v>134</v>
-      </c>
       <c r="I51" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10150,19 +9886,19 @@
         <v>6174376</v>
       </c>
       <c r="E52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" t="s">
         <v>131</v>
       </c>
-      <c r="F52" t="s">
-        <v>132</v>
-      </c>
-      <c r="G52" t="s">
-        <v>136</v>
-      </c>
-      <c r="H52" t="s">
-        <v>134</v>
-      </c>
       <c r="I52" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10182,19 +9918,19 @@
         <v>67920706</v>
       </c>
       <c r="E53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G53" t="s">
         <v>113</v>
       </c>
-      <c r="F53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>114</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>115</v>
-      </c>
-      <c r="I53" t="s">
-        <v>181</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10214,19 +9950,19 @@
         <v>6176724</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G54" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I54" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10246,19 +9982,19 @@
         <v>6176724</v>
       </c>
       <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
       </c>
-      <c r="F55" t="s">
-        <v>106</v>
-      </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I55" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10278,19 +10014,19 @@
         <v>43283870</v>
       </c>
       <c r="E56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" t="s">
         <v>113</v>
       </c>
-      <c r="F56" t="s">
-        <v>113</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>114</v>
       </c>
-      <c r="H56" t="s">
-        <v>115</v>
-      </c>
       <c r="I56" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10310,19 +10046,19 @@
         <v>17284571</v>
       </c>
       <c r="E57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" t="s">
         <v>131</v>
       </c>
-      <c r="F57" t="s">
-        <v>132</v>
-      </c>
-      <c r="G57" t="s">
-        <v>133</v>
-      </c>
-      <c r="H57" t="s">
-        <v>134</v>
-      </c>
       <c r="I57" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10342,19 +10078,19 @@
         <v>17284571</v>
       </c>
       <c r="E58" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58" t="s">
         <v>131</v>
       </c>
-      <c r="F58" t="s">
-        <v>132</v>
-      </c>
-      <c r="G58" t="s">
-        <v>136</v>
-      </c>
-      <c r="H58" t="s">
-        <v>134</v>
-      </c>
       <c r="I58" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10374,19 +10110,19 @@
         <v>78841267</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" t="s">
         <v>113</v>
       </c>
-      <c r="F59" t="s">
-        <v>113</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>114</v>
       </c>
-      <c r="H59" t="s">
-        <v>115</v>
-      </c>
       <c r="I59" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10406,19 +10142,19 @@
         <v>38276139.5</v>
       </c>
       <c r="E60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" t="s">
         <v>105</v>
       </c>
-      <c r="F60" t="s">
-        <v>106</v>
-      </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I60" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10438,19 +10174,19 @@
         <v>38276139.5</v>
       </c>
       <c r="E61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" t="s">
         <v>105</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>106</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>107</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>108</v>
-      </c>
-      <c r="I61" t="s">
-        <v>189</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10470,19 +10206,19 @@
         <v>32122925</v>
       </c>
       <c r="E62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" t="s">
+        <v>112</v>
+      </c>
+      <c r="G62" t="s">
         <v>113</v>
       </c>
-      <c r="F62" t="s">
-        <v>113</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>114</v>
       </c>
-      <c r="H62" t="s">
-        <v>115</v>
-      </c>
       <c r="I62" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10502,19 +10238,19 @@
         <v>6172839</v>
       </c>
       <c r="E63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H63" t="s">
         <v>121</v>
       </c>
-      <c r="F63" t="s">
-        <v>122</v>
-      </c>
-      <c r="G63" t="s">
-        <v>122</v>
-      </c>
-      <c r="H63" t="s">
-        <v>123</v>
-      </c>
       <c r="I63" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10534,19 +10270,19 @@
         <v>6172839</v>
       </c>
       <c r="E64" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" t="s">
+        <v>123</v>
+      </c>
+      <c r="G64" t="s">
+        <v>123</v>
+      </c>
+      <c r="H64" t="s">
         <v>121</v>
       </c>
-      <c r="F64" t="s">
-        <v>125</v>
-      </c>
-      <c r="G64" t="s">
-        <v>125</v>
-      </c>
-      <c r="H64" t="s">
-        <v>123</v>
-      </c>
       <c r="I64" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10566,19 +10302,19 @@
         <v>88910016</v>
       </c>
       <c r="E65" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" t="s">
         <v>113</v>
       </c>
-      <c r="F65" t="s">
-        <v>113</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>114</v>
       </c>
-      <c r="H65" t="s">
-        <v>115</v>
-      </c>
       <c r="I65" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10598,19 +10334,19 @@
         <v>32718987.5</v>
       </c>
       <c r="E66" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" t="s">
+        <v>129</v>
+      </c>
+      <c r="G66" t="s">
+        <v>130</v>
+      </c>
+      <c r="H66" t="s">
         <v>131</v>
       </c>
-      <c r="F66" t="s">
-        <v>132</v>
-      </c>
-      <c r="G66" t="s">
-        <v>133</v>
-      </c>
-      <c r="H66" t="s">
-        <v>134</v>
-      </c>
       <c r="I66" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10630,19 +10366,19 @@
         <v>32718987.5</v>
       </c>
       <c r="E67" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" t="s">
+        <v>133</v>
+      </c>
+      <c r="H67" t="s">
         <v>131</v>
       </c>
-      <c r="F67" t="s">
+      <c r="I67" t="s">
         <v>132</v>
-      </c>
-      <c r="G67" t="s">
-        <v>136</v>
-      </c>
-      <c r="H67" t="s">
-        <v>134</v>
-      </c>
-      <c r="I67" t="s">
-        <v>195</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10662,19 +10398,19 @@
         <v>21061843</v>
       </c>
       <c r="E68" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" t="s">
         <v>113</v>
       </c>
-      <c r="F68" t="s">
-        <v>113</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>114</v>
       </c>
-      <c r="H68" t="s">
-        <v>115</v>
-      </c>
       <c r="I68" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10694,19 +10430,19 @@
         <v>28398310.5</v>
       </c>
       <c r="E69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" t="s">
         <v>105</v>
       </c>
-      <c r="F69" t="s">
-        <v>106</v>
-      </c>
       <c r="G69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I69" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10726,19 +10462,19 @@
         <v>28398310.5</v>
       </c>
       <c r="E70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" t="s">
         <v>105</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>106</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>107</v>
       </c>
-      <c r="H70" t="s">
-        <v>108</v>
-      </c>
       <c r="I70" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10758,19 +10494,19 @@
         <v>39454178.5</v>
       </c>
       <c r="E71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" t="s">
+        <v>129</v>
+      </c>
+      <c r="G71" t="s">
+        <v>130</v>
+      </c>
+      <c r="H71" t="s">
         <v>131</v>
       </c>
-      <c r="F71" t="s">
-        <v>132</v>
-      </c>
-      <c r="G71" t="s">
-        <v>133</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>134</v>
-      </c>
-      <c r="I71" t="s">
-        <v>199</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10790,19 +10526,19 @@
         <v>39454178.5</v>
       </c>
       <c r="E72" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" t="s">
+        <v>133</v>
+      </c>
+      <c r="H72" t="s">
         <v>131</v>
       </c>
-      <c r="F72" t="s">
-        <v>132</v>
-      </c>
-      <c r="G72" t="s">
-        <v>136</v>
-      </c>
-      <c r="H72" t="s">
-        <v>134</v>
-      </c>
       <c r="I72" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10822,19 +10558,19 @@
         <v>90001421</v>
       </c>
       <c r="E73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73" t="s">
         <v>113</v>
       </c>
-      <c r="F73" t="s">
-        <v>113</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>114</v>
       </c>
-      <c r="H73" t="s">
-        <v>115</v>
-      </c>
       <c r="I73" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -10854,19 +10590,19 @@
         <v>87552013</v>
       </c>
       <c r="E74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F74" t="s">
+        <v>112</v>
+      </c>
+      <c r="G74" t="s">
         <v>113</v>
       </c>
-      <c r="F74" t="s">
-        <v>113</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>114</v>
       </c>
-      <c r="H74" t="s">
-        <v>115</v>
-      </c>
       <c r="I74" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -10886,19 +10622,19 @@
         <v>12325523</v>
       </c>
       <c r="E75" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75" t="s">
+        <v>112</v>
+      </c>
+      <c r="G75" t="s">
         <v>113</v>
       </c>
-      <c r="F75" t="s">
-        <v>113</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>114</v>
       </c>
-      <c r="H75" t="s">
-        <v>115</v>
-      </c>
       <c r="I75" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -10918,19 +10654,19 @@
         <v>38271605</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F76" t="s">
+        <v>109</v>
+      </c>
+      <c r="G76" t="s">
         <v>110</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
+        <v>107</v>
+      </c>
+      <c r="I76" t="s">
         <v>111</v>
-      </c>
-      <c r="H76" t="s">
-        <v>108</v>
-      </c>
-      <c r="I76" t="s">
-        <v>204</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -10950,19 +10686,19 @@
         <v>38271605</v>
       </c>
       <c r="E77" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77" t="s">
         <v>105</v>
       </c>
-      <c r="F77" t="s">
-        <v>106</v>
-      </c>
       <c r="G77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I77" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -10982,19 +10718,19 @@
         <v>43827160.5</v>
       </c>
       <c r="E78" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" t="s">
+        <v>123</v>
+      </c>
+      <c r="G78" t="s">
+        <v>123</v>
+      </c>
+      <c r="H78" t="s">
         <v>121</v>
       </c>
-      <c r="F78" t="s">
-        <v>125</v>
-      </c>
-      <c r="G78" t="s">
-        <v>125</v>
-      </c>
-      <c r="H78" t="s">
-        <v>123</v>
-      </c>
       <c r="I78" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11014,19 +10750,19 @@
         <v>43827160.5</v>
       </c>
       <c r="E79" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" t="s">
+        <v>145</v>
+      </c>
+      <c r="G79" t="s">
+        <v>146</v>
+      </c>
+      <c r="H79" t="s">
         <v>121</v>
       </c>
-      <c r="F79" t="s">
-        <v>148</v>
-      </c>
-      <c r="G79" t="s">
-        <v>149</v>
-      </c>
-      <c r="H79" t="s">
-        <v>123</v>
-      </c>
       <c r="I79" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11046,19 +10782,19 @@
         <v>98788205</v>
       </c>
       <c r="E80" t="s">
+        <v>112</v>
+      </c>
+      <c r="F80" t="s">
+        <v>112</v>
+      </c>
+      <c r="G80" t="s">
         <v>113</v>
       </c>
-      <c r="F80" t="s">
-        <v>113</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>114</v>
       </c>
-      <c r="H80" t="s">
-        <v>115</v>
-      </c>
       <c r="I80" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11078,19 +10814,19 @@
         <v>22839450.5</v>
       </c>
       <c r="E81" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" t="s">
         <v>105</v>
       </c>
-      <c r="F81" t="s">
-        <v>106</v>
-      </c>
       <c r="G81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I81" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11110,19 +10846,19 @@
         <v>22839450.5</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F82" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" t="s">
         <v>110</v>
       </c>
-      <c r="G82" t="s">
-        <v>111</v>
-      </c>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I82" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11142,19 +10878,19 @@
         <v>11734504</v>
       </c>
       <c r="E83" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" t="s">
+        <v>129</v>
+      </c>
+      <c r="G83" t="s">
+        <v>133</v>
+      </c>
+      <c r="H83" t="s">
         <v>131</v>
       </c>
-      <c r="F83" t="s">
-        <v>132</v>
-      </c>
-      <c r="G83" t="s">
-        <v>136</v>
-      </c>
-      <c r="H83" t="s">
-        <v>134</v>
-      </c>
       <c r="I83" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11174,19 +10910,19 @@
         <v>11734504</v>
       </c>
       <c r="E84" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84" t="s">
+        <v>129</v>
+      </c>
+      <c r="G84" t="s">
+        <v>130</v>
+      </c>
+      <c r="H84" t="s">
         <v>131</v>
       </c>
-      <c r="F84" t="s">
-        <v>132</v>
-      </c>
-      <c r="G84" t="s">
-        <v>133</v>
-      </c>
-      <c r="H84" t="s">
-        <v>134</v>
-      </c>
       <c r="I84" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11206,19 +10942,19 @@
         <v>23614782</v>
       </c>
       <c r="E85" t="s">
+        <v>112</v>
+      </c>
+      <c r="F85" t="s">
+        <v>112</v>
+      </c>
+      <c r="G85" t="s">
         <v>113</v>
       </c>
-      <c r="F85" t="s">
-        <v>113</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>114</v>
       </c>
-      <c r="H85" t="s">
-        <v>115</v>
-      </c>
       <c r="I85" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11238,19 +10974,19 @@
         <v>87631847</v>
       </c>
       <c r="E86" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" t="s">
         <v>113</v>
       </c>
-      <c r="F86" t="s">
-        <v>113</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>114</v>
       </c>
-      <c r="H86" t="s">
-        <v>115</v>
-      </c>
       <c r="I86" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11270,19 +11006,19 @@
         <v>28394506</v>
       </c>
       <c r="E87" t="s">
+        <v>82</v>
+      </c>
+      <c r="F87" t="s">
+        <v>120</v>
+      </c>
+      <c r="G87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H87" t="s">
         <v>121</v>
       </c>
-      <c r="F87" t="s">
-        <v>122</v>
-      </c>
-      <c r="G87" t="s">
-        <v>122</v>
-      </c>
-      <c r="H87" t="s">
-        <v>123</v>
-      </c>
       <c r="I87" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11302,19 +11038,19 @@
         <v>28394506</v>
       </c>
       <c r="E88" t="s">
+        <v>82</v>
+      </c>
+      <c r="F88" t="s">
+        <v>123</v>
+      </c>
+      <c r="G88" t="s">
+        <v>123</v>
+      </c>
+      <c r="H88" t="s">
         <v>121</v>
       </c>
-      <c r="F88" t="s">
-        <v>125</v>
-      </c>
-      <c r="G88" t="s">
-        <v>125</v>
-      </c>
-      <c r="H88" t="s">
-        <v>123</v>
-      </c>
       <c r="I88" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11334,19 +11070,19 @@
         <v>33948629.5</v>
       </c>
       <c r="E89" t="s">
+        <v>83</v>
+      </c>
+      <c r="F89" t="s">
+        <v>129</v>
+      </c>
+      <c r="G89" t="s">
+        <v>133</v>
+      </c>
+      <c r="H89" t="s">
         <v>131</v>
       </c>
-      <c r="F89" t="s">
-        <v>132</v>
-      </c>
-      <c r="G89" t="s">
-        <v>136</v>
-      </c>
-      <c r="H89" t="s">
-        <v>134</v>
-      </c>
       <c r="I89" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11366,19 +11102,19 @@
         <v>33948629.5</v>
       </c>
       <c r="E90" t="s">
+        <v>83</v>
+      </c>
+      <c r="F90" t="s">
+        <v>129</v>
+      </c>
+      <c r="G90" t="s">
+        <v>130</v>
+      </c>
+      <c r="H90" t="s">
         <v>131</v>
       </c>
-      <c r="F90" t="s">
-        <v>132</v>
-      </c>
-      <c r="G90" t="s">
-        <v>133</v>
-      </c>
-      <c r="H90" t="s">
-        <v>134</v>
-      </c>
       <c r="I90" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11398,19 +11134,19 @@
         <v>34412745</v>
       </c>
       <c r="E91" t="s">
+        <v>112</v>
+      </c>
+      <c r="F91" t="s">
+        <v>112</v>
+      </c>
+      <c r="G91" t="s">
         <v>113</v>
       </c>
-      <c r="F91" t="s">
-        <v>113</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>114</v>
       </c>
-      <c r="H91" t="s">
-        <v>115</v>
-      </c>
       <c r="I91" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11430,19 +11166,19 @@
         <v>5493827</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G92" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I92" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11462,19 +11198,19 @@
         <v>5493827</v>
       </c>
       <c r="E93" t="s">
+        <v>81</v>
+      </c>
+      <c r="F93" t="s">
         <v>105</v>
       </c>
-      <c r="F93" t="s">
-        <v>106</v>
-      </c>
       <c r="G93" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I93" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11494,19 +11230,19 @@
         <v>5493827</v>
       </c>
       <c r="E94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F94" t="s">
+        <v>145</v>
+      </c>
+      <c r="G94" t="s">
+        <v>146</v>
+      </c>
+      <c r="H94" t="s">
         <v>121</v>
       </c>
-      <c r="F94" t="s">
-        <v>148</v>
-      </c>
-      <c r="G94" t="s">
-        <v>149</v>
-      </c>
-      <c r="H94" t="s">
-        <v>123</v>
-      </c>
       <c r="I94" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11526,19 +11262,19 @@
         <v>5493827</v>
       </c>
       <c r="E95" t="s">
+        <v>82</v>
+      </c>
+      <c r="F95" t="s">
+        <v>145</v>
+      </c>
+      <c r="G95" t="s">
+        <v>164</v>
+      </c>
+      <c r="H95" t="s">
         <v>121</v>
       </c>
-      <c r="F95" t="s">
-        <v>148</v>
-      </c>
-      <c r="G95" t="s">
-        <v>170</v>
-      </c>
-      <c r="H95" t="s">
-        <v>123</v>
-      </c>
       <c r="I95" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11558,19 +11294,19 @@
         <v>32048459</v>
       </c>
       <c r="E96" t="s">
+        <v>112</v>
+      </c>
+      <c r="F96" t="s">
+        <v>112</v>
+      </c>
+      <c r="G96" t="s">
         <v>113</v>
       </c>
-      <c r="F96" t="s">
-        <v>113</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>114</v>
       </c>
-      <c r="H96" t="s">
-        <v>115</v>
-      </c>
       <c r="I96" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11590,19 +11326,19 @@
         <v>43828916</v>
       </c>
       <c r="E97" t="s">
+        <v>83</v>
+      </c>
+      <c r="F97" t="s">
+        <v>129</v>
+      </c>
+      <c r="G97" t="s">
+        <v>130</v>
+      </c>
+      <c r="H97" t="s">
         <v>131</v>
       </c>
-      <c r="F97" t="s">
-        <v>132</v>
-      </c>
-      <c r="G97" t="s">
-        <v>133</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>134</v>
-      </c>
-      <c r="I97" t="s">
-        <v>225</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11622,19 +11358,19 @@
         <v>43828916</v>
       </c>
       <c r="E98" t="s">
+        <v>83</v>
+      </c>
+      <c r="F98" t="s">
+        <v>129</v>
+      </c>
+      <c r="G98" t="s">
+        <v>133</v>
+      </c>
+      <c r="H98" t="s">
         <v>131</v>
       </c>
-      <c r="F98" t="s">
-        <v>132</v>
-      </c>
-      <c r="G98" t="s">
-        <v>136</v>
-      </c>
-      <c r="H98" t="s">
-        <v>134</v>
-      </c>
       <c r="I98" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11654,19 +11390,19 @@
         <v>88969607</v>
       </c>
       <c r="E99" t="s">
+        <v>112</v>
+      </c>
+      <c r="F99" t="s">
+        <v>112</v>
+      </c>
+      <c r="G99" t="s">
         <v>113</v>
       </c>
-      <c r="F99" t="s">
-        <v>113</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>114</v>
       </c>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
       <c r="I99" t="s">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11686,19 +11422,19 @@
         <v>11728394.5</v>
       </c>
       <c r="E100" t="s">
+        <v>82</v>
+      </c>
+      <c r="F100" t="s">
+        <v>123</v>
+      </c>
+      <c r="G100" t="s">
+        <v>123</v>
+      </c>
+      <c r="H100" t="s">
         <v>121</v>
       </c>
-      <c r="F100" t="s">
-        <v>125</v>
-      </c>
-      <c r="G100" t="s">
-        <v>125</v>
-      </c>
-      <c r="H100" t="s">
-        <v>123</v>
-      </c>
       <c r="I100" t="s">
-        <v>228</v>
+        <v>140</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11718,19 +11454,19 @@
         <v>11728394.5</v>
       </c>
       <c r="E101" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" t="s">
+        <v>145</v>
+      </c>
+      <c r="G101" t="s">
+        <v>164</v>
+      </c>
+      <c r="H101" t="s">
         <v>121</v>
       </c>
-      <c r="F101" t="s">
-        <v>148</v>
-      </c>
-      <c r="G101" t="s">
-        <v>170</v>
-      </c>
-      <c r="H101" t="s">
-        <v>123</v>
-      </c>
       <c r="I101" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11750,19 +11486,19 @@
         <v>21119870</v>
       </c>
       <c r="E102" t="s">
+        <v>112</v>
+      </c>
+      <c r="F102" t="s">
+        <v>112</v>
+      </c>
+      <c r="G102" t="s">
         <v>113</v>
       </c>
-      <c r="F102" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>114</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>115</v>
-      </c>
-      <c r="I102" t="s">
-        <v>230</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11782,19 +11518,19 @@
         <v>49382716</v>
       </c>
       <c r="E103" t="s">
+        <v>82</v>
+      </c>
+      <c r="F103" t="s">
+        <v>145</v>
+      </c>
+      <c r="G103" t="s">
+        <v>164</v>
+      </c>
+      <c r="H103" t="s">
         <v>121</v>
       </c>
-      <c r="F103" t="s">
-        <v>148</v>
-      </c>
-      <c r="G103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H103" t="s">
-        <v>123</v>
-      </c>
       <c r="I103" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11814,19 +11550,19 @@
         <v>49382716</v>
       </c>
       <c r="E104" t="s">
+        <v>82</v>
+      </c>
+      <c r="F104" t="s">
+        <v>145</v>
+      </c>
+      <c r="G104" t="s">
+        <v>146</v>
+      </c>
+      <c r="H104" t="s">
         <v>121</v>
       </c>
-      <c r="F104" t="s">
-        <v>148</v>
-      </c>
-      <c r="G104" t="s">
-        <v>149</v>
-      </c>
-      <c r="H104" t="s">
-        <v>123</v>
-      </c>
       <c r="I104" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11846,19 +11582,19 @@
         <v>11733104.5</v>
       </c>
       <c r="E105" t="s">
+        <v>83</v>
+      </c>
+      <c r="F105" t="s">
+        <v>129</v>
+      </c>
+      <c r="G105" t="s">
+        <v>133</v>
+      </c>
+      <c r="H105" t="s">
         <v>131</v>
       </c>
-      <c r="F105" t="s">
-        <v>132</v>
-      </c>
-      <c r="G105" t="s">
-        <v>136</v>
-      </c>
-      <c r="H105" t="s">
-        <v>134</v>
-      </c>
       <c r="I105" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -11878,19 +11614,19 @@
         <v>11733104.5</v>
       </c>
       <c r="E106" t="s">
+        <v>83</v>
+      </c>
+      <c r="F106" t="s">
+        <v>129</v>
+      </c>
+      <c r="G106" t="s">
+        <v>130</v>
+      </c>
+      <c r="H106" t="s">
         <v>131</v>
       </c>
-      <c r="F106" t="s">
-        <v>132</v>
-      </c>
-      <c r="G106" t="s">
-        <v>133</v>
-      </c>
-      <c r="H106" t="s">
-        <v>134</v>
-      </c>
       <c r="I106" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -11910,19 +11646,19 @@
         <v>90170963</v>
       </c>
       <c r="E107" t="s">
+        <v>112</v>
+      </c>
+      <c r="F107" t="s">
+        <v>112</v>
+      </c>
+      <c r="G107" t="s">
         <v>113</v>
       </c>
-      <c r="F107" t="s">
-        <v>113</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>114</v>
       </c>
-      <c r="H107" t="s">
-        <v>115</v>
-      </c>
       <c r="I107" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -11942,19 +11678,19 @@
         <v>6172839</v>
       </c>
       <c r="E108" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G108" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I108" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -11974,19 +11710,19 @@
         <v>6172839</v>
       </c>
       <c r="E109" t="s">
+        <v>81</v>
+      </c>
+      <c r="F109" t="s">
         <v>105</v>
       </c>
-      <c r="F109" t="s">
-        <v>106</v>
-      </c>
       <c r="G109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I109" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12006,19 +11742,19 @@
         <v>17283945</v>
       </c>
       <c r="E110" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G110" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I110" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12038,19 +11774,19 @@
         <v>17283945</v>
       </c>
       <c r="E111" t="s">
+        <v>81</v>
+      </c>
+      <c r="F111" t="s">
         <v>105</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>106</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>107</v>
       </c>
-      <c r="H111" t="s">
-        <v>108</v>
-      </c>
       <c r="I111" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12070,19 +11806,19 @@
         <v>32719540</v>
       </c>
       <c r="E112" t="s">
+        <v>83</v>
+      </c>
+      <c r="F112" t="s">
+        <v>129</v>
+      </c>
+      <c r="G112" t="s">
+        <v>130</v>
+      </c>
+      <c r="H112" t="s">
         <v>131</v>
       </c>
-      <c r="F112" t="s">
-        <v>132</v>
-      </c>
-      <c r="G112" t="s">
-        <v>133</v>
-      </c>
-      <c r="H112" t="s">
-        <v>134</v>
-      </c>
       <c r="I112" t="s">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12102,19 +11838,19 @@
         <v>32719540</v>
       </c>
       <c r="E113" t="s">
+        <v>83</v>
+      </c>
+      <c r="F113" t="s">
+        <v>129</v>
+      </c>
+      <c r="G113" t="s">
+        <v>133</v>
+      </c>
+      <c r="H113" t="s">
         <v>131</v>
       </c>
-      <c r="F113" t="s">
-        <v>132</v>
-      </c>
-      <c r="G113" t="s">
-        <v>136</v>
-      </c>
-      <c r="H113" t="s">
-        <v>134</v>
-      </c>
       <c r="I113" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12134,19 +11870,19 @@
         <v>12402765</v>
       </c>
       <c r="E114" t="s">
+        <v>112</v>
+      </c>
+      <c r="F114" t="s">
+        <v>112</v>
+      </c>
+      <c r="G114" t="s">
         <v>113</v>
       </c>
-      <c r="F114" t="s">
-        <v>113</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>114</v>
       </c>
-      <c r="H114" t="s">
-        <v>115</v>
-      </c>
       <c r="I114" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12166,19 +11902,19 @@
         <v>38271605</v>
       </c>
       <c r="E115" t="s">
+        <v>81</v>
+      </c>
+      <c r="F115" t="s">
         <v>105</v>
       </c>
-      <c r="F115" t="s">
-        <v>106</v>
-      </c>
       <c r="G115" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I115" t="s">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12198,19 +11934,19 @@
         <v>38271605</v>
       </c>
       <c r="E116" t="s">
+        <v>81</v>
+      </c>
+      <c r="F116" t="s">
         <v>105</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>106</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>107</v>
       </c>
-      <c r="H116" t="s">
-        <v>108</v>
-      </c>
       <c r="I116" t="s">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12230,19 +11966,19 @@
         <v>49382716</v>
       </c>
       <c r="E117" t="s">
+        <v>82</v>
+      </c>
+      <c r="F117" t="s">
+        <v>120</v>
+      </c>
+      <c r="G117" t="s">
+        <v>120</v>
+      </c>
+      <c r="H117" t="s">
         <v>121</v>
       </c>
-      <c r="F117" t="s">
-        <v>122</v>
-      </c>
-      <c r="G117" t="s">
-        <v>122</v>
-      </c>
-      <c r="H117" t="s">
-        <v>123</v>
-      </c>
       <c r="I117" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12262,19 +11998,19 @@
         <v>49382716</v>
       </c>
       <c r="E118" t="s">
+        <v>82</v>
+      </c>
+      <c r="F118" t="s">
+        <v>145</v>
+      </c>
+      <c r="G118" t="s">
+        <v>164</v>
+      </c>
+      <c r="H118" t="s">
         <v>121</v>
       </c>
-      <c r="F118" t="s">
-        <v>148</v>
-      </c>
-      <c r="G118" t="s">
-        <v>170</v>
-      </c>
-      <c r="H118" t="s">
-        <v>123</v>
-      </c>
       <c r="I118" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12294,19 +12030,19 @@
         <v>22839450.5</v>
       </c>
       <c r="E119" t="s">
+        <v>81</v>
+      </c>
+      <c r="F119" t="s">
         <v>105</v>
       </c>
-      <c r="F119" t="s">
-        <v>106</v>
-      </c>
       <c r="G119" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I119" t="s">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12326,19 +12062,19 @@
         <v>22839450.5</v>
       </c>
       <c r="E120" t="s">
+        <v>81</v>
+      </c>
+      <c r="F120" t="s">
         <v>105</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>106</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>107</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>108</v>
-      </c>
-      <c r="I120" t="s">
-        <v>248</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12358,19 +12094,19 @@
         <v>22839450.5</v>
       </c>
       <c r="E121" t="s">
+        <v>82</v>
+      </c>
+      <c r="F121" t="s">
+        <v>120</v>
+      </c>
+      <c r="G121" t="s">
+        <v>120</v>
+      </c>
+      <c r="H121" t="s">
         <v>121</v>
       </c>
-      <c r="F121" t="s">
-        <v>122</v>
-      </c>
-      <c r="G121" t="s">
-        <v>122</v>
-      </c>
-      <c r="H121" t="s">
-        <v>123</v>
-      </c>
       <c r="I121" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12390,19 +12126,19 @@
         <v>22839450.5</v>
       </c>
       <c r="E122" t="s">
+        <v>82</v>
+      </c>
+      <c r="F122" t="s">
+        <v>145</v>
+      </c>
+      <c r="G122" t="s">
+        <v>146</v>
+      </c>
+      <c r="H122" t="s">
         <v>121</v>
       </c>
-      <c r="F122" t="s">
-        <v>148</v>
-      </c>
-      <c r="G122" t="s">
-        <v>149</v>
-      </c>
-      <c r="H122" t="s">
-        <v>123</v>
-      </c>
       <c r="I122" t="s">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12422,19 +12158,19 @@
         <v>11728394.5</v>
       </c>
       <c r="E123" t="s">
+        <v>83</v>
+      </c>
+      <c r="F123" t="s">
+        <v>129</v>
+      </c>
+      <c r="G123" t="s">
+        <v>130</v>
+      </c>
+      <c r="H123" t="s">
         <v>131</v>
       </c>
-      <c r="F123" t="s">
-        <v>132</v>
-      </c>
-      <c r="G123" t="s">
-        <v>133</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>134</v>
-      </c>
-      <c r="I123" t="s">
-        <v>251</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12454,19 +12190,19 @@
         <v>11728394.5</v>
       </c>
       <c r="E124" t="s">
+        <v>83</v>
+      </c>
+      <c r="F124" t="s">
+        <v>129</v>
+      </c>
+      <c r="G124" t="s">
+        <v>133</v>
+      </c>
+      <c r="H124" t="s">
         <v>131</v>
       </c>
-      <c r="F124" t="s">
-        <v>132</v>
-      </c>
-      <c r="G124" t="s">
-        <v>136</v>
-      </c>
-      <c r="H124" t="s">
-        <v>134</v>
-      </c>
       <c r="I124" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12486,19 +12222,19 @@
         <v>32716054.5</v>
       </c>
       <c r="E125" t="s">
+        <v>81</v>
+      </c>
+      <c r="F125" t="s">
         <v>105</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>106</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>107</v>
       </c>
-      <c r="H125" t="s">
-        <v>108</v>
-      </c>
       <c r="I125" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12518,19 +12254,19 @@
         <v>32716054.5</v>
       </c>
       <c r="E126" t="s">
+        <v>81</v>
+      </c>
+      <c r="F126" t="s">
         <v>105</v>
       </c>
-      <c r="F126" t="s">
-        <v>106</v>
-      </c>
       <c r="G126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H126" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I126" t="s">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12550,19 +12286,19 @@
         <v>87722888</v>
       </c>
       <c r="E127" t="s">
+        <v>112</v>
+      </c>
+      <c r="F127" t="s">
+        <v>112</v>
+      </c>
+      <c r="G127" t="s">
         <v>113</v>
       </c>
-      <c r="F127" t="s">
-        <v>113</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>114</v>
       </c>
-      <c r="H127" t="s">
-        <v>115</v>
-      </c>
       <c r="I127" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12582,19 +12318,19 @@
         <v>28394506</v>
       </c>
       <c r="E128" t="s">
+        <v>81</v>
+      </c>
+      <c r="F128" t="s">
         <v>105</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>106</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>107</v>
       </c>
-      <c r="H128" t="s">
-        <v>108</v>
-      </c>
       <c r="I128" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12614,19 +12350,19 @@
         <v>28394506</v>
       </c>
       <c r="E129" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F129" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G129" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H129" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I129" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12646,19 +12382,19 @@
         <v>17283945</v>
       </c>
       <c r="E130" t="s">
+        <v>82</v>
+      </c>
+      <c r="F130" t="s">
+        <v>120</v>
+      </c>
+      <c r="G130" t="s">
+        <v>120</v>
+      </c>
+      <c r="H130" t="s">
         <v>121</v>
       </c>
-      <c r="F130" t="s">
+      <c r="I130" t="s">
         <v>122</v>
-      </c>
-      <c r="G130" t="s">
-        <v>122</v>
-      </c>
-      <c r="H130" t="s">
-        <v>123</v>
-      </c>
-      <c r="I130" t="s">
-        <v>258</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12678,19 +12414,19 @@
         <v>17283945</v>
       </c>
       <c r="E131" t="s">
+        <v>82</v>
+      </c>
+      <c r="F131" t="s">
+        <v>123</v>
+      </c>
+      <c r="G131" t="s">
+        <v>123</v>
+      </c>
+      <c r="H131" t="s">
         <v>121</v>
       </c>
-      <c r="F131" t="s">
-        <v>125</v>
-      </c>
-      <c r="G131" t="s">
-        <v>125</v>
-      </c>
-      <c r="H131" t="s">
-        <v>123</v>
-      </c>
       <c r="I131" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12710,19 +12446,19 @@
         <v>27160549</v>
       </c>
       <c r="E132" t="s">
+        <v>83</v>
+      </c>
+      <c r="F132" t="s">
+        <v>129</v>
+      </c>
+      <c r="G132" t="s">
+        <v>130</v>
+      </c>
+      <c r="H132" t="s">
         <v>131</v>
       </c>
-      <c r="F132" t="s">
+      <c r="I132" t="s">
         <v>132</v>
-      </c>
-      <c r="G132" t="s">
-        <v>133</v>
-      </c>
-      <c r="H132" t="s">
-        <v>134</v>
-      </c>
-      <c r="I132" t="s">
-        <v>260</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12742,19 +12478,19 @@
         <v>27160549</v>
       </c>
       <c r="E133" t="s">
+        <v>83</v>
+      </c>
+      <c r="F133" t="s">
+        <v>129</v>
+      </c>
+      <c r="G133" t="s">
+        <v>133</v>
+      </c>
+      <c r="H133" t="s">
         <v>131</v>
       </c>
-      <c r="F133" t="s">
-        <v>132</v>
-      </c>
-      <c r="G133" t="s">
-        <v>136</v>
-      </c>
-      <c r="H133" t="s">
-        <v>134</v>
-      </c>
       <c r="I133" t="s">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12774,19 +12510,19 @@
         <v>76497261</v>
       </c>
       <c r="E134" t="s">
+        <v>112</v>
+      </c>
+      <c r="F134" t="s">
+        <v>112</v>
+      </c>
+      <c r="G134" t="s">
         <v>113</v>
       </c>
-      <c r="F134" t="s">
-        <v>113</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>114</v>
       </c>
-      <c r="H134" t="s">
-        <v>115</v>
-      </c>
       <c r="I134" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12806,19 +12542,19 @@
         <v>33945061.5</v>
       </c>
       <c r="E135" t="s">
+        <v>82</v>
+      </c>
+      <c r="F135" t="s">
+        <v>120</v>
+      </c>
+      <c r="G135" t="s">
+        <v>120</v>
+      </c>
+      <c r="H135" t="s">
         <v>121</v>
       </c>
-      <c r="F135" t="s">
-        <v>122</v>
-      </c>
-      <c r="G135" t="s">
-        <v>122</v>
-      </c>
-      <c r="H135" t="s">
-        <v>123</v>
-      </c>
       <c r="I135" t="s">
-        <v>263</v>
+        <v>141</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12838,19 +12574,19 @@
         <v>33945061.5</v>
       </c>
       <c r="E136" t="s">
+        <v>82</v>
+      </c>
+      <c r="F136" t="s">
+        <v>145</v>
+      </c>
+      <c r="G136" t="s">
+        <v>164</v>
+      </c>
+      <c r="H136" t="s">
         <v>121</v>
       </c>
-      <c r="F136" t="s">
-        <v>148</v>
-      </c>
-      <c r="G136" t="s">
-        <v>170</v>
-      </c>
-      <c r="H136" t="s">
-        <v>123</v>
-      </c>
       <c r="I136" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12870,19 +12606,19 @@
         <v>45595666</v>
       </c>
       <c r="E137" t="s">
+        <v>112</v>
+      </c>
+      <c r="F137" t="s">
+        <v>112</v>
+      </c>
+      <c r="G137" t="s">
         <v>113</v>
       </c>
-      <c r="F137" t="s">
-        <v>113</v>
-      </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>114</v>
       </c>
-      <c r="H137" t="s">
-        <v>115</v>
-      </c>
       <c r="I137" t="s">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12902,19 +12638,19 @@
         <v>21605493.5</v>
       </c>
       <c r="E138" t="s">
+        <v>81</v>
+      </c>
+      <c r="F138" t="s">
         <v>105</v>
       </c>
-      <c r="F138" t="s">
-        <v>106</v>
-      </c>
       <c r="G138" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H138" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I138" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -12934,19 +12670,19 @@
         <v>21605493.5</v>
       </c>
       <c r="E139" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G139" t="s">
+        <v>116</v>
+      </c>
+      <c r="H139" t="s">
+        <v>107</v>
+      </c>
+      <c r="I139" t="s">
         <v>117</v>
-      </c>
-      <c r="H139" t="s">
-        <v>108</v>
-      </c>
-      <c r="I139" t="s">
-        <v>267</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -12966,19 +12702,19 @@
         <v>32716054.5</v>
       </c>
       <c r="E140" t="s">
+        <v>83</v>
+      </c>
+      <c r="F140" t="s">
+        <v>129</v>
+      </c>
+      <c r="G140" t="s">
+        <v>133</v>
+      </c>
+      <c r="H140" t="s">
         <v>131</v>
       </c>
-      <c r="F140" t="s">
-        <v>132</v>
-      </c>
-      <c r="G140" t="s">
-        <v>136</v>
-      </c>
-      <c r="H140" t="s">
-        <v>134</v>
-      </c>
       <c r="I140" t="s">
-        <v>268</v>
+        <v>150</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -12998,19 +12734,19 @@
         <v>32716054.5</v>
       </c>
       <c r="E141" t="s">
+        <v>83</v>
+      </c>
+      <c r="F141" t="s">
+        <v>129</v>
+      </c>
+      <c r="G141" t="s">
+        <v>130</v>
+      </c>
+      <c r="H141" t="s">
         <v>131</v>
       </c>
-      <c r="F141" t="s">
+      <c r="I141" t="s">
         <v>132</v>
-      </c>
-      <c r="G141" t="s">
-        <v>133</v>
-      </c>
-      <c r="H141" t="s">
-        <v>134</v>
-      </c>
-      <c r="I141" t="s">
-        <v>269</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13030,19 +12766,19 @@
         <v>39450617</v>
       </c>
       <c r="E142" t="s">
+        <v>83</v>
+      </c>
+      <c r="F142" t="s">
+        <v>129</v>
+      </c>
+      <c r="G142" t="s">
+        <v>133</v>
+      </c>
+      <c r="H142" t="s">
         <v>131</v>
       </c>
-      <c r="F142" t="s">
-        <v>132</v>
-      </c>
-      <c r="G142" t="s">
-        <v>136</v>
-      </c>
-      <c r="H142" t="s">
-        <v>134</v>
-      </c>
       <c r="I142" t="s">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13062,19 +12798,19 @@
         <v>39450617</v>
       </c>
       <c r="E143" t="s">
+        <v>83</v>
+      </c>
+      <c r="F143" t="s">
+        <v>129</v>
+      </c>
+      <c r="G143" t="s">
+        <v>130</v>
+      </c>
+      <c r="H143" t="s">
         <v>131</v>
       </c>
-      <c r="F143" t="s">
-        <v>132</v>
-      </c>
-      <c r="G143" t="s">
-        <v>133</v>
-      </c>
-      <c r="H143" t="s">
-        <v>134</v>
-      </c>
       <c r="I143" t="s">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13094,19 +12830,19 @@
         <v>56666730</v>
       </c>
       <c r="E144" t="s">
+        <v>112</v>
+      </c>
+      <c r="F144" t="s">
+        <v>112</v>
+      </c>
+      <c r="G144" t="s">
         <v>113</v>
       </c>
-      <c r="F144" t="s">
-        <v>113</v>
-      </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>114</v>
       </c>
-      <c r="H144" t="s">
-        <v>115</v>
-      </c>
       <c r="I144" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13126,19 +12862,19 @@
         <v>16054938</v>
       </c>
       <c r="E145" t="s">
+        <v>81</v>
+      </c>
+      <c r="F145" t="s">
         <v>105</v>
       </c>
-      <c r="F145" t="s">
-        <v>106</v>
-      </c>
       <c r="G145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H145" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I145" t="s">
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13158,19 +12894,19 @@
         <v>16054938</v>
       </c>
       <c r="E146" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F146" t="s">
+        <v>109</v>
+      </c>
+      <c r="G146" t="s">
         <v>110</v>
       </c>
-      <c r="G146" t="s">
-        <v>111</v>
-      </c>
       <c r="H146" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I146" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13190,19 +12926,19 @@
         <v>27160549</v>
       </c>
       <c r="E147" t="s">
+        <v>82</v>
+      </c>
+      <c r="F147" t="s">
+        <v>123</v>
+      </c>
+      <c r="G147" t="s">
+        <v>123</v>
+      </c>
+      <c r="H147" t="s">
         <v>121</v>
       </c>
-      <c r="F147" t="s">
-        <v>125</v>
-      </c>
-      <c r="G147" t="s">
-        <v>125</v>
-      </c>
-      <c r="H147" t="s">
-        <v>123</v>
-      </c>
       <c r="I147" t="s">
-        <v>275</v>
+        <v>124</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13222,19 +12958,19 @@
         <v>27160549</v>
       </c>
       <c r="E148" t="s">
+        <v>82</v>
+      </c>
+      <c r="F148" t="s">
+        <v>145</v>
+      </c>
+      <c r="G148" t="s">
+        <v>164</v>
+      </c>
+      <c r="H148" t="s">
         <v>121</v>
       </c>
-      <c r="F148" t="s">
-        <v>148</v>
-      </c>
-      <c r="G148" t="s">
-        <v>170</v>
-      </c>
-      <c r="H148" t="s">
-        <v>123</v>
-      </c>
       <c r="I148" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13257,7 +12993,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13287,7 +13023,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -13297,10 +13033,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13313,29 +13049,35 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
       <c r="B2" s="34" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="41.25" customHeight="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
       <c r="B3" s="37" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="C3" s="38">
         <v>26957145.600000001</v>
@@ -13344,20 +13086,23 @@
         <v>2024</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F3" s="39">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5396156.120000001</v>
+        <v>5412391.120000001</v>
       </c>
       <c r="G3" s="38">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21560989.48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>21544754.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
       <c r="B4" s="37" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="C4" s="38">
         <v>40426848</v>
@@ -13366,20 +13111,23 @@
         <v>2023</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F4" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8098293.6000000006</v>
+        <v>8105146.6000000006</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>32328554.399999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>32321701.399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
       <c r="B5" s="37" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="C5" s="38">
         <v>53896550.399999999</v>
@@ -13388,20 +13136,23 @@
         <v>2022</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F5" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>10803442.08</v>
+        <v>10801513.08</v>
       </c>
       <c r="G5" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>43093108.32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1">
+        <v>43095037.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
       <c r="B6" s="37" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="C6" s="38">
         <v>67366252.799999997</v>
@@ -13410,20 +13161,23 @@
         <v>2019</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F6" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>13481945.560000001</v>
+        <v>13473477.560000001</v>
       </c>
       <c r="G6" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>53884307.239999995</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>53892775.239999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
       <c r="B7" s="37" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="C7" s="38">
         <v>80835955.199999988</v>
@@ -13432,20 +13186,23 @@
         <v>2024</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F7" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16172565.039999999</v>
+        <v>16187290.039999999</v>
       </c>
       <c r="G7" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>64663390.159999989</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>64648665.159999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
       <c r="B8" s="37" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C8" s="38">
         <v>94305657.600000009</v>
@@ -13454,20 +13211,23 @@
         <v>2023</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F8" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>18861260.520000003</v>
+        <v>18867884.520000003</v>
       </c>
       <c r="G8" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>75444397.080000013</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
+        <v>75437773.080000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
       <c r="B9" s="37" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="C9" s="38">
         <v>107760576</v>
@@ -13476,20 +13236,23 @@
         <v>2022</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F9" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>21562292.200000003</v>
+        <v>21559382.200000003</v>
       </c>
       <c r="G9" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>86198283.799999997</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>86201193.799999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
       <c r="B10" s="37" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="C10" s="38">
         <v>121082438.40000001</v>
@@ -13498,20 +13261,23 @@
         <v>2019</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F10" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>24236950.680000003</v>
+        <v>24237368.680000003</v>
       </c>
       <c r="G10" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>96845487.719999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1">
+        <v>96845069.719999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
       <c r="B11" s="37" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="C11" s="38">
         <v>133073740.8</v>
@@ -13520,20 +13286,23 @@
         <v>2024</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F11" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>26635776.16</v>
+        <v>26625588.16</v>
       </c>
       <c r="G11" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>106437964.64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>106448152.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
       <c r="B12" s="37" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="C12" s="38">
         <v>146543443.19999999</v>
@@ -13542,20 +13311,23 @@
         <v>2023</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F12" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29319533.640000001</v>
+        <v>29319962.640000001</v>
       </c>
       <c r="G12" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>117223909.55999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>117223480.55999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
       <c r="B13" s="37" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C13" s="38">
         <v>16608345.6</v>
@@ -13564,20 +13336,23 @@
         <v>2022</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F13" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>3325070.12</v>
+        <v>3342732.12</v>
       </c>
       <c r="G13" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>13283275.48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>13265613.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
       <c r="B14" s="37" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="C14" s="38">
         <v>33034848</v>
@@ -13586,20 +13361,23 @@
         <v>2019</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F14" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>6607189.6000000006</v>
+        <v>6618138.6000000006</v>
       </c>
       <c r="G14" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>26427658.399999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+        <v>26416709.399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
       <c r="B15" s="37" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="C15" s="38">
         <v>49461350.399999999</v>
@@ -13608,20 +13386,23 @@
         <v>2020</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F15" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>9912876.0800000001</v>
+        <v>9917238.0800000001</v>
       </c>
       <c r="G15" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>39548474.32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>39544112.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
       <c r="B16" s="37" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="C16" s="38">
         <v>65887852.799999997</v>
@@ -13630,20 +13411,23 @@
         <v>2020</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F16" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>13194194.560000001</v>
+        <v>13187967.560000001</v>
       </c>
       <c r="G16" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>52693658.239999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>52699885.239999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
       <c r="B17" s="37" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="C17" s="38">
         <v>82314355.199999988</v>
@@ -13652,20 +13436,23 @@
         <v>2020</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F17" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16470499.039999999</v>
+        <v>16485594.039999999</v>
       </c>
       <c r="G17" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>65843856.159999989</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>65828761.159999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
       <c r="B18" s="37" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C18" s="38">
         <v>98740857.600000009</v>
@@ -13674,20 +13461,23 @@
         <v>2020</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F18" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>19748795.520000003</v>
+        <v>19758197.520000003</v>
       </c>
       <c r="G18" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>78992062.080000013</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+        <v>78982660.080000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
       <c r="B19" s="37" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="C19" s="38">
         <v>115152576</v>
@@ -13696,20 +13486,23 @@
         <v>2020</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F19" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>23037615.200000003</v>
+        <v>23048765.200000003</v>
       </c>
       <c r="G19" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>92114960.799999997</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>92103810.799999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
       <c r="B20" s="37" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="C20" s="38">
         <v>131431238.40000001</v>
@@ -13718,20 +13511,23 @@
         <v>2020</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>26300457.680000003</v>
+        <v>26289100.680000003</v>
       </c>
       <c r="G20" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>105130780.72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+        <v>105142137.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
       <c r="B21" s="37" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="C21" s="38">
         <v>146379340.80000001</v>
@@ -13740,20 +13536,23 @@
         <v>2017</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F21" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29293644.160000004</v>
+        <v>29290821.160000004</v>
       </c>
       <c r="G21" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>117085696.64000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>117088519.64000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
       <c r="B22" s="37" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="C22" s="38">
         <v>14965843.199999999</v>
@@ -13762,20 +13561,23 @@
         <v>2017</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>3002315.64</v>
+        <v>3006795.64</v>
       </c>
       <c r="G22" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>11963527.559999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>11959047.559999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
       <c r="B23" s="37" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="C23" s="38">
         <v>31392345.600000001</v>
@@ -13784,20 +13586,23 @@
         <v>2017</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F23" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>6299056.120000001</v>
+        <v>6278598.120000001</v>
       </c>
       <c r="G23" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>25093289.48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <v>25113747.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
       <c r="B24" s="37" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="C24" s="38">
         <v>47818848</v>
@@ -13806,20 +13611,23 @@
         <v>2017</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F24" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>9565012.5999999996</v>
+        <v>9565780.5999999996</v>
       </c>
       <c r="G24" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>38253835.399999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+        <v>38253067.399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
       <c r="B25" s="37" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="C25" s="38">
         <v>64245350.399999999</v>
@@ -13828,20 +13636,23 @@
         <v>2017</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F25" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>12868854.08</v>
+        <v>12867506.08</v>
       </c>
       <c r="G25" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>51376496.32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>51377844.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
       <c r="B26" s="37" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="C26" s="38">
         <v>80671852.799999997</v>
@@ -13850,20 +13661,23 @@
         <v>2017</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F26" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>16148934.560000001</v>
+        <v>16158069.560000001</v>
       </c>
       <c r="G26" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>64522918.239999995</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>64513783.239999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
       <c r="B27" s="37" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="C27" s="38">
         <v>97098355.199999988</v>
@@ -13872,20 +13686,23 @@
         <v>2017</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>19426046.039999999</v>
+        <v>19425889.039999999</v>
       </c>
       <c r="G27" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>77672309.159999996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>77672466.159999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
       <c r="B28" s="37" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="C28" s="38">
         <v>113524857.59999999</v>
@@ -13894,20 +13711,23 @@
         <v>2015</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F28" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>22706042.52</v>
+        <v>22720692.52</v>
       </c>
       <c r="G28" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>90818815.079999998</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>90804165.079999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
       <c r="B29" s="37" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="C29" s="38">
         <v>129936576</v>
@@ -13916,20 +13736,23 @@
         <v>2015</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F29" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>25996125.200000003</v>
+        <v>26005436.200000003</v>
       </c>
       <c r="G29" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>103940450.8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>103931139.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
       <c r="B30" s="37" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="C30" s="38">
         <v>146215238.40000001</v>
@@ -13938,20 +13761,23 @@
         <v>2015</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F30" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>29264528.680000003</v>
+        <v>29256565.680000003</v>
       </c>
       <c r="G30" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>116950709.72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>116958672.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
       <c r="B31" s="37" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="C31" s="38">
         <v>28107340.800000001</v>
@@ -13960,20 +13786,23 @@
         <v>2015</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F31" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>5626447.1600000001</v>
+        <v>5641975.1600000001</v>
       </c>
       <c r="G31" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>22480893.640000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>22465365.640000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
       <c r="B32" s="37" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="C32" s="38">
         <v>44533843.200000003</v>
@@ -13982,20 +13811,23 @@
         <v>2015</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F32" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8921804.6400000006</v>
+        <v>8912041.6400000006</v>
       </c>
       <c r="G32" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>35612038.560000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>35621801.560000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
       <c r="B33" s="37" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="C33" s="38">
         <v>60960345.599999987</v>
@@ -14004,20 +13836,23 @@
         <v>2015</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F33" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>12202200.119999997</v>
+        <v>12201181.119999997</v>
       </c>
       <c r="G33" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>48758145.479999989</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>48759164.479999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
       <c r="B34" s="37" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="C34" s="38">
         <v>77386848</v>
@@ -14026,20 +13861,23 @@
         <v>2015</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F34" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>15485722.600000001</v>
+        <v>15491091.600000001</v>
       </c>
       <c r="G34" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>61901125.399999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>61895756.399999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
       <c r="B35" s="37" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="C35" s="38">
         <v>93813350.399999991</v>
@@ -14048,20 +13886,23 @@
         <v>2015</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F35" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>18774110.079999998</v>
+        <v>18787225.079999998</v>
       </c>
       <c r="G35" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>75039240.319999993</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>75026125.319999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
       <c r="B36" s="37" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="C36" s="38">
         <v>110239852.8</v>
@@ -14070,20 +13911,23 @@
         <v>2015</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F36" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>22052830.560000002</v>
+        <v>22061990.560000002</v>
       </c>
       <c r="G36" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>88187022.239999995</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>88177862.239999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
       <c r="B37" s="37" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C37" s="38">
         <v>126666355.2</v>
@@ -14092,20 +13936,23 @@
         <v>2015</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="F37" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>25347641.040000003</v>
+        <v>25341827.040000003</v>
       </c>
       <c r="G37" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>101318714.16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>101324528.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
       <c r="B38" s="37" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="C38" s="38">
         <v>143092857.59999999</v>
@@ -14114,20 +13961,23 @@
         <v>2015</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F38" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>28627795.52</v>
+        <v>28628406.52</v>
       </c>
       <c r="G38" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>114465062.08</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1">
+        <v>114464451.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
       <c r="B39" s="37" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="C39" s="38">
         <v>26448576</v>
@@ -14136,20 +13986,23 @@
         <v>2015</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F39" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>5311056.2</v>
+        <v>5294651.2</v>
       </c>
       <c r="G39" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>21137519.800000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+        <v>21153924.800000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
       <c r="B40" s="37" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="C40" s="38">
         <v>42727238.399999999</v>
@@ -14158,20 +14011,23 @@
         <v>2015</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F40" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>8558805.6799999997</v>
+        <v>8547317.6799999997</v>
       </c>
       <c r="G40" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>34168432.719999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+        <v>34179920.719999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
       <c r="B41" s="37" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="C41" s="38">
         <v>57675340.799999997</v>
@@ -14180,20 +14036,23 @@
         <v>2015</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F41" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>11545252.16</v>
+        <v>11538256.16</v>
       </c>
       <c r="G41" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>46130088.640000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+        <v>46137084.640000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
       <c r="B42" s="37" t="s">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="C42" s="38">
         <v>74101843.200000003</v>
@@ -14202,15 +14061,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F42" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>14837519.640000001</v>
+        <v>14822556.640000001</v>
       </c>
       <c r="G42" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>59264323.560000002</v>
+        <v>59279286.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14220,10 +14079,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:F43"/>
+  <dimension ref="A2:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14235,7 +14094,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
       <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
@@ -14246,13 +14108,16 @@
         <v>69</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
       <c r="B3" s="40" t="s">
         <v>16</v>
       </c>
@@ -14263,13 +14128,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="F3" s="42">
         <v>46466</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
       <c r="B4" s="40" t="s">
         <v>17</v>
       </c>
@@ -14280,13 +14148,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="F4" s="24">
         <v>46467</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
       <c r="B5" s="43" t="s">
         <v>18</v>
       </c>
@@ -14303,7 +14174,10 @@
         <v>46281</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
       <c r="B6" s="21" t="s">
         <v>21</v>
       </c>
@@ -14320,7 +14194,10 @@
         <v>46282</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
       <c r="B7" s="21" t="s">
         <v>22</v>
       </c>
@@ -14337,7 +14214,10 @@
         <v>46283</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
       <c r="B8" s="21" t="s">
         <v>23</v>
       </c>
@@ -14354,7 +14234,10 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
       <c r="B9" s="21" t="s">
         <v>26</v>
       </c>
@@ -14371,7 +14254,10 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
       <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
@@ -14390,7 +14276,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="40" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="C38" s="40">
         <v>8</v>
@@ -14399,13 +14285,13 @@
         <v>3</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="F38" s="41"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="40" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="C39" s="40">
         <v>9</v>
@@ -14414,13 +14300,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="F39" s="41"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="40" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="C40" s="40">
         <v>10</v>
@@ -14429,13 +14315,13 @@
         <v>5</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="F40" s="41"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="40" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="C41" s="40">
         <v>11</v>
@@ -14444,13 +14330,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="F41" s="44"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="40" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="C42" s="40">
         <v>12</v>
@@ -14459,13 +14345,13 @@
         <v>2</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="F42" s="41"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="40" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="C43" s="40">
         <v>13</v>
@@ -14474,7 +14360,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="F43" s="41"/>
     </row>
@@ -14516,13 +14402,13 @@
         <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14542,10 +14428,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H2" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14567,10 +14453,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H3" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14591,10 +14477,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="H4" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14615,10 +14501,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H5" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14639,10 +14525,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="H6" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14664,10 +14550,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="H7" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14689,10 +14575,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H8" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14714,10 +14600,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H9" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14739,10 +14625,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H10" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14764,10 +14650,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="H11" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14789,7 +14675,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14811,10 +14697,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H13" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14836,7 +14722,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14859,7 +14745,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14881,7 +14767,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14903,10 +14789,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H17" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14928,7 +14814,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14950,7 +14836,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14972,7 +14858,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14995,7 +14881,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15017,7 +14903,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15039,7 +14925,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15061,7 +14947,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15083,7 +14969,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15105,7 +14991,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15127,7 +15013,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15149,10 +15035,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H28" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15174,10 +15060,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H29" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15199,7 +15085,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15221,7 +15107,7 @@
         <v>13</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15244,7 +15130,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15266,10 +15152,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H33" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15291,10 +15177,10 @@
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H34" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15316,10 +15202,10 @@
         <v>12</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H35" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15341,10 +15227,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H36" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15366,7 +15252,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15388,7 +15274,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15410,7 +15296,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15432,10 +15318,10 @@
         <v>12</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H40" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15457,10 +15343,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="H41" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15482,7 +15368,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15504,7 +15390,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15526,7 +15412,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15548,7 +15434,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15570,7 +15456,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15592,7 +15478,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15614,7 +15500,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15636,7 +15522,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15658,7 +15544,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15680,7 +15566,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -15710,7 +15596,7 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
         <v>100</v>
@@ -15727,10 +15613,10 @@
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="18">
         <v>0.5</v>
@@ -15741,10 +15627,10 @@
         <v>81</v>
       </c>
       <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
         <v>106</v>
-      </c>
-      <c r="D5" t="s">
-        <v>107</v>
       </c>
       <c r="E5" s="18">
         <v>0.5</v>
@@ -15755,10 +15641,10 @@
         <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="18">
         <v>0.5</v>
@@ -15769,10 +15655,10 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
         <v>110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>111</v>
       </c>
       <c r="E7" s="18">
         <v>0.5</v>
@@ -15783,10 +15669,10 @@
         <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="18">
         <v>0.5</v>
@@ -15797,10 +15683,10 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E9" s="18">
         <v>0.5</v>
@@ -15811,10 +15697,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10" s="18">
         <v>0</v>
@@ -15825,10 +15711,10 @@
         <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="18">
         <v>0</v>
@@ -15839,10 +15725,10 @@
         <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E12" s="18">
         <v>0</v>
@@ -15853,10 +15739,10 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E13" s="18">
         <v>0</v>
@@ -15867,10 +15753,10 @@
         <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E14" s="18">
         <v>0.75</v>
@@ -15881,10 +15767,10 @@
         <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E15" s="18">
         <v>0.75</v>
@@ -15892,13 +15778,13 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
         <v>113</v>
-      </c>
-      <c r="C16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" t="s">
-        <v>114</v>
       </c>
       <c r="E16" s="18">
         <v>1</v>
@@ -15925,35 +15811,35 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="K1" s="45" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="16" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="D2" s="16">
         <v>21</v>
@@ -15969,13 +15855,13 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="16" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="D3" s="16">
         <v>20</v>
@@ -15991,13 +15877,13 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="16" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="D4" s="16">
         <v>19</v>
@@ -16014,13 +15900,13 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="16" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="D5" s="16">
         <v>18</v>
@@ -16036,13 +15922,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="16" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="D6" s="16">
         <v>17</v>
@@ -16058,13 +15944,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="16" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="D7" s="16">
         <v>16</v>
@@ -16080,13 +15966,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="16" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="D8" s="16">
         <v>15</v>
@@ -16102,13 +15988,13 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="16" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="D9" s="16">
         <v>14</v>
@@ -16124,13 +16010,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="16" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="D10" s="16">
         <v>13</v>
@@ -16146,13 +16032,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="16" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="D11" s="16">
         <v>12</v>
@@ -16168,13 +16054,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="16" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="D12" s="16">
         <v>11</v>
@@ -16190,13 +16076,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="16" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="D13" s="16">
         <v>10</v>
@@ -16212,13 +16098,13 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="16" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="D14" s="16">
         <v>9</v>
@@ -16234,13 +16120,13 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="16" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="D15" s="16">
         <v>8</v>
@@ -16256,13 +16142,13 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="16" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="D16" s="16">
         <v>7</v>
@@ -16278,13 +16164,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="16" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="D17" s="16">
         <v>6</v>
@@ -16300,13 +16186,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="16" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="D18" s="16">
         <v>5</v>
@@ -16322,13 +16208,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="16" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="D19" s="16">
         <v>4</v>
@@ -16344,13 +16230,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="16" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="D20" s="16">
         <v>3</v>
@@ -16366,13 +16252,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="16" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="D21" s="16">
         <v>2</v>
@@ -16390,7 +16276,7 @@
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="D22" s="16">
         <v>2</v>
@@ -16406,13 +16292,13 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="16" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
@@ -16427,11 +16313,11 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="16" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
@@ -16448,7 +16334,7 @@
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="D25" s="16">
         <v>1</v>
